--- a/QuantLibXL/Data2/XLS/GBP_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_SynthQuotesFeed.xlsx
@@ -2270,14 +2270,14 @@
     <xf numFmtId="177" fontId="8" fillId="4" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -2363,7 +2363,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>131</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="7">
@@ -2454,12 +2454,12 @@
       <sheetData sheetId="8">
         <row r="6">
           <cell r="D6" t="str">
-            <v>U4</v>
+            <v>V4</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>V4</v>
+            <v>X4</v>
           </cell>
         </row>
       </sheetData>
@@ -2471,19 +2471,19 @@
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>N4</v>
+            <v>Q4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="6">
           <cell r="D6" t="str">
-            <v>Q4</v>
+            <v>U4</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>U4</v>
+            <v>V4</v>
           </cell>
         </row>
       </sheetData>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="D9" s="348">
         <f>_xll.ohTrigger(Contribution!O1)</f>
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="E9" s="132"/>
       <c r="G9" s="334"/>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="137">
-        <v>41771.382361111115</v>
+        <v>41858.745393518519</v>
       </c>
       <c r="E11" s="132"/>
       <c r="G11" s="334"/>
@@ -3283,16 +3283,14 @@
       </c>
       <c r="D18" s="56">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"0D","f")</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="E18" s="132"/>
       <c r="G18" s="131"/>
       <c r="H18" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="126">
-        <v>41820.437349537038</v>
-      </c>
+      <c r="I18" s="126"/>
       <c r="J18" s="132"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
@@ -3302,7 +3300,7 @@
       </c>
       <c r="D19" s="50" t="str">
         <f>_xll.qlDiscountingSwapEngine(,OisCurve,,,,,EvaluationDate)</f>
-        <v>obj_003b9#0000</v>
+        <v>obj_003bd#0003</v>
       </c>
       <c r="E19" s="132"/>
       <c r="G19" s="131"/>
@@ -3311,7 +3309,7 @@
       </c>
       <c r="I19" s="126">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="J19" s="132"/>
     </row>
@@ -3331,7 +3329,7 @@
       </c>
       <c r="I20" s="237">
         <f>[1]!TriggerCounter</f>
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="J20" s="132"/>
     </row>
@@ -3470,7 +3468,7 @@
       </c>
       <c r="D34" s="127" t="str">
         <f>_xll.qlLibor(,Currency,IborTenor,YieldCurve,,D32)</f>
-        <v>obj_00404#0000</v>
+        <v>obj_00405#0003</v>
       </c>
       <c r="E34" s="132"/>
     </row>
@@ -3491,7 +3489,7 @@
       </c>
       <c r="D36" s="127" t="str">
         <f>_xll.qlInterpolation(,BasisInterpolation,SynthFRA!I2:I6,SynthFRA!M2:M6)</f>
-        <v>obj_005ab#0129</v>
+        <v>obj_005a9#0008</v>
       </c>
       <c r="E36" s="132"/>
     </row>
@@ -3512,7 +3510,7 @@
       </c>
       <c r="D38" s="127" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,NDays,Calendar,_xll.ohPack(SynthFRA!A3:A127),DayCounter,,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>obj_00403#0000</v>
+        <v>obj_00404#0003</v>
       </c>
       <c r="E38" s="132"/>
     </row>
@@ -3537,7 +3535,7 @@
       <c r="B41" s="131"/>
       <c r="C41" s="354">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="D41" s="355">
         <f>MAX(_xll.ohPack(SynthFRA!E2:E127))</f>
@@ -3549,11 +3547,11 @@
       <c r="B42" s="131"/>
       <c r="C42" s="354">
         <f>MAX(_xll.ohPack(SynthFRA!D3:D127))</f>
-        <v>43644</v>
+        <v>43684</v>
       </c>
       <c r="D42" s="355">
         <f>MIN(_xll.ohPack(SynthFRA!E2:E127))</f>
-        <v>0.89229559710555695</v>
+        <v>0.89300047459656173</v>
       </c>
       <c r="E42" s="132"/>
     </row>
@@ -3622,7 +3620,7 @@
   <dimension ref="A1:AH50"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3706,7 +3704,7 @@
       </c>
       <c r="B2" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E2,F2,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003d3#0000</v>
+        <v>obj_003ec#0004</v>
       </c>
       <c r="C2" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B2,OisEngine)</f>
@@ -3718,23 +3716,23 @@
       </c>
       <c r="E2" s="104">
         <f>SettlementDate</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F2" s="105">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
-        <v>41850</v>
+        <v>41890</v>
       </c>
       <c r="G2" s="106">
         <f>_xll.qlQuoteValue($D2,AllTriggers)</f>
-        <v>4.9469000000000006E-3</v>
+        <v>5.0125000000000005E-3</v>
       </c>
       <c r="H2" s="107">
         <f>_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>4.2150603256780883E-3</v>
+        <v>4.241095889498947E-3</v>
       </c>
       <c r="I2" s="108">
         <f>G2-H2</f>
-        <v>7.318396743219123E-4</v>
+        <v>7.7140411050105346E-4</v>
       </c>
       <c r="J2" s="109" t="b">
         <v>0</v>
@@ -3748,20 +3746,20 @@
       </c>
       <c r="O2" s="112">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P2" s="110">
         <f>(O2^2-N2^2)/(O2-N2)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="109"/>
       <c r="R2" s="123">
         <f>(O2^3-N2^3)/3/(O2-N2)</f>
-        <v>300</v>
+        <v>341.33333333333331</v>
       </c>
       <c r="S2" s="123">
         <f>(O2+N2)/2</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T2" s="123">
         <v>1</v>
@@ -3774,7 +3772,7 @@
       </c>
       <c r="B3" s="57" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00436#0001</v>
+        <v>obj_00365#0008</v>
       </c>
       <c r="C3" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
@@ -3786,23 +3784,23 @@
       </c>
       <c r="E3" s="97">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D3),_xll.qlInterestRateIndexFixingDays(A4)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41817</v>
+        <v>41858</v>
       </c>
       <c r="F3" s="98">
         <f>F2</f>
-        <v>41850</v>
+        <v>41890</v>
       </c>
       <c r="G3" s="99">
         <f>_xll.qlQuoteValue(D3,AllTriggers)</f>
-        <v>4.9469000000000006E-3</v>
+        <v>5.0125000000000005E-3</v>
       </c>
       <c r="H3" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
-        <v>4.2534407253391748E-3</v>
+        <v>4.241095889498947E-3</v>
       </c>
       <c r="I3" s="101">
         <f t="shared" ref="I3:I27" si="1">G3-H3</f>
-        <v>6.9345927466082577E-4</v>
+        <v>7.7140411050105346E-4</v>
       </c>
       <c r="J3" s="109" t="b">
         <f>NOT(ISERROR(I3))</f>
@@ -3810,33 +3808,33 @@
       </c>
       <c r="K3" s="111">
         <f>K4</f>
-        <v>-7.9470550320994053E-6</v>
+        <v>1.3095918283131879E-8</v>
       </c>
       <c r="L3" s="100">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K3*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>9.0802976052750976E-4</v>
+        <v>7.7098504111599328E-4</v>
       </c>
       <c r="M3" s="110"/>
       <c r="N3" s="112">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O3" s="112">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P3" s="110">
         <f>(O3^2-N3^2)/(O3-N3)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="109"/>
       <c r="R3" s="123">
         <f>(O3^3-N3^3)/3/(O3-N3)</f>
-        <v>273</v>
+        <v>341.33333333333331</v>
       </c>
       <c r="S3" s="123">
         <f>(O3+N3)/2</f>
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="T3" s="123">
         <v>1</v>
@@ -3849,7 +3847,7 @@
       </c>
       <c r="B4" s="57" t="str">
         <f>_xll.qlMakeDatedOIS(,E4,F4,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00402#0000</v>
+        <v>obj_003f9#0004</v>
       </c>
       <c r="C4" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B4,OisEngine)</f>
@@ -3860,23 +3858,23 @@
       </c>
       <c r="E4" s="54">
         <f>F3</f>
-        <v>41850</v>
+        <v>41890</v>
       </c>
       <c r="F4" s="55">
         <f>F5</f>
-        <v>41880</v>
+        <v>41919</v>
       </c>
       <c r="G4" s="27">
         <f>((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
-        <v>4.6063211907236834E-3</v>
+        <v>5.1153932219236619E-3</v>
       </c>
       <c r="H4" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>4.4135263830851201E-3</v>
+        <v>4.3431902604073374E-3</v>
       </c>
       <c r="I4" s="16">
         <f>G4-H4</f>
-        <v>1.9279480763856327E-4</v>
+        <v>7.722029615163245E-4</v>
       </c>
       <c r="J4" s="1" t="b">
         <f>NOT(ISERROR(I4))</f>
@@ -3884,32 +3882,32 @@
       </c>
       <c r="K4" s="15">
         <f>(I4-_xll.ohFilter($I$2:$I$3,$J$2:$J$3))/(P4-_xll.ohFilter($P$2:$P$3,$J$2:$J$3))</f>
-        <v>-7.9470550320994053E-6</v>
+        <v>1.3095918283131879E-8</v>
       </c>
       <c r="L4" s="15">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K4*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>9.0802976052750976E-4</v>
+        <v>7.7098504111599328E-4</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="113">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O4" s="113">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P4" s="5">
         <f>(O4^2-N4^2)/(O4-N4)</f>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R4" s="92">
         <f>(O4^3-N4^3)/3/(O4-N4)</f>
-        <v>2100</v>
+        <v>2232.333333333333</v>
       </c>
       <c r="S4" s="92">
         <f>(O4+N4)/2</f>
-        <v>45</v>
+        <v>46.5</v>
       </c>
       <c r="T4" s="92">
         <v>1</v>
@@ -3918,7 +3916,7 @@
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B5" s="57" t="str">
         <f>_xll.qlMakeDatedOIS(,E5,F5,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c8#0000</v>
+        <v>obj_003ee#0003</v>
       </c>
       <c r="C5" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B5,OisEngine)</f>
@@ -3930,23 +3928,23 @@
       </c>
       <c r="E5" s="54">
         <f>SettlementDate</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F5" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41880</v>
+        <v>41919</v>
       </c>
       <c r="G5" s="51">
         <f>_xll.qlQuoteValue($D5,AllTriggers)</f>
-        <v>5.0249999999999991E-3</v>
+        <v>5.062500000000001E-3</v>
       </c>
       <c r="H5" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B5,_xll.ohTrigger(C5,InterestRatesTrigger))</f>
-        <v>4.3150684910471249E-3</v>
+        <v>4.2904109572034768E-3</v>
       </c>
       <c r="I5" s="16">
         <f>G5-H5</f>
-        <v>7.0993150895287422E-4</v>
+        <v>7.7208904279652425E-4</v>
       </c>
       <c r="J5" s="1" t="b">
         <v>0</v>
@@ -3967,7 +3965,7 @@
       </c>
       <c r="B6" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E6,F6,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003dc#0000</v>
+        <v>obj_003c7#0003</v>
       </c>
       <c r="C6" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B6,OisEngine)</f>
@@ -3979,23 +3977,23 @@
       </c>
       <c r="E6" s="104">
         <f>SettlementDate</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F6" s="105">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41912</v>
+        <v>41950</v>
       </c>
       <c r="G6" s="106">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>5.5188000000000008E-3</v>
+        <v>5.6150000000000002E-3</v>
       </c>
       <c r="H6" s="107">
         <f>_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>4.4383561643839171E-3</v>
+        <v>4.3890410947273369E-3</v>
       </c>
       <c r="I6" s="108">
         <f t="shared" si="1"/>
-        <v>1.0804438356160836E-3</v>
+        <v>1.2259589052726633E-3</v>
       </c>
       <c r="J6" s="109" t="b">
         <v>0</v>
@@ -4035,7 +4033,7 @@
       </c>
       <c r="B7" s="57" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00365#0002</v>
+        <v>obj_00367#0007</v>
       </c>
       <c r="C7" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
@@ -4047,23 +4045,23 @@
       </c>
       <c r="E7" s="97">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D7),_xll.qlInterestRateIndexFixingDays(A8)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41817</v>
+        <v>41858</v>
       </c>
       <c r="F7" s="98">
         <f>F6</f>
-        <v>41912</v>
+        <v>41950</v>
       </c>
       <c r="G7" s="99">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>5.5188000000000008E-3</v>
+        <v>5.6150000000000002E-3</v>
       </c>
       <c r="H7" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
-        <v>4.4447514761536411E-3</v>
+        <v>4.3890410947273369E-3</v>
       </c>
       <c r="I7" s="101">
         <f t="shared" si="1"/>
-        <v>1.0740485238463597E-3</v>
+        <v>1.2259589052726633E-3</v>
       </c>
       <c r="J7" s="109" t="b">
         <f>AND(NOT(ISERROR(I7)),E10&lt;&gt;SettlementDate)</f>
@@ -4074,7 +4072,7 @@
       <c r="M7" s="110"/>
       <c r="N7" s="112">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O7" s="112">
         <f t="shared" si="3"/>
@@ -4082,16 +4080,16 @@
       </c>
       <c r="P7" s="110">
         <f t="shared" ref="P7:P14" si="6">(O7^2-N7^2)/(O7-N7)</f>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="109"/>
       <c r="R7" s="123">
         <f t="shared" si="4"/>
-        <v>2732.333333333333</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="S7" s="123">
         <f t="shared" si="5"/>
-        <v>44.5</v>
+        <v>46</v>
       </c>
       <c r="T7" s="123">
         <v>1</v>
@@ -4122,11 +4120,11 @@
       <c r="M8" s="110"/>
       <c r="N8" s="112">
         <f t="shared" si="2"/>
-        <v>-41820</v>
+        <v>-41858</v>
       </c>
       <c r="O8" s="112">
         <f t="shared" si="3"/>
-        <v>-41820</v>
+        <v>-41858</v>
       </c>
       <c r="P8" s="110" t="e">
         <f t="shared" si="6"/>
@@ -4139,7 +4137,7 @@
       </c>
       <c r="S8" s="123">
         <f t="shared" si="5"/>
-        <v>-41820</v>
+        <v>-41858</v>
       </c>
       <c r="T8" s="123">
         <v>1</v>
@@ -4169,20 +4167,20 @@
       </c>
       <c r="K9" s="100">
         <f>AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>1.1111001018879229E-6</v>
+        <v>-1.8757137103453473E-6</v>
       </c>
       <c r="L9" s="100">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>9.7516061477833456E-4</v>
+        <v>1.3985245666244353E-3</v>
       </c>
       <c r="M9" s="110"/>
       <c r="N9" s="112">
         <f t="shared" si="2"/>
-        <v>-41820</v>
+        <v>-41858</v>
       </c>
       <c r="O9" s="112">
         <f t="shared" si="3"/>
-        <v>-41820</v>
+        <v>-41858</v>
       </c>
       <c r="P9" s="110" t="e">
         <f t="shared" si="6"/>
@@ -4195,18 +4193,18 @@
       </c>
       <c r="S9" s="123">
         <f t="shared" si="5"/>
-        <v>-41820</v>
+        <v>-41858</v>
       </c>
       <c r="T9" s="123">
         <v>1</v>
       </c>
       <c r="V9" s="83">
         <f t="array" ref="V9:V11">_xll.ohFilter(R6:R14,$J6:$J14)</f>
-        <v>2732.333333333333</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="W9" s="84">
         <f t="array" ref="W9:W11">_xll.ohFilter(S6:S14,$J6:$J14)</f>
-        <v>44.5</v>
+        <v>46</v>
       </c>
       <c r="X9" s="85">
         <f t="array" ref="X9:X11">_xll.ohFilter(T6:T14,$J6:$J14)</f>
@@ -4214,35 +4212,35 @@
       </c>
       <c r="Z9" s="68">
         <f t="array" ref="Z9:Z11">MMULT(AD9:AF11,AB9:AB11)</f>
-        <v>-9.5009359334981949E-8</v>
+        <v>-2.1121728508537129E-8</v>
       </c>
       <c r="AB9" s="68">
         <f t="array" ref="AB9:AB11">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>1.0740485238463597E-3</v>
+        <v>1.2259589052726633E-3</v>
       </c>
       <c r="AD9" s="74">
         <f t="array" ref="AD9:AF11">MINVERSE(V9:X11)</f>
-        <v>3.9110695363971424E-4</v>
+        <v>7.7459333849729168E-4</v>
       </c>
       <c r="AE9" s="75">
-        <v>2.540179183433194E-4</v>
+        <v>2.7110766847405184E-3</v>
       </c>
       <c r="AF9" s="76">
-        <v>-6.4512487198303348E-4</v>
+        <v>-3.4856700232378103E-3</v>
       </c>
       <c r="AH9" s="71">
         <f t="array" ref="AH9:AH11">MMULT(V9:X11,Z9:Z11)-AB9:AB11</f>
-        <v>-4.3368086899420177E-19</v>
+        <v>8.6736173798840355E-19</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>_xll.qlIMMNextCode(SettlementDate-1,FALSE)</f>
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="B10" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E10,F10,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003cc#0000</v>
+        <v>obj_003da#0003</v>
       </c>
       <c r="C10" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B10,OisEngine)</f>
@@ -4250,15 +4248,15 @@
       </c>
       <c r="D10" s="11" t="str">
         <f>Currency&amp;"FUT3M"&amp;A10&amp;QuoteSuffix</f>
-        <v>GBPFUT3MN4_Quote</v>
+        <v>GBPFUT3MQ4_Quote</v>
       </c>
       <c r="E10" s="54">
         <f>_xll.qlIMMdate(A10)</f>
-        <v>41836</v>
+        <v>41871</v>
       </c>
       <c r="F10" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,E10,"3M","mf")</f>
-        <v>41928</v>
+        <v>41963</v>
       </c>
       <c r="G10" s="51" t="e">
         <f>1-_xll.qlQuoteValue($D10,AllTriggers)/100</f>
@@ -4266,7 +4264,7 @@
       </c>
       <c r="H10" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>4.5180354180954342E-3</v>
+        <v>4.5488206193532105E-3</v>
       </c>
       <c r="I10" s="16" t="e">
         <f t="shared" si="1"/>
@@ -4287,32 +4285,32 @@
       <c r="M10" s="5"/>
       <c r="N10" s="113">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O10" s="113">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" si="6"/>
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="R10" s="92">
         <f t="shared" si="4"/>
-        <v>4549.3333333333339</v>
+        <v>4186.3333333333339</v>
       </c>
       <c r="S10" s="92">
         <f t="shared" si="5"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T10" s="92">
         <v>1</v>
       </c>
       <c r="V10" s="86">
-        <v>16190.333333333332</v>
+        <v>8172.3333333333339</v>
       </c>
       <c r="W10" s="87">
-        <v>124.5</v>
+        <v>86.5</v>
       </c>
       <c r="X10" s="88">
         <v>1</v>
@@ -4321,25 +4319,25 @@
         <v>44</v>
       </c>
       <c r="Z10" s="69">
-        <v>1.5867485863805354E-5</v>
+        <v>-1.0569355926845275E-6</v>
       </c>
       <c r="AA10" s="59" t="s">
         <v>45</v>
       </c>
       <c r="AB10" s="69">
-        <v>1.0648114350206E-3</v>
+        <v>1.0701306445197586E-3</v>
       </c>
       <c r="AD10" s="77">
-        <v>-7.8293967276040918E-2</v>
+        <v>-0.12703330751355577</v>
       </c>
       <c r="AE10" s="78">
-        <v>-3.0232164313304905E-2</v>
+        <v>-0.33350546518633373</v>
       </c>
       <c r="AF10" s="79">
-        <v>0.10852613158934581</v>
+        <v>0.46053877269988952</v>
       </c>
       <c r="AH10" s="72">
-        <v>8.6736173798840355E-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -4349,7 +4347,7 @@
       </c>
       <c r="B11" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E11,F11,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003f5#0000</v>
+        <v>obj_003f5#0003</v>
       </c>
       <c r="C11" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B11,OisEngine)</f>
@@ -4369,15 +4367,15 @@
       </c>
       <c r="G11" s="51">
         <f>1-_xll.qlQuoteValue($D11,AllTriggers)/100</f>
-        <v>6.4499999999999558E-3</v>
+        <v>6.0499999999998888E-3</v>
       </c>
       <c r="H11" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>5.3851885649793558E-3</v>
+        <v>4.9798693554801302E-3</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="1"/>
-        <v>1.0648114350206E-3</v>
+        <v>1.0701306445197586E-3</v>
       </c>
       <c r="J11" s="1" t="b">
         <f>NOT(ISERROR(I11))</f>
@@ -4385,62 +4383,62 @@
       </c>
       <c r="K11" s="15">
         <f>(I11-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P11-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-5.7731805160998303E-8</v>
+        <v>-1.9238056883074658E-6</v>
       </c>
       <c r="L11" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K11*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.0791866545056886E-3</v>
+        <v>1.4029490285969502E-3</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="113">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="O11" s="113">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" si="6"/>
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="R11" s="92">
         <f t="shared" si="4"/>
-        <v>16190.333333333332</v>
+        <v>8172.3333333333339</v>
       </c>
       <c r="S11" s="92">
         <f t="shared" si="5"/>
-        <v>124.5</v>
+        <v>86.5</v>
       </c>
       <c r="T11" s="92">
         <v>1</v>
       </c>
       <c r="V11" s="89">
-        <v>6481.333333333333</v>
+        <v>6696.3333333333339</v>
       </c>
       <c r="W11" s="90">
-        <v>76</v>
+        <v>77.5</v>
       </c>
       <c r="X11" s="91">
         <v>1</v>
       </c>
       <c r="Z11" s="70">
-        <v>6.2754264239663678E-4</v>
+        <v>1.3341693792349053E-3</v>
       </c>
       <c r="AB11" s="70">
-        <v>1.2176842404093809E-3</v>
+        <v>1.1108187361325199E-3</v>
       </c>
       <c r="AD11" s="80">
-        <v>3.4154469774555754</v>
+        <v>4.6581461399432067</v>
       </c>
       <c r="AE11" s="81">
-        <v>0.65126968638867211</v>
+        <v>7.6924003786901034</v>
       </c>
       <c r="AF11" s="82">
-        <v>-3.0667166638442471</v>
+        <v>-11.35054651863331</v>
       </c>
       <c r="AH11" s="73">
-        <v>-4.3368086899420177E-19</v>
+        <v>4.3368086899420177E-19</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -4449,7 +4447,7 @@
       </c>
       <c r="B12" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E12,F12,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003f9#0000</v>
+        <v>obj_00401#0003</v>
       </c>
       <c r="C12" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B12,OisEngine)</f>
@@ -4461,23 +4459,23 @@
       </c>
       <c r="E12" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>41850</v>
+        <v>41890</v>
       </c>
       <c r="F12" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E12)</f>
-        <v>41942</v>
+        <v>41981</v>
       </c>
       <c r="G12" s="51">
         <f>_xll.qlQuoteValue($D12,AllTriggers)</f>
-        <v>5.8499999999999993E-3</v>
+        <v>5.9499999999999996E-3</v>
       </c>
       <c r="H12" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>4.6323157595906184E-3</v>
+        <v>4.8391812638674796E-3</v>
       </c>
       <c r="I12" s="16">
         <f>G12-H12</f>
-        <v>1.2176842404093809E-3</v>
+        <v>1.1108187361325199E-3</v>
       </c>
       <c r="J12" s="1" t="b">
         <f>AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
@@ -4485,32 +4483,32 @@
       </c>
       <c r="K12" s="15">
         <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>2.2799320089368443E-6</v>
+        <v>-1.8276217323832288E-6</v>
       </c>
       <c r="L12" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>8.7113457505098055E-4</v>
+        <v>1.3941001046519205E-3</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="113">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O12" s="113">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P12" s="5">
         <f t="shared" si="6"/>
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="R12" s="92">
         <f t="shared" si="4"/>
-        <v>6481.333333333333</v>
+        <v>6696.3333333333339</v>
       </c>
       <c r="S12" s="92">
         <f t="shared" si="5"/>
-        <v>76</v>
+        <v>77.5</v>
       </c>
       <c r="T12" s="92">
         <v>1</v>
@@ -4525,7 +4523,7 @@
       </c>
       <c r="B13" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E13,F13,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003f6#0000</v>
+        <v>obj_003fb#0003</v>
       </c>
       <c r="C13" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B13,OisEngine)</f>
@@ -4537,23 +4535,23 @@
       </c>
       <c r="E13" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41880</v>
+        <v>41919</v>
       </c>
       <c r="F13" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41971</v>
+        <v>42011</v>
       </c>
       <c r="G13" s="51">
         <f>_xll.qlQuoteValue($D13,AllTriggers)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="H13" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>5.0683555532987836E-3</v>
+        <v>5.2912248231556701E-3</v>
       </c>
       <c r="I13" s="16">
         <f>G13-H13</f>
-        <v>1.1816444467012167E-3</v>
+        <v>1.1087751768443302E-3</v>
       </c>
       <c r="J13" s="1" t="b">
         <f>AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
@@ -4561,32 +4559,32 @@
       </c>
       <c r="K13" s="15">
         <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>8.8193379389227071E-7</v>
+        <v>-9.6052236416666514E-7</v>
       </c>
       <c r="L13" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>9.9555641618994761E-4</v>
+        <v>1.3143269627759965E-3</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="113">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O13" s="113">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="6"/>
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R13" s="92">
         <f t="shared" si="4"/>
-        <v>11820.333333333332</v>
+        <v>12154.333333333334</v>
       </c>
       <c r="S13" s="92">
         <f t="shared" si="5"/>
-        <v>105.5</v>
+        <v>107</v>
       </c>
       <c r="T13" s="92">
         <v>1</v>
@@ -4601,7 +4599,7 @@
       </c>
       <c r="B14" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00400#0000</v>
+        <v>obj_003fc#0003</v>
       </c>
       <c r="C14" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -4613,23 +4611,23 @@
       </c>
       <c r="E14" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41912</v>
+        <v>41950</v>
       </c>
       <c r="F14" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>42004</v>
+        <v>42044</v>
       </c>
       <c r="G14" s="51">
         <f>_xll.qlQuoteValue($D14,AllTriggers)</f>
-        <v>6.7999999999999996E-3</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="H14" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>5.6155483916873966E-3</v>
+        <v>5.8218290602187178E-3</v>
       </c>
       <c r="I14" s="16">
         <f>G14-H14</f>
-        <v>1.184451608312603E-3</v>
+        <v>1.1781709397812815E-3</v>
       </c>
       <c r="J14" s="1" t="b">
         <f>AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
@@ -4637,11 +4635,11 @@
       </c>
       <c r="K14" s="15">
         <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>5.9039082602269123E-7</v>
+        <v>-2.5692454565259036E-7</v>
       </c>
       <c r="L14" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.0215037403303402E-3</v>
+        <v>1.2495959634727016E-3</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="113">
@@ -4650,19 +4648,19 @@
       </c>
       <c r="O14" s="113">
         <f t="shared" si="3"/>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P14" s="5">
         <f t="shared" si="6"/>
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R14" s="92">
         <f t="shared" si="4"/>
-        <v>19749.333333333336</v>
+        <v>20057.333333333332</v>
       </c>
       <c r="S14" s="92">
         <f t="shared" si="5"/>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="T14" s="92">
         <v>1</v>
@@ -4677,7 +4675,7 @@
       </c>
       <c r="B15" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003e7#0000</v>
+        <v>obj_003f1#0003</v>
       </c>
       <c r="C15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
@@ -4689,23 +4687,23 @@
       </c>
       <c r="E15" s="104">
         <f>SettlementDate</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F15" s="105">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
-        <v>42003</v>
+        <v>42044</v>
       </c>
       <c r="G15" s="106">
         <f>_xll.qlQuoteValue($D15,AllTriggers)</f>
-        <v>7.0031000000000008E-3</v>
+        <v>7.1406000000000004E-3</v>
       </c>
       <c r="H15" s="107">
         <f>_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
-        <v>5.0233869915346204E-3</v>
+        <v>5.1164383555433249E-3</v>
       </c>
       <c r="I15" s="108">
         <f t="shared" si="1"/>
-        <v>1.9797130084653804E-3</v>
+        <v>2.0241616444566755E-3</v>
       </c>
       <c r="J15" s="109" t="b">
         <v>0</v>
@@ -4719,20 +4717,20 @@
       </c>
       <c r="O15" s="112">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P15" s="110">
         <f t="shared" ref="P15:P27" si="7">(O15^2-N15^2)/(O15-N15)</f>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q15" s="109"/>
       <c r="R15" s="123">
         <f t="shared" ref="R15:R27" si="8">(O15^3-N15^3)/3/(O15-N15)</f>
-        <v>11163</v>
+        <v>11532</v>
       </c>
       <c r="S15" s="123">
         <f t="shared" ref="S15:S27" si="9">(O15+N15)/2</f>
-        <v>91.5</v>
+        <v>93</v>
       </c>
       <c r="T15" s="123">
         <v>1</v>
@@ -4745,7 +4743,7 @@
       </c>
       <c r="B16" s="57" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00366#0002</v>
+        <v>obj_00366#0007</v>
       </c>
       <c r="C16" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
@@ -4757,23 +4755,23 @@
       </c>
       <c r="E16" s="97">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D16),_xll.qlInterestRateIndexFixingDays(A17)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41817</v>
+        <v>41858</v>
       </c>
       <c r="F16" s="98">
         <f>F15</f>
-        <v>42003</v>
+        <v>42044</v>
       </c>
       <c r="G16" s="99">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>7.0031000000000008E-3</v>
+        <v>7.1406000000000004E-3</v>
       </c>
       <c r="H16" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
-        <v>5.0173235519960111E-3</v>
+        <v>5.1164383555433249E-3</v>
       </c>
       <c r="I16" s="101">
         <f t="shared" si="1"/>
-        <v>1.9857764480039897E-3</v>
+        <v>2.0241616444566755E-3</v>
       </c>
       <c r="J16" s="109" t="b">
         <f>AND(ISERROR(I17),ISERROR(I18),NOT(ISERROR(I16)))</f>
@@ -4784,24 +4782,24 @@
       <c r="M16" s="110"/>
       <c r="N16" s="112">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O16" s="112">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P16" s="110">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="109"/>
       <c r="R16" s="123">
         <f t="shared" si="8"/>
-        <v>10983</v>
+        <v>11532</v>
       </c>
       <c r="S16" s="123">
         <f t="shared" si="9"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T16" s="123">
         <v>1</v>
@@ -4832,11 +4830,11 @@
       <c r="M17" s="110"/>
       <c r="N17" s="112">
         <f t="shared" si="2"/>
-        <v>-41820</v>
+        <v>-41858</v>
       </c>
       <c r="O17" s="112">
         <f t="shared" si="3"/>
-        <v>-41820</v>
+        <v>-41858</v>
       </c>
       <c r="P17" s="110" t="e">
         <f t="shared" si="7"/>
@@ -4849,7 +4847,7 @@
       </c>
       <c r="S17" s="123">
         <f t="shared" si="9"/>
-        <v>-41820</v>
+        <v>-41858</v>
       </c>
       <c r="T17" s="123">
         <v>1</v>
@@ -4879,20 +4877,20 @@
       </c>
       <c r="K18" s="100">
         <f>AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>9.8483029299182525E-7</v>
+        <v>6.2899996138899024E-7</v>
       </c>
       <c r="L18" s="100">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.8085069952654611E-3</v>
+        <v>1.9071676516383234E-3</v>
       </c>
       <c r="M18" s="110"/>
       <c r="N18" s="112">
         <f t="shared" si="2"/>
-        <v>-41820</v>
+        <v>-41858</v>
       </c>
       <c r="O18" s="112">
         <f t="shared" si="3"/>
-        <v>-41820</v>
+        <v>-41858</v>
       </c>
       <c r="P18" s="110" t="e">
         <f t="shared" si="7"/>
@@ -4905,18 +4903,18 @@
       </c>
       <c r="S18" s="123">
         <f t="shared" si="9"/>
-        <v>-41820</v>
+        <v>-41858</v>
       </c>
       <c r="T18" s="123">
         <v>1</v>
       </c>
       <c r="V18" s="83">
         <f t="array" ref="V18:V20">_xll.ohFilter(R15:R24,$J15:$J24)</f>
-        <v>10983</v>
+        <v>11532</v>
       </c>
       <c r="W18" s="84">
         <f t="array" ref="W18:W20">_xll.ohFilter(S15:S24,$J15:$J24)</f>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="X18" s="85">
         <f t="array" ref="X18:X20">_xll.ohFilter(T15:T24,$J15:$J24)</f>
@@ -4924,25 +4922,25 @@
       </c>
       <c r="Z18" s="68">
         <f t="array" ref="Z18:Z20">MMULT(AD18:AF20,AB18:AB20)</f>
-        <v>9.0290819697859913E-11</v>
+        <v>8.276429427852195E-8</v>
       </c>
       <c r="AB18" s="68">
         <f t="array" ref="AB18:AB20">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>1.9857764480039897E-3</v>
+        <v>2.0241616444566755E-3</v>
       </c>
       <c r="AD18" s="74">
         <f t="array" ref="AD18:AF20">MINVERSE(V18:X20)</f>
-        <v>5.1378053893807042E-4</v>
+        <v>5.283550545966873E-4</v>
       </c>
       <c r="AE18" s="75">
-        <v>-1.0807107888007685E-3</v>
+        <v>-1.0749292490070536E-3</v>
       </c>
       <c r="AF18" s="76">
-        <v>5.6693024986269791E-4</v>
+        <v>5.4657419441036614E-4</v>
       </c>
       <c r="AH18" s="71">
         <f t="array" ref="AH18:AH20">MMULT(V18:X20,Z18:Z20)-AB18:AB20</f>
-        <v>7.8062556418956319E-18</v>
+        <v>-1.214306433183765E-17</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -4951,7 +4949,7 @@
       </c>
       <c r="B19" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E19,F19,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003f8#0000</v>
+        <v>obj_003fd#0003</v>
       </c>
       <c r="C19" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B19,OisEngine)</f>
@@ -4963,23 +4961,23 @@
       </c>
       <c r="E19" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>41850</v>
+        <v>41890</v>
       </c>
       <c r="F19" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E19)</f>
-        <v>42034</v>
+        <v>42072</v>
       </c>
       <c r="G19" s="27">
         <f>_xll.qlQuoteValue($D19,AllTriggers)</f>
-        <v>7.45E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="H19" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>5.4048925917662615E-3</v>
+        <v>5.5871606141064218E-3</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ref="I19:I24" si="11">G19-H19</f>
-        <v>2.0451074082337385E-3</v>
+        <v>2.0128393858935782E-3</v>
       </c>
       <c r="J19" s="1" t="b">
         <f t="shared" ref="J19:J24" si="12">NOT(ISERROR(I19))</f>
@@ -4987,16 +4985,16 @@
       </c>
       <c r="K19" s="15">
         <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>9.2704625358982519E-7</v>
+        <v>-1.8870430938495649E-7</v>
       </c>
       <c r="L19" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.8189081223578211E-3</v>
+        <v>2.0592606460022775E-3</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="113">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O19" s="113">
         <f t="shared" si="3"/>
@@ -5004,24 +5002,24 @@
       </c>
       <c r="P19" s="5">
         <f t="shared" si="7"/>
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="R19" s="92">
         <f t="shared" si="8"/>
-        <v>17705.333333333336</v>
+        <v>17889.333333333332</v>
       </c>
       <c r="S19" s="92">
         <f t="shared" si="9"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="T19" s="92">
         <v>1</v>
       </c>
       <c r="V19" s="86">
-        <v>17705.333333333336</v>
+        <v>17889.333333333332</v>
       </c>
       <c r="W19" s="87">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X19" s="88">
         <v>1</v>
@@ -5030,25 +5028,25 @@
         <v>44</v>
       </c>
       <c r="Z19" s="69">
-        <v>1.8351248513375461E-6</v>
+        <v>-1.7916082179658622E-5</v>
       </c>
       <c r="AA19" s="59" t="s">
         <v>45</v>
       </c>
       <c r="AB19" s="69">
-        <v>2.0451074082337385E-3</v>
+        <v>2.0128393858935782E-3</v>
       </c>
       <c r="AD19" s="77">
-        <v>-0.13918137634129241</v>
+        <v>-0.14529764001408907</v>
       </c>
       <c r="AE19" s="78">
-        <v>0.25827806747651161</v>
+        <v>0.26112278485625018</v>
       </c>
       <c r="AF19" s="79">
-        <v>-0.11909669113521913</v>
+        <v>-0.11582514484216112</v>
       </c>
       <c r="AH19" s="72">
-        <v>9.1072982488782372E-18</v>
+        <v>-1.6913553890773869E-17</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
@@ -5057,7 +5055,7 @@
       </c>
       <c r="B20" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003f7#0000</v>
+        <v>obj_00400#0003</v>
       </c>
       <c r="C20" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
@@ -5069,23 +5067,23 @@
       </c>
       <c r="E20" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41880</v>
+        <v>41919</v>
       </c>
       <c r="F20" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
-        <v>42062</v>
+        <v>42101</v>
       </c>
       <c r="G20" s="27">
         <f>_xll.qlQuoteValue($D20,AllTriggers)</f>
-        <v>8.0000000000000002E-3</v>
+        <v>8.2500000000000004E-3</v>
       </c>
       <c r="H20" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>5.9009646463979272E-3</v>
+        <v>6.0966817504453045E-3</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="11"/>
-        <v>2.0990353536020729E-3</v>
+        <v>2.1533182495546959E-3</v>
       </c>
       <c r="J20" s="1" t="b">
         <f t="shared" si="12"/>
@@ -5093,62 +5091,62 @@
       </c>
       <c r="K20" s="15">
         <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>9.2835168523019068E-7</v>
+        <v>1.094547500830681E-6</v>
       </c>
       <c r="L20" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.8186731446625554E-3</v>
+        <v>1.820575809302169E-3</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="113">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="113">
         <f t="shared" si="3"/>
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P20" s="5">
         <f t="shared" si="7"/>
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="R20" s="92">
         <f t="shared" si="8"/>
-        <v>25561.333333333336</v>
+        <v>25864.333333333336</v>
       </c>
       <c r="S20" s="92">
         <f t="shared" si="9"/>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="T20" s="92">
         <v>1</v>
       </c>
       <c r="V20" s="89">
-        <v>25561.333333333336</v>
+        <v>25864.333333333336</v>
       </c>
       <c r="W20" s="90">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X20" s="91">
         <v>1</v>
       </c>
       <c r="Z20" s="70">
-        <v>1.8196235473108766E-3</v>
+        <v>2.7359194455450001E-3</v>
       </c>
       <c r="AB20" s="70">
-        <v>2.0990353536020729E-3</v>
+        <v>2.1533182495546959E-3</v>
       </c>
       <c r="AD20" s="80">
-        <v>7.8834722115594911</v>
+        <v>8.4196900317012844</v>
       </c>
       <c r="AE20" s="81">
-        <v>-11.375579479487204</v>
+        <v>-11.888334892081925</v>
       </c>
       <c r="AF20" s="82">
-        <v>4.4921072679277119</v>
+        <v>4.4686448603806408</v>
       </c>
       <c r="AH20" s="73">
-        <v>9.9746599868666408E-18</v>
+        <v>-2.1684043449710089E-17</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
@@ -5157,7 +5155,7 @@
       </c>
       <c r="B21" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003fc#0000</v>
+        <v>obj_00403#0003</v>
       </c>
       <c r="C21" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
@@ -5169,23 +5167,23 @@
       </c>
       <c r="E21" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41912</v>
+        <v>41950</v>
       </c>
       <c r="F21" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
-        <v>42094</v>
+        <v>42131</v>
       </c>
       <c r="G21" s="27">
         <f>_xll.qlQuoteValue($D21,AllTriggers)</f>
-        <v>8.6999999999999994E-3</v>
+        <v>8.8500000000000002E-3</v>
       </c>
       <c r="H21" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>6.5097922651270942E-3</v>
+        <v>6.6502113075462216E-3</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="11"/>
-        <v>2.1902077348729052E-3</v>
+        <v>2.1997886924537786E-3</v>
       </c>
       <c r="J21" s="1" t="b">
         <f t="shared" si="12"/>
@@ -5193,11 +5191,11 @@
       </c>
       <c r="K21" s="15">
         <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>1.0990929401554596E-6</v>
+        <v>9.8115669272124627E-7</v>
       </c>
       <c r="L21" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.7879397187760069E-3</v>
+        <v>1.8416664996105238E-3</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="113">
@@ -5206,19 +5204,19 @@
       </c>
       <c r="O21" s="113">
         <f t="shared" si="3"/>
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P21" s="5">
         <f t="shared" si="7"/>
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R21" s="92">
         <f t="shared" si="8"/>
-        <v>36249.333333333336</v>
+        <v>36036.333333333328</v>
       </c>
       <c r="S21" s="92">
         <f t="shared" si="9"/>
-        <v>183</v>
+        <v>182.5</v>
       </c>
       <c r="T21" s="92">
         <v>1</v>
@@ -5234,7 +5232,7 @@
       </c>
       <c r="B22" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003fd#0000</v>
+        <v>obj_003f7#0003</v>
       </c>
       <c r="C22" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
@@ -5246,23 +5244,23 @@
       </c>
       <c r="E22" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>41942</v>
+        <v>41981</v>
       </c>
       <c r="F22" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E22)</f>
-        <v>42124</v>
+        <v>42163</v>
       </c>
       <c r="G22" s="27">
         <f>_xll.qlQuoteValue($D22,AllTriggers)</f>
-        <v>9.3999999999999986E-3</v>
+        <v>9.3500000000000007E-3</v>
       </c>
       <c r="H22" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>7.1453927620651675E-3</v>
+        <v>7.2352949835807999E-3</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="11"/>
-        <v>2.2546072379348312E-3</v>
+        <v>2.1147050164192008E-3</v>
       </c>
       <c r="J22" s="1" t="b">
         <f t="shared" si="12"/>
@@ -5270,32 +5268,32 @@
       </c>
       <c r="K22" s="15">
         <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>1.0928080891497622E-6</v>
+        <v>3.741461651344018E-7</v>
       </c>
       <c r="L22" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.7890709919570324E-3</v>
+        <v>1.9545704577416767E-3</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="113">
         <f t="shared" si="2"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O22" s="113">
         <f t="shared" si="3"/>
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P22" s="5">
         <f t="shared" si="7"/>
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="R22" s="92">
         <f t="shared" si="8"/>
-        <v>48129.333333333328</v>
+        <v>48556.333333333328</v>
       </c>
       <c r="S22" s="92">
         <f t="shared" si="9"/>
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T22" s="92">
         <v>1</v>
@@ -5311,7 +5309,7 @@
       </c>
       <c r="B23" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003fb#0000</v>
+        <v>obj_003fe#0003</v>
       </c>
       <c r="C23" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
@@ -5323,23 +5321,23 @@
       </c>
       <c r="E23" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41971</v>
+        <v>42011</v>
       </c>
       <c r="F23" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42153</v>
+        <v>42192</v>
       </c>
       <c r="G23" s="27">
         <f>_xll.qlQuoteValue($D23,AllTriggers)</f>
-        <v>1.0049999999999998E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="H23" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>7.7333568456148397E-3</v>
+        <v>7.8130595400485829E-3</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="11"/>
-        <v>2.3166431543851585E-3</v>
+        <v>2.2869404599514167E-3</v>
       </c>
       <c r="J23" s="1" t="b">
         <f t="shared" si="12"/>
@@ -5347,32 +5345,32 @@
       </c>
       <c r="K23" s="15">
         <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>1.0883773236222658E-6</v>
+        <v>8.7301932058053535E-7</v>
       </c>
       <c r="L23" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.7898685297519819E-3</v>
+        <v>1.861780050828696E-3</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="113">
         <f t="shared" si="2"/>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O23" s="113">
         <f t="shared" si="3"/>
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P23" s="5">
         <f t="shared" si="7"/>
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="R23" s="92">
         <f t="shared" si="8"/>
-        <v>61324.333333333328</v>
+        <v>62022.333333333336</v>
       </c>
       <c r="S23" s="92">
         <f t="shared" si="9"/>
-        <v>242</v>
+        <v>243.5</v>
       </c>
       <c r="T23" s="92">
         <v>1</v>
@@ -5388,7 +5386,7 @@
       </c>
       <c r="B24" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003f4#0000</v>
+        <v>obj_003ff#0003</v>
       </c>
       <c r="C24" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
@@ -5400,23 +5398,23 @@
       </c>
       <c r="E24" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>42003</v>
+        <v>42044</v>
       </c>
       <c r="F24" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E24)</f>
-        <v>42185</v>
+        <v>42226</v>
       </c>
       <c r="G24" s="27">
         <f>_xll.qlQuoteValue($D24,AllTriggers)</f>
-        <v>1.0800000000000001E-2</v>
+        <v>1.0899999999999998E-2</v>
       </c>
       <c r="H24" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>8.4521542146521727E-3</v>
+        <v>8.5190993078986515E-3</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="11"/>
-        <v>2.3478457853478279E-3</v>
+        <v>2.3809006921013467E-3</v>
       </c>
       <c r="J24" s="1" t="b">
         <f t="shared" si="12"/>
@@ -5424,32 +5422,32 @@
       </c>
       <c r="K24" s="15">
         <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>9.838840688691255E-7</v>
+        <v>9.6939958599095429E-7</v>
       </c>
       <c r="L24" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.8086773156075471E-3</v>
+        <v>1.8438533214623579E-3</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="113">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O24" s="113">
         <f t="shared" si="3"/>
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P24" s="5">
         <f t="shared" si="7"/>
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="R24" s="92">
         <f t="shared" si="8"/>
-        <v>77836.333333333328</v>
+        <v>79489.333333333328</v>
       </c>
       <c r="S24" s="92">
         <f t="shared" si="9"/>
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="T24" s="92">
         <v>1</v>
@@ -5461,7 +5459,7 @@
       </c>
       <c r="B25" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E25,F25,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003e1#0000</v>
+        <v>obj_003f3#0003</v>
       </c>
       <c r="C25" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B25,OisEngine)</f>
@@ -5473,23 +5471,23 @@
       </c>
       <c r="E25" s="104">
         <f>SettlementDate</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F25" s="105">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42185</v>
+        <v>42223</v>
       </c>
       <c r="G25" s="106">
         <f>_xll.qlQuoteValue($D25,AllTriggers)</f>
-        <v>1.0415000000000001E-2</v>
+        <v>1.0678800000000002E-2</v>
       </c>
       <c r="H25" s="107">
         <f>_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>6.7438356164384074E-3</v>
+        <v>6.7808219175112166E-3</v>
       </c>
       <c r="I25" s="108">
         <f t="shared" si="1"/>
-        <v>3.6711643835615933E-3</v>
+        <v>3.8979780824887856E-3</v>
       </c>
       <c r="J25" s="109" t="b">
         <v>0</v>
@@ -5529,7 +5527,7 @@
       </c>
       <c r="B26" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00364#0002</v>
+        <v>obj_00364#0007</v>
       </c>
       <c r="C26" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
@@ -5541,23 +5539,23 @@
       </c>
       <c r="E26" s="97">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D26),_xll.qlInterestRateIndexFixingDays(A27)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41817</v>
+        <v>41858</v>
       </c>
       <c r="F26" s="98">
         <f>F25</f>
-        <v>42185</v>
+        <v>42223</v>
       </c>
       <c r="G26" s="99">
         <f>_xll.qlQuoteValue(D26,AllTriggers)</f>
-        <v>1.0415000000000001E-2</v>
+        <v>1.0678800000000002E-2</v>
       </c>
       <c r="H26" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
-        <v>6.7267094449035619E-3</v>
+        <v>6.7808219175112166E-3</v>
       </c>
       <c r="I26" s="101">
         <f t="shared" si="1"/>
-        <v>3.6882905550964388E-3</v>
+        <v>3.8979780824887856E-3</v>
       </c>
       <c r="J26" s="109" t="b">
         <f>NOT(ISERROR(I26))</f>
@@ -5565,16 +5563,16 @@
       </c>
       <c r="K26" s="111">
         <f>K27</f>
-        <v>2.2197903186175189E-6</v>
+        <v>1.7641445616794093E-6</v>
       </c>
       <c r="L26" s="100">
         <f>L27</f>
-        <v>2.8847264597568968E-3</v>
+        <v>3.2540653174758013E-3</v>
       </c>
       <c r="M26" s="110"/>
       <c r="N26" s="112">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O26" s="112">
         <f t="shared" si="3"/>
@@ -5582,16 +5580,16 @@
       </c>
       <c r="P26" s="110">
         <f t="shared" si="7"/>
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="109"/>
       <c r="R26" s="123">
         <f t="shared" si="8"/>
-        <v>44046.333333333328</v>
+        <v>44408.333333333328</v>
       </c>
       <c r="S26" s="123">
         <f t="shared" si="9"/>
-        <v>181</v>
+        <v>182.5</v>
       </c>
       <c r="T26" s="123">
         <v>1</v>
@@ -5604,7 +5602,7 @@
       </c>
       <c r="B27" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00401#0000</v>
+        <v>obj_00402#0003</v>
       </c>
       <c r="C27" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -5616,23 +5614,23 @@
       </c>
       <c r="E27" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42185</v>
+        <v>42223</v>
       </c>
       <c r="F27" s="55">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
-        <v>42551</v>
+        <v>42590</v>
       </c>
       <c r="G27" s="27">
         <f>_xll.qlQuoteValue($D27,AllTriggers)</f>
-        <v>1.9950000000000002E-2</v>
+        <v>1.9500000000000003E-2</v>
       </c>
       <c r="H27" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>1.4632383351038305E-2</v>
+        <v>1.431066809836189E-2</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="1"/>
-        <v>5.3176166489616976E-3</v>
+        <v>5.1893319016381133E-3</v>
       </c>
       <c r="J27" s="1" t="b">
         <f>NOT(ISERROR(I27))</f>
@@ -5640,11 +5638,11 @@
       </c>
       <c r="K27" s="15">
         <f>(I27-_xll.ohFilter($I$25:$I$26,$J$25:$J$26))/(P27-_xll.ohFilter($P$25:$P$26,$J$25:$J$26))</f>
-        <v>2.2197903186175189E-6</v>
+        <v>1.7641445616794093E-6</v>
       </c>
       <c r="L27" s="15">
         <f>_xll.ohFilter($I$25:$I$26,$J$25:$J$26)-K27*_xll.ohFilter($P$25:$P$26,$J$25:$J$26)</f>
-        <v>2.8847264597568968E-3</v>
+        <v>3.2540653174758013E-3</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="113">
@@ -5653,19 +5651,19 @@
       </c>
       <c r="O27" s="113">
         <f t="shared" si="3"/>
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="P27" s="5">
         <f t="shared" si="7"/>
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="R27" s="92">
         <f t="shared" si="8"/>
-        <v>311467</v>
+        <v>312076.33333333331</v>
       </c>
       <c r="S27" s="92">
         <f t="shared" si="9"/>
-        <v>548</v>
+        <v>548.5</v>
       </c>
       <c r="T27" s="92">
         <v>1</v>
@@ -5736,11 +5734,11 @@
       </c>
       <c r="V30" s="118">
         <f>Z9</f>
-        <v>-9.5009359334981949E-8</v>
+        <v>-2.1121728508537129E-8</v>
       </c>
       <c r="W30" s="13">
         <f>Z18</f>
-        <v>9.0290819697859913E-11</v>
+        <v>8.276429427852195E-8</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
@@ -5749,49 +5747,49 @@
       </c>
       <c r="G31" s="37">
         <f>_xll.ohFilter(I2:I3,J2:J3)</f>
-        <v>6.9345927466082577E-4</v>
+        <v>7.7140411050105346E-4</v>
       </c>
       <c r="H31" s="38">
         <f>_xll.ohFilter(I6:I9,J6:J9)</f>
-        <v>1.0740485238463597E-3</v>
+        <v>1.2259589052726633E-3</v>
       </c>
       <c r="I31" s="38">
         <f>_xll.ohFilter(I15:I18,J15:J18)</f>
-        <v>1.9857764480039897E-3</v>
+        <v>2.0241616444566755E-3</v>
       </c>
       <c r="J31" s="39">
         <f>_xll.ohFilter(I25:I26,J25:J26)</f>
-        <v>3.6882905550964388E-3</v>
+        <v>3.8979780824887856E-3</v>
       </c>
       <c r="M31" s="59" t="s">
         <v>43</v>
       </c>
       <c r="N31" s="58">
         <f>K4</f>
-        <v>-7.9470550320994053E-6</v>
+        <v>1.3095918283131879E-8</v>
       </c>
       <c r="O31" s="58">
         <f>K9</f>
-        <v>1.1111001018879229E-6</v>
+        <v>-1.8757137103453473E-6</v>
       </c>
       <c r="P31" s="58">
         <f>AVERAGE(K19:K21)</f>
-        <v>9.8483029299182525E-7</v>
+        <v>6.2899996138899024E-7</v>
       </c>
       <c r="Q31" s="58">
         <f>K26</f>
-        <v>2.2197903186175189E-6</v>
+        <v>1.7641445616794093E-6</v>
       </c>
       <c r="U31" s="119" t="s">
         <v>43</v>
       </c>
       <c r="V31" s="64">
         <f>Z10</f>
-        <v>1.5867485863805354E-5</v>
+        <v>-1.0569355926845275E-6</v>
       </c>
       <c r="W31" s="16">
         <f>Z19</f>
-        <v>1.8351248513375461E-6</v>
+        <v>-1.7916082179658622E-5</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
@@ -5800,49 +5798,49 @@
       </c>
       <c r="G32" s="37">
         <f>IF(G31&lt;H31,G31,H31)</f>
-        <v>6.9345927466082577E-4</v>
+        <v>7.7140411050105346E-4</v>
       </c>
       <c r="H32" s="38">
         <f>H31</f>
-        <v>1.0740485238463597E-3</v>
+        <v>1.2259589052726633E-3</v>
       </c>
       <c r="I32" s="38">
         <f>IF(I31&lt;H31,H31,I31)</f>
-        <v>1.9857764480039897E-3</v>
+        <v>2.0241616444566755E-3</v>
       </c>
       <c r="J32" s="39">
         <f>IF(J31&lt;I31,I31,J31)</f>
-        <v>3.6882905550964388E-3</v>
+        <v>3.8979780824887856E-3</v>
       </c>
       <c r="M32" s="59" t="s">
         <v>42</v>
       </c>
       <c r="N32" s="58">
         <f>L4</f>
-        <v>9.0802976052750976E-4</v>
+        <v>7.7098504111599328E-4</v>
       </c>
       <c r="O32" s="58">
         <f>L9</f>
-        <v>9.7516061477833456E-4</v>
+        <v>1.3985245666244353E-3</v>
       </c>
       <c r="P32" s="58">
         <f>L18</f>
-        <v>1.8085069952654611E-3</v>
+        <v>1.9071676516383234E-3</v>
       </c>
       <c r="Q32" s="58">
         <f>L26</f>
-        <v>2.8847264597568968E-3</v>
+        <v>3.2540653174758013E-3</v>
       </c>
       <c r="U32" s="119" t="s">
         <v>42</v>
       </c>
       <c r="V32" s="64">
         <f>Z11</f>
-        <v>6.2754264239663678E-4</v>
+        <v>1.3341693792349053E-3</v>
       </c>
       <c r="W32" s="16">
         <f>Z20</f>
-        <v>1.8196235473108766E-3</v>
+        <v>2.7359194455450001E-3</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
@@ -5900,7 +5898,7 @@
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ec#0000</v>
+        <v>obj_003e1#0003</v>
       </c>
       <c r="C34" s="7" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
@@ -5911,68 +5909,68 @@
       </c>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F34" s="22">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41821</v>
+        <v>41859</v>
       </c>
       <c r="G34" s="32">
         <f t="shared" ref="G34:J38" si="14">$L34+IF(G$30,G$32,N34)</f>
-        <v>5.0228554481597226E-3</v>
+        <v>5.3942858082957979E-3</v>
       </c>
       <c r="H34" s="32">
         <f t="shared" si="14"/>
-        <v>4.8053848053017378E-3</v>
+        <v>5.9569215421239148E-3</v>
       </c>
       <c r="I34" s="32">
         <f t="shared" si="14"/>
-        <v>5.9699081863252004E-3</v>
+        <v>7.3502766638147855E-3</v>
       </c>
       <c r="J34" s="32">
         <f t="shared" si="14"/>
-        <v>7.0402195287919776E-3</v>
+        <v>7.8791171332990018E-3</v>
       </c>
       <c r="K34" s="228">
         <f>F34-$E$7</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L34" s="2">
         <f>_xll.qlOvernightIndexedSwapFairRate(B34,_xll.ohTrigger(C34,InterestRatesTrigger))</f>
-        <v>4.1466139077606101E-3</v>
+        <v>4.6232876712615214E-3</v>
       </c>
       <c r="N34" s="63">
         <f>N$31*$K34+N$32</f>
-        <v>8.7624154039911211E-4</v>
+        <v>7.7099813703427646E-4</v>
       </c>
       <c r="O34" s="64">
         <f t="shared" ref="O34:P40" si="15">IF(O$30,V34,O$31*$K34+O$32)</f>
-        <v>6.5877089754112761E-4</v>
+        <v>1.3336338708623936E-3</v>
       </c>
       <c r="P34" s="64">
         <f t="shared" si="15"/>
-        <v>1.8232942785645901E-3</v>
+        <v>2.7269889925532636E-3</v>
       </c>
       <c r="Q34" s="16">
         <f t="shared" ref="Q34:Q49" si="16">Q$31*$K34+Q$32</f>
-        <v>2.893605621031367E-3</v>
+        <v>3.2558294620374808E-3</v>
       </c>
       <c r="U34" s="21" t="s">
         <v>14</v>
       </c>
       <c r="V34" s="64">
         <f t="shared" ref="V34:W40" si="17">$K34*$K34/3*V$30+$K34/2*V$31+V$32</f>
-        <v>6.5877089754112761E-4</v>
+        <v>1.3336338708623936E-3</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" si="17"/>
-        <v>1.8232942785645901E-3</v>
+        <v>2.7269889925532636E-3</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003f1#0000</v>
+        <v>obj_003d0#0003</v>
       </c>
       <c r="C35" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
@@ -5983,68 +5981,68 @@
       </c>
       <c r="E35" s="54">
         <f t="shared" si="13"/>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F35" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41827</v>
+        <v>41865</v>
       </c>
       <c r="G35" s="32">
         <f t="shared" si="14"/>
-        <v>4.9956824978872145E-3</v>
+        <v>4.9875150559665479E-3</v>
       </c>
       <c r="H35" s="32">
         <f t="shared" si="14"/>
-        <v>4.8708363807518631E-3</v>
+        <v>5.5465634598507764E-3</v>
       </c>
       <c r="I35" s="32">
         <f t="shared" si="14"/>
-        <v>5.9959254689422531E-3</v>
+        <v>6.8910033181453171E-3</v>
       </c>
       <c r="J35" s="32">
         <f t="shared" si="14"/>
-        <v>7.0740476506237701E-3</v>
+        <v>7.4828526728301301E-3</v>
       </c>
       <c r="K35" s="229">
         <f t="shared" ref="K35:K49" si="18">F35-$E$7</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L35" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>4.1671232876806987E-3</v>
+        <v>4.2164383434225728E-3</v>
       </c>
       <c r="N35" s="63">
         <f>N$31*$K35+N$32</f>
-        <v>8.2855921020651569E-4</v>
+        <v>7.710767125439752E-4</v>
       </c>
       <c r="O35" s="64">
         <f t="shared" si="15"/>
-        <v>7.0371309307116418E-4</v>
+        <v>1.3301251164282034E-3</v>
       </c>
       <c r="P35" s="64">
         <f t="shared" si="15"/>
-        <v>1.8288021812615542E-3</v>
+        <v>2.6745649747227439E-3</v>
       </c>
       <c r="Q35" s="16">
         <f t="shared" si="16"/>
-        <v>2.9069243629430718E-3</v>
+        <v>3.2664143294075573E-3</v>
       </c>
       <c r="U35" s="23" t="s">
         <v>4</v>
       </c>
       <c r="V35" s="64">
         <f t="shared" si="17"/>
-        <v>7.0371309307116418E-4</v>
+        <v>1.3301251164282034E-3</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" si="17"/>
-        <v>1.8288021812615542E-3</v>
+        <v>2.6745649747227439E-3</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ee#0000</v>
+        <v>obj_003f4#0003</v>
       </c>
       <c r="C36" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
@@ -6055,68 +6053,68 @@
       </c>
       <c r="E36" s="54">
         <f t="shared" si="13"/>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F36" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41834</v>
+        <v>41872</v>
       </c>
       <c r="G36" s="32">
         <f t="shared" si="14"/>
-        <v>4.9770394140384137E-3</v>
+        <v>4.9876067378318949E-3</v>
       </c>
       <c r="H36" s="32">
         <f t="shared" si="14"/>
-        <v>4.9573732930129726E-3</v>
+        <v>5.5418292310168262E-3</v>
       </c>
       <c r="I36" s="32">
         <f t="shared" si="14"/>
-        <v>6.0393403956194702E-3</v>
+        <v>6.8323524913735233E-3</v>
       </c>
       <c r="J36" s="32">
         <f t="shared" si="14"/>
-        <v>7.1265724842299889E-3</v>
+        <v>7.4952016951992505E-3</v>
       </c>
       <c r="K36" s="229">
         <f t="shared" si="18"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L36" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>4.2041095890565936E-3</v>
+        <v>4.2164383538599373E-3</v>
       </c>
       <c r="N36" s="63">
         <f>N$31*$K36+N$32</f>
-        <v>7.7292982498181984E-4</v>
+        <v>7.7116838397195712E-4</v>
       </c>
       <c r="O36" s="64">
         <f t="shared" si="15"/>
-        <v>7.5326370395637908E-4</v>
+        <v>1.3253908771568891E-3</v>
       </c>
       <c r="P36" s="64">
         <f t="shared" si="15"/>
-        <v>1.8352308065628766E-3</v>
+        <v>2.6159141375135865E-3</v>
       </c>
       <c r="Q36" s="16">
         <f t="shared" si="16"/>
-        <v>2.9224628951733948E-3</v>
+        <v>3.2787633413393132E-3</v>
       </c>
       <c r="U36" s="23" t="s">
         <v>5</v>
       </c>
       <c r="V36" s="64">
         <f t="shared" si="17"/>
-        <v>7.5326370395637908E-4</v>
+        <v>1.3253908771568891E-3</v>
       </c>
       <c r="W36" s="16">
         <f t="shared" si="17"/>
-        <v>1.8352308065628766E-3</v>
+        <v>2.6159141375135865E-3</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003f3#0000</v>
+        <v>obj_003dc#0003</v>
       </c>
       <c r="C37" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
@@ -6127,68 +6125,68 @@
       </c>
       <c r="E37" s="53">
         <f t="shared" si="13"/>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F37" s="26">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41841</v>
+        <v>41879</v>
       </c>
       <c r="G37" s="35">
         <f t="shared" si="14"/>
-        <v>4.9278711232826865E-3</v>
+        <v>4.9962765980591682E-3</v>
       </c>
       <c r="H37" s="35">
         <f t="shared" si="14"/>
-        <v>5.0102813592955474E-3</v>
+        <v>5.5449832040801918E-3</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="14"/>
-        <v>6.0522330648898719E-3</v>
+        <v>6.7849834765767569E-3</v>
       </c>
       <c r="J37" s="35">
         <f t="shared" si="14"/>
-        <v>7.1485721109292803E-3</v>
+        <v>7.5161288959302974E-3</v>
       </c>
       <c r="K37" s="230">
         <f t="shared" si="18"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L37" s="4">
         <f>_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>4.2105706835255628E-3</v>
+        <v>4.225016542659229E-3</v>
       </c>
       <c r="N37" s="93">
         <f>N$31*$K37+N$32</f>
-        <v>7.1730043975712409E-4</v>
+        <v>7.7126005539993904E-4</v>
       </c>
       <c r="O37" s="94">
         <f t="shared" si="15"/>
-        <v>7.9971067576998448E-4</v>
+        <v>1.3199666614209628E-3</v>
       </c>
       <c r="P37" s="94">
         <f t="shared" si="15"/>
-        <v>1.841662381364309E-3</v>
+        <v>2.5599669339175274E-3</v>
       </c>
       <c r="Q37" s="14">
         <f t="shared" si="16"/>
-        <v>2.9380014274037174E-3</v>
+        <v>3.2911123532710688E-3</v>
       </c>
       <c r="U37" s="31" t="s">
         <v>8</v>
       </c>
       <c r="V37" s="94">
         <f t="shared" si="17"/>
-        <v>7.9971067576998448E-4</v>
+        <v>1.3199666614209628E-3</v>
       </c>
       <c r="W37" s="14">
         <f t="shared" si="17"/>
-        <v>1.841662381364309E-3</v>
+        <v>2.5599669339175274E-3</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ca#0000</v>
+        <v>obj_003c5#0003</v>
       </c>
       <c r="C38" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
@@ -6199,68 +6197,68 @@
       </c>
       <c r="E38" s="54">
         <f t="shared" si="13"/>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F38" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
-        <v>41851</v>
+        <v>41890</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="14"/>
-        <v>4.8542682456263709E-3</v>
+        <v>5.0125000000000005E-3</v>
       </c>
       <c r="H38" s="34">
         <f t="shared" si="14"/>
-        <v>5.0771179851411552E-3</v>
+        <v>5.5511447492533192E-3</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="14"/>
-        <v>6.0672938180363796E-3</v>
+        <v>6.7186082326164773E-3</v>
       </c>
       <c r="J38" s="34">
         <f t="shared" si="14"/>
-        <v>7.1766376867801332E-3</v>
+        <v>7.5516138329484893E-3</v>
       </c>
       <c r="K38" s="228">
         <f t="shared" si="18"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L38" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>4.2164383561902408E-3</v>
+        <v>4.241095889498947E-3</v>
       </c>
       <c r="N38" s="63">
         <f>N$31*$K38+N$32</f>
-        <v>6.3782988943612991E-4</v>
+        <v>7.7140411050105346E-4</v>
       </c>
       <c r="O38" s="64">
         <f t="shared" si="15"/>
-        <v>8.6067962895091483E-4</v>
+        <v>1.3100488597543722E-3</v>
       </c>
       <c r="P38" s="64">
         <f t="shared" si="15"/>
-        <v>1.8508554618461384E-3</v>
+        <v>2.4775123431175308E-3</v>
       </c>
       <c r="Q38" s="16">
         <f t="shared" si="16"/>
-        <v>2.9601993305898924E-3</v>
+        <v>3.3105179434495422E-3</v>
       </c>
       <c r="U38" s="23" t="s">
         <v>9</v>
       </c>
       <c r="V38" s="64">
         <f t="shared" si="17"/>
-        <v>8.6067962895091483E-4</v>
+        <v>1.3100488597543722E-3</v>
       </c>
       <c r="W38" s="16">
         <f t="shared" si="17"/>
-        <v>1.8508554618461384E-3</v>
+        <v>2.4775123431175308E-3</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E39,F39,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003d6#0000</v>
+        <v>obj_003d4#0003</v>
       </c>
       <c r="C39" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B39,OisEngine)</f>
@@ -6271,62 +6269,62 @@
       </c>
       <c r="E39" s="54">
         <f t="shared" si="13"/>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F39" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41880</v>
+        <v>41919</v>
       </c>
       <c r="G39" s="48"/>
       <c r="H39" s="32">
         <f t="shared" ref="H39:J40" si="19">$L39+IF(H$30,H$32,O39)</f>
-        <v>5.3167395557534494E-3</v>
+        <v>5.5661458169347488E-3</v>
       </c>
       <c r="I39" s="32">
         <f t="shared" si="19"/>
-        <v>6.1926179259295944E-3</v>
+        <v>6.582545209272349E-3</v>
       </c>
       <c r="J39" s="32">
         <f t="shared" si="19"/>
-        <v>7.339641740876925E-3</v>
+        <v>7.652089092941722E-3</v>
       </c>
       <c r="K39" s="229">
         <f t="shared" si="18"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L39" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>4.3150684910471249E-3</v>
+        <v>4.2904109572034768E-3</v>
       </c>
       <c r="N39" s="48"/>
       <c r="O39" s="64">
         <f t="shared" si="15"/>
-        <v>1.0016710647063245E-3</v>
+        <v>1.2757348597312716E-3</v>
       </c>
       <c r="P39" s="64">
         <f t="shared" si="15"/>
-        <v>1.8775494348824695E-3</v>
+        <v>2.2921342520688722E-3</v>
       </c>
       <c r="Q39" s="16">
         <f t="shared" si="16"/>
-        <v>3.0245732498298005E-3</v>
+        <v>3.3616781357382452E-3</v>
       </c>
       <c r="U39" s="23" t="s">
         <v>10</v>
       </c>
       <c r="V39" s="64">
         <f t="shared" si="17"/>
-        <v>1.0016710647063245E-3</v>
+        <v>1.2757348597312716E-3</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" si="17"/>
-        <v>1.8775494348824695E-3</v>
+        <v>2.2921342520688722E-3</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c9#0000</v>
+        <v>obj_003f2#0003</v>
       </c>
       <c r="C40" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
@@ -6337,62 +6335,62 @@
       </c>
       <c r="E40" s="54">
         <f t="shared" si="13"/>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F40" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41912</v>
+        <v>41950</v>
       </c>
       <c r="G40" s="46"/>
       <c r="H40" s="32">
         <f t="shared" si="19"/>
-        <v>5.5337845626452376E-3</v>
+        <v>5.6150000000000011E-3</v>
       </c>
       <c r="I40" s="32">
         <f t="shared" si="19"/>
-        <v>6.3454197670159184E-3</v>
+        <v>6.5343264222658438E-3</v>
       </c>
       <c r="J40" s="32">
         <f t="shared" si="19"/>
-        <v>7.5339627044094786E-3</v>
+        <v>7.805407711877644E-3</v>
       </c>
       <c r="K40" s="229">
         <f t="shared" si="18"/>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L40" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>4.4383561643839171E-3</v>
+        <v>4.3890410947273369E-3</v>
       </c>
       <c r="N40" s="46"/>
       <c r="O40" s="64">
         <f t="shared" si="15"/>
-        <v>1.0954283982613205E-3</v>
+        <v>1.2259589052726642E-3</v>
       </c>
       <c r="P40" s="64">
         <f t="shared" si="15"/>
-        <v>1.907063602632001E-3</v>
+        <v>2.1452853275385065E-3</v>
       </c>
       <c r="Q40" s="16">
         <f t="shared" si="16"/>
-        <v>3.095606540025561E-3</v>
+        <v>3.4163666171503071E-3</v>
       </c>
       <c r="U40" s="23" t="s">
         <v>3</v>
       </c>
       <c r="V40" s="64">
         <f t="shared" si="17"/>
-        <v>1.0954283982613205E-3</v>
+        <v>1.2259589052726642E-3</v>
       </c>
       <c r="W40" s="16">
         <f t="shared" si="17"/>
-        <v>1.907063602632001E-3</v>
+        <v>2.1452853275385065E-3</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003de#0000</v>
+        <v>obj_003d5#0003</v>
       </c>
       <c r="C41" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
@@ -6403,39 +6401,39 @@
       </c>
       <c r="E41" s="54">
         <f t="shared" si="13"/>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F41" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
-        <v>41943</v>
+        <v>41981</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="47"/>
       <c r="I41" s="32">
         <f t="shared" ref="I41:J43" si="20">$L41+IF(I$30,I$32,P41)</f>
-        <v>6.4727005333327994E-3</v>
+        <v>6.7363922335185681E-3</v>
       </c>
       <c r="J41" s="32">
         <f t="shared" si="20"/>
-        <v>7.7014063412725198E-3</v>
+        <v>8.1559866045383556E-3</v>
       </c>
       <c r="K41" s="229">
         <f t="shared" si="18"/>
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L41" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>4.5369863013698161E-3</v>
+        <v>4.6849315059759875E-3</v>
       </c>
       <c r="N41" s="36"/>
       <c r="O41" s="47"/>
       <c r="P41" s="64">
         <f>IF(P$30,W41,P$31*$K41+P$32)</f>
-        <v>1.9357142319629829E-3</v>
+        <v>2.0514607275425806E-3</v>
       </c>
       <c r="Q41" s="16">
         <f t="shared" si="16"/>
-        <v>3.1644200399027042E-3</v>
+        <v>3.4710550985623686E-3</v>
       </c>
       <c r="U41" s="23" t="s">
         <v>12</v>
@@ -6443,13 +6441,13 @@
       <c r="V41" s="64"/>
       <c r="W41" s="16">
         <f>$K41*$K41/3*W$30+$K41/2*W$31+W$32</f>
-        <v>1.9357142319629829E-3</v>
+        <v>2.0514607275425806E-3</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c1#0000</v>
+        <v>obj_003d9#0003</v>
       </c>
       <c r="C42" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
@@ -6460,39 +6458,39 @@
       </c>
       <c r="E42" s="54">
         <f t="shared" si="13"/>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F42" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41971</v>
+        <v>42011</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="45"/>
       <c r="I42" s="32">
         <f t="shared" si="20"/>
-        <v>6.7328748166027522E-3</v>
+        <v>6.9056694943264102E-3</v>
       </c>
       <c r="J42" s="32">
         <f t="shared" si="20"/>
-        <v>7.9978070455362284E-3</v>
+        <v>8.4184999826827402E-3</v>
       </c>
       <c r="K42" s="229">
         <f t="shared" si="18"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L42" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>4.7712328767122334E-3</v>
+        <v>4.8945205472699883E-3</v>
       </c>
       <c r="N42" s="36"/>
       <c r="O42" s="45"/>
       <c r="P42" s="64">
         <f>IF(P$30,W42,P$31*$K42+P$32)</f>
-        <v>1.9616419398905192E-3</v>
+        <v>2.0111489470564219E-3</v>
       </c>
       <c r="Q42" s="16">
         <f t="shared" si="16"/>
-        <v>3.2265741688239946E-3</v>
+        <v>3.523979435412751E-3</v>
       </c>
       <c r="U42" s="23" t="s">
         <v>13</v>
@@ -6500,13 +6498,13 @@
       <c r="V42" s="64"/>
       <c r="W42" s="16">
         <f>$K42*$K42/3*W$30+$K42/2*W$31+W$32</f>
-        <v>1.9616419398905192E-3</v>
+        <v>2.0111489470564219E-3</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003dd#0000</v>
+        <v>obj_003cd#0003</v>
       </c>
       <c r="C43" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
@@ -6517,39 +6515,39 @@
       </c>
       <c r="E43" s="54">
         <f t="shared" si="13"/>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F43" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
-        <v>42004</v>
+        <v>42044</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="45"/>
       <c r="I43" s="32">
         <f t="shared" si="20"/>
-        <v>7.0223971671037307E-3</v>
+        <v>7.1405999999999883E-3</v>
       </c>
       <c r="J43" s="32">
         <f t="shared" si="20"/>
-        <v>8.3299642356398293E-3</v>
+        <v>8.6986345614914959E-3</v>
       </c>
       <c r="K43" s="229">
         <f t="shared" si="18"/>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L43" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
-        <v>5.0301369863014556E-3</v>
+        <v>5.1164383555433249E-3</v>
       </c>
       <c r="N43" s="36"/>
       <c r="O43" s="45"/>
       <c r="P43" s="64">
         <f>IF(P$30,W43,P$31*$K43+P$32)</f>
-        <v>1.9922601808022751E-3</v>
+        <v>2.0241616444566634E-3</v>
       </c>
       <c r="Q43" s="16">
         <f t="shared" si="16"/>
-        <v>3.2998272493383728E-3</v>
+        <v>3.5821962059481714E-3</v>
       </c>
       <c r="U43" s="121" t="s">
         <v>15</v>
@@ -6557,13 +6555,13 @@
       <c r="V43" s="94"/>
       <c r="W43" s="14">
         <f>$K43*$K43/3*W$30+$K43/2*W$31+W$32</f>
-        <v>1.9922601808022751E-3</v>
+        <v>2.0241616444566634E-3</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c6#0000</v>
+        <v>obj_003d2#0003</v>
       </c>
       <c r="C44" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
@@ -6574,39 +6572,39 @@
       </c>
       <c r="E44" s="54">
         <f t="shared" si="13"/>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F44" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
-        <v>42034</v>
+        <v>42072</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="33"/>
       <c r="I44" s="47"/>
       <c r="J44" s="32">
         <f t="shared" ref="J44:J49" si="21">$L44+IF(J$30,J$32,Q44)</f>
-        <v>8.6061469862943503E-3</v>
+        <v>9.0192634861052494E-3</v>
       </c>
       <c r="K44" s="229">
         <f t="shared" si="18"/>
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L44" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
-        <v>5.2397260273974525E-3</v>
+        <v>5.3876712324300536E-3</v>
       </c>
       <c r="N44" s="36"/>
       <c r="O44" s="33"/>
       <c r="P44" s="47"/>
       <c r="Q44" s="16">
         <f t="shared" si="16"/>
-        <v>3.3664209588968983E-3</v>
+        <v>3.6315922536751949E-3</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bf#0000</v>
+        <v>obj_003ca#0003</v>
       </c>
       <c r="C45" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
@@ -6617,39 +6615,39 @@
       </c>
       <c r="E45" s="54">
         <f t="shared" si="13"/>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F45" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>42062</v>
+        <v>42101</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="33"/>
       <c r="I45" s="45"/>
       <c r="J45" s="32">
         <f t="shared" si="21"/>
-        <v>8.9395339919276871E-3</v>
+        <v>9.3293277880189401E-3</v>
       </c>
       <c r="K45" s="229">
         <f t="shared" si="18"/>
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L45" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B45,_xll.ohTrigger(C45,InterestRatesTrigger))</f>
-        <v>5.510958904109498E-3</v>
+        <v>5.6465753420550423E-3</v>
       </c>
       <c r="N45" s="36"/>
       <c r="O45" s="33"/>
       <c r="P45" s="45"/>
       <c r="Q45" s="16">
         <f t="shared" si="16"/>
-        <v>3.428575087818189E-3</v>
+        <v>3.6827524459638978E-3</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003e6#0000</v>
+        <v>obj_003ed#0003</v>
       </c>
       <c r="C46" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
@@ -6660,39 +6658,39 @@
       </c>
       <c r="E46" s="54">
         <f t="shared" si="13"/>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F46" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
-        <v>42094</v>
+        <v>42131</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="33"/>
       <c r="I46" s="45"/>
       <c r="J46" s="32">
         <f t="shared" si="21"/>
-        <v>9.3187864602055359E-3</v>
+        <v>9.6288274673649674E-3</v>
       </c>
       <c r="K46" s="229">
         <f t="shared" si="18"/>
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L46" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
-        <v>5.8191780821915855E-3</v>
+        <v>5.8931506845506876E-3</v>
       </c>
       <c r="N46" s="36"/>
       <c r="O46" s="33"/>
       <c r="P46" s="45"/>
       <c r="Q46" s="16">
         <f t="shared" si="16"/>
-        <v>3.4996083780139495E-3</v>
+        <v>3.7356767828142798E-3</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003d9#0000</v>
+        <v>obj_003f0#0003</v>
       </c>
       <c r="C47" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
@@ -6703,39 +6701,39 @@
       </c>
       <c r="E47" s="54">
         <f t="shared" si="13"/>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F47" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
-        <v>42124</v>
+        <v>42163</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="33"/>
       <c r="I47" s="45"/>
       <c r="J47" s="32">
         <f t="shared" si="21"/>
-        <v>9.6689418135998302E-3</v>
+        <v>1.0005828038557159E-2</v>
       </c>
       <c r="K47" s="229">
         <f t="shared" si="18"/>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L47" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>6.1027397260273557E-3</v>
+        <v>6.213698629769138E-3</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="33"/>
       <c r="P47" s="45"/>
       <c r="Q47" s="16">
         <f t="shared" si="16"/>
-        <v>3.5662020875724754E-3</v>
+        <v>3.7921294087880212E-3</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003d8#0000</v>
+        <v>obj_003df#0003</v>
       </c>
       <c r="C48" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
@@ -6746,39 +6744,39 @@
       </c>
       <c r="E48" s="54">
         <f t="shared" si="13"/>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F48" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42153</v>
+        <v>42192</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="33"/>
       <c r="I48" s="45"/>
       <c r="J48" s="32">
         <f t="shared" si="21"/>
-        <v>1.0029206143798649E-2</v>
+        <v>1.0328221107925971E-2</v>
       </c>
       <c r="K48" s="229">
         <f t="shared" si="18"/>
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L48" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
-        <v>6.3986301369862658E-3</v>
+        <v>6.4849315068492468E-3</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="33"/>
       <c r="P48" s="45"/>
       <c r="Q48" s="16">
         <f t="shared" si="16"/>
-        <v>3.6305760068123831E-3</v>
+        <v>3.8432896010767242E-3</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003e3#0000</v>
+        <v>obj_003c8#0003</v>
       </c>
       <c r="C49" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
@@ -6789,33 +6787,33 @@
       </c>
       <c r="E49" s="54">
         <f t="shared" si="13"/>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="F49" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42185</v>
+        <v>42223</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="33"/>
       <c r="I49" s="45"/>
       <c r="J49" s="32">
         <f t="shared" si="21"/>
-        <v>1.0445444913446551E-2</v>
+        <v>1.0678800000000002E-2</v>
       </c>
       <c r="K49" s="229">
         <f t="shared" si="18"/>
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L49" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>6.7438356164384074E-3</v>
+        <v>6.7808219175112166E-3</v>
       </c>
       <c r="N49" s="65"/>
       <c r="O49" s="66"/>
       <c r="P49" s="67"/>
       <c r="Q49" s="14">
         <f t="shared" si="16"/>
-        <v>3.7016092970081436E-3</v>
+        <v>3.8979780824887856E-3</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
@@ -6868,11 +6866,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="356" t="s">
+      <c r="B1" s="357" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
+      <c r="C1" s="358"/>
+      <c r="D1" s="358"/>
       <c r="E1" s="244" t="s">
         <v>105</v>
       </c>
@@ -6908,15 +6906,15 @@
       </c>
       <c r="E2" s="258" t="str">
         <f>Contribution!D40</f>
-        <v>GBP1YD_SYNTH1Y_Quote#0000</v>
+        <v>GBP1YD_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="F2" s="258" t="str">
         <f>_xll.qlDepositRateHelper(,E2,$F$10)</f>
-        <v>obj_003b6#0000</v>
+        <v>obj_003b7#0003</v>
       </c>
       <c r="G2" s="259">
         <f>_xll.qlRateHelperQuoteValue($F2,InterestRatesTrigger)</f>
-        <v>1.0444999999999999E-2</v>
+        <v>1.0678999999999999E-2</v>
       </c>
       <c r="H2" s="258" t="b">
         <v>1</v>
@@ -6929,11 +6927,11 @@
       </c>
       <c r="K2" s="261">
         <f>_xll.qlRateHelperEarliestDate($F2,InterestRatesTrigger)</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="L2" s="262">
         <f>_xll.qlRateHelperLatestDate($F2,InterestRatesTrigger)</f>
-        <v>42185</v>
+        <v>42223</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -6952,11 +6950,11 @@
       </c>
       <c r="F3" s="283" t="str">
         <f>_xll.qlFraRateHelper(,E3,B3&amp;"M",$F$10)</f>
-        <v>obj_00368#0000</v>
+        <v>obj_0038a#0003</v>
       </c>
       <c r="G3" s="259">
         <f>_xll.qlRateHelperQuoteValue($F3,InterestRatesTrigger)</f>
-        <v>1.9950000000000002E-2</v>
+        <v>1.9500000000000003E-2</v>
       </c>
       <c r="H3" s="258" t="b">
         <v>1</v>
@@ -6969,11 +6967,11 @@
       </c>
       <c r="K3" s="261">
         <f>_xll.qlRateHelperEarliestDate($F3,InterestRatesTrigger)</f>
-        <v>42185</v>
+        <v>42223</v>
       </c>
       <c r="L3" s="262">
         <f>_xll.qlRateHelperLatestDate($F3,InterestRatesTrigger)</f>
-        <v>42551</v>
+        <v>42590</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -6988,15 +6986,15 @@
       </c>
       <c r="E4" s="247" t="str">
         <f>Swaps1Y!K5</f>
-        <v>GBPSB6L3Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L3Y_S6L12L_Quote#0003</v>
       </c>
       <c r="F4" s="284" t="str">
         <f>_xll.qlSwapRateHelper2(,E4,D4,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_003fa#0000</v>
+        <v>obj_003f6#0003</v>
       </c>
       <c r="G4" s="248">
         <f>_xll.qlRateHelperQuoteValue($F4,InterestRatesTrigger)</f>
-        <v>1.8485000000006399E-2</v>
+        <v>1.8344999999410316E-2</v>
       </c>
       <c r="H4" s="247" t="b">
         <v>1</v>
@@ -7009,11 +7007,11 @@
       </c>
       <c r="K4" s="250">
         <f>_xll.qlRateHelperEarliestDate($F4,InterestRatesTrigger)</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="L4" s="251">
         <f>_xll.qlRateHelperLatestDate($F4,InterestRatesTrigger)</f>
-        <v>42916</v>
+        <v>42954</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -7028,15 +7026,15 @@
       </c>
       <c r="E5" s="247" t="str">
         <f>Swaps1Y!K6</f>
-        <v>GBPSB6L4Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L4Y_S6L12L_Quote#0003</v>
       </c>
       <c r="F5" s="284" t="str">
         <f>_xll.qlSwapRateHelper2(,E5,D5,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_003fe#0000</v>
+        <v>obj_003f8#0003</v>
       </c>
       <c r="G5" s="248">
         <f>_xll.qlRateHelperQuoteValue($F5,InterestRatesTrigger)</f>
-        <v>2.1092500000018437E-2</v>
+        <v>2.0872499999655746E-2</v>
       </c>
       <c r="H5" s="247" t="b">
         <v>1</v>
@@ -7049,11 +7047,11 @@
       </c>
       <c r="K5" s="250">
         <f>_xll.qlRateHelperEarliestDate($F5,InterestRatesTrigger)</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="L5" s="251">
         <f>_xll.qlRateHelperLatestDate($F5,InterestRatesTrigger)</f>
-        <v>43280</v>
+        <v>43319</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -7068,15 +7066,15 @@
       </c>
       <c r="E6" s="207" t="str">
         <f>Swaps1Y!K7</f>
-        <v>GBPSB6L5Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L5Y_S6L12L_Quote#0003</v>
       </c>
       <c r="F6" s="285" t="str">
         <f>_xll.qlSwapRateHelper2(,E6,D6,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_003ff#0000</v>
+        <v>obj_003fa#0003</v>
       </c>
       <c r="G6" s="253">
         <f>_xll.qlRateHelperQuoteValue($F6,InterestRatesTrigger)</f>
-        <v>2.3027500000000034E-2</v>
+        <v>2.2717499999604839E-2</v>
       </c>
       <c r="H6" s="207" t="b">
         <v>1</v>
@@ -7089,17 +7087,17 @@
       </c>
       <c r="K6" s="255">
         <f>_xll.qlRateHelperEarliestDate($F6,InterestRatesTrigger)</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="L6" s="256">
         <f>_xll.qlRateHelperLatestDate($F6,InterestRatesTrigger)</f>
-        <v>43644</v>
+        <v>43684</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F10" s="263" t="str">
         <f>_xll.qlLibor(,Currency,IborTenor,,,EvaluationDate)</f>
-        <v>obj_00367#0000</v>
+        <v>obj_00368#0003</v>
       </c>
     </row>
   </sheetData>
@@ -7938,7 +7936,7 @@
       <c r="C2" s="270"/>
       <c r="D2" s="271">
         <f>SettlementDate</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="E2" s="272">
         <f t="array" ref="E2:E127">_xll.qlPiecewiseYieldCurveData(YieldCurve,InterestRatesTrigger)</f>
@@ -7949,265 +7947,265 @@
       </c>
       <c r="G2" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I2)</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="H2" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I2,J2,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0042d#0000</v>
+        <v>obj_0040c#0003</v>
       </c>
       <c r="I2" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F2&amp;"M","mf")</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="J2" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I2)</f>
-        <v>42185</v>
+        <v>42223</v>
       </c>
       <c r="K2" s="272">
         <f>_xll.qlIndexFixing(IborIndex,G2,TRUE,InterestRatesTrigger)</f>
-        <v>1.0445000000327997E-2</v>
+        <v>1.0678999999999883E-2</v>
       </c>
       <c r="L2" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H2,InterestRatesTrigger)</f>
-        <v>6.7438356164384074E-3</v>
+        <v>6.7808219175112166E-3</v>
       </c>
       <c r="M2" s="273">
         <f>K2-L2</f>
-        <v>3.7011643838895901E-3</v>
+        <v>3.8981780824886665E-3</v>
       </c>
       <c r="N2" s="272"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="275" t="str">
         <f>RateHelpersFRA!$F2</f>
-        <v>obj_003b6#0000</v>
+        <v>obj_003b7#0003</v>
       </c>
       <c r="B3" s="276">
         <f>_xll.qlRateHelperRate($A3,InterestRatesTrigger)</f>
-        <v>1.0444999999999999E-2</v>
+        <v>1.0678999999999999E-2</v>
       </c>
       <c r="C3" s="277">
         <f>_xll.qlRateHelperEarliestDate($A3)</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="D3" s="271">
         <f>_xll.qlRateHelperLatestDate($A3)</f>
-        <v>42185</v>
+        <v>42223</v>
       </c>
       <c r="E3" s="272">
-        <v>0.98966297027515138</v>
+        <v>0.98943383606466551</v>
       </c>
       <c r="F3" s="139">
         <v>12</v>
       </c>
       <c r="G3" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I3)</f>
-        <v>42185</v>
+        <v>42223</v>
       </c>
       <c r="H3" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I3,J3,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0040f#0000</v>
+        <v>obj_00414#0003</v>
       </c>
       <c r="I3" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F3&amp;"M","mf")</f>
-        <v>42185</v>
+        <v>42223</v>
       </c>
       <c r="J3" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I3)</f>
-        <v>42551</v>
+        <v>42590</v>
       </c>
       <c r="K3" s="272">
         <f>_xll.qlIndexFixing(IborIndex,G3,TRUE,InterestRatesTrigger)</f>
-        <v>1.9950000000371733E-2</v>
+        <v>1.9500000000000017E-2</v>
       </c>
       <c r="L3" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H3,InterestRatesTrigger)</f>
-        <v>1.4632383351038305E-2</v>
+        <v>1.431066809836189E-2</v>
       </c>
       <c r="M3" s="273">
         <f>K3-L3</f>
-        <v>5.317616649333428E-3</v>
+        <v>5.1893319016381272E-3</v>
       </c>
       <c r="N3" s="272"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="275" t="str">
         <f>RateHelpersFRA!$F3</f>
-        <v>obj_00368#0000</v>
+        <v>obj_0038a#0003</v>
       </c>
       <c r="B4" s="276">
         <f>_xll.qlRateHelperRate($A4,InterestRatesTrigger)</f>
-        <v>1.9950000000000002E-2</v>
+        <v>1.9500000000000003E-2</v>
       </c>
       <c r="C4" s="277">
         <f>_xll.qlRateHelperEarliestDate($A4)</f>
-        <v>42185</v>
+        <v>42223</v>
       </c>
       <c r="D4" s="271">
         <f>_xll.qlRateHelperLatestDate($A4)</f>
-        <v>42551</v>
+        <v>42590</v>
       </c>
       <c r="E4" s="272">
-        <v>0.9702533836141447</v>
+        <v>0.97040720816001569</v>
       </c>
       <c r="F4" s="139">
         <v>24</v>
       </c>
       <c r="G4" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I4)</f>
-        <v>42551</v>
+        <v>42590</v>
       </c>
       <c r="H4" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I4,J4,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0042c#0000</v>
+        <v>obj_00435#0003</v>
       </c>
       <c r="I4" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F4&amp;"M","mf")</f>
-        <v>42551</v>
+        <v>42590</v>
       </c>
       <c r="J4" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I4)</f>
-        <v>42916</v>
+        <v>42955</v>
       </c>
       <c r="K4" s="272">
         <f>_xll.qlIndexFixing(IborIndex,G4,TRUE,InterestRatesTrigger)</f>
-        <v>2.5266345185274597E-2</v>
+        <v>2.5071108336024217E-2</v>
       </c>
       <c r="L4" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H4,InterestRatesTrigger)</f>
-        <v>2.1003278055546283E-2</v>
+        <v>2.0290866493007254E-2</v>
       </c>
       <c r="M4" s="273">
         <f>K4-L4</f>
-        <v>4.2630671297283138E-3</v>
+        <v>4.7802418430169628E-3</v>
       </c>
       <c r="N4" s="272"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="275" t="str">
         <f>RateHelpersFRA!$F4</f>
-        <v>obj_003fa#0000</v>
+        <v>obj_003f6#0003</v>
       </c>
       <c r="B5" s="276">
         <f>_xll.qlRateHelperRate($A5,InterestRatesTrigger)</f>
-        <v>1.8485000000006399E-2</v>
+        <v>1.8344999999410316E-2</v>
       </c>
       <c r="C5" s="277">
         <f>_xll.qlRateHelperEarliestDate($A5)</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="D5" s="271">
         <f>_xll.qlRateHelperLatestDate($A5)</f>
-        <v>42916</v>
+        <v>42954</v>
       </c>
       <c r="E5" s="272">
-        <v>0.94634276075726598</v>
+        <v>0.94674253929757701</v>
       </c>
       <c r="F5" s="139">
         <v>36</v>
       </c>
       <c r="G5" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I5)</f>
-        <v>42916</v>
+        <v>42954</v>
       </c>
       <c r="H5" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I5,J5,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0042f#0000</v>
+        <v>obj_00418#0003</v>
       </c>
       <c r="I5" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F5&amp;"M","mf")</f>
-        <v>42916</v>
+        <v>42954</v>
       </c>
       <c r="J5" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I5)</f>
-        <v>43280</v>
+        <v>43319</v>
       </c>
       <c r="K5" s="272">
         <f>_xll.qlIndexFixing(IborIndex,G5,TRUE,InterestRatesTrigger)</f>
-        <v>2.8961054061179044E-2</v>
+        <v>2.8779200310361963E-2</v>
       </c>
       <c r="L5" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H5,InterestRatesTrigger)</f>
-        <v>-1.5551226591557091E-2</v>
+        <v>2.3335688859792147E-2</v>
       </c>
       <c r="M5" s="273">
         <f>K5-L5</f>
-        <v>4.4512280652736137E-2</v>
+        <v>5.4435114505698157E-3</v>
       </c>
       <c r="N5" s="272"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="275" t="str">
         <f>RateHelpersFRA!$F5</f>
-        <v>obj_003fe#0000</v>
+        <v>obj_003f8#0003</v>
       </c>
       <c r="B6" s="276">
         <f>_xll.qlRateHelperRate($A6,InterestRatesTrigger)</f>
-        <v>2.1092500000018437E-2</v>
+        <v>2.0872499999655746E-2</v>
       </c>
       <c r="C6" s="277">
         <f>_xll.qlRateHelperEarliestDate($A6)</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="D6" s="271">
         <f>_xll.qlRateHelperLatestDate($A6)</f>
-        <v>43280</v>
+        <v>43319</v>
       </c>
       <c r="E6" s="272">
-        <v>0.91977800047198743</v>
+        <v>0.92025824298543735</v>
       </c>
       <c r="F6" s="139">
         <v>48</v>
       </c>
       <c r="G6" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I6)</f>
-        <v>43280</v>
+        <v>43319</v>
       </c>
       <c r="H6" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I6,J6,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00407#0000</v>
+        <v>obj_0040e#0003</v>
       </c>
       <c r="I6" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F6&amp;"M","mf")</f>
-        <v>43280</v>
+        <v>43319</v>
       </c>
       <c r="J6" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I6)</f>
-        <v>43644</v>
+        <v>43684</v>
       </c>
       <c r="K6" s="272">
         <f>_xll.qlIndexFixing(IborIndex,G6,TRUE,InterestRatesTrigger)</f>
-        <v>3.0884277098276455E-2</v>
+        <v>3.0523800562580972E-2</v>
       </c>
       <c r="L6" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H6,InterestRatesTrigger)</f>
-        <v>1.0552750119585624E-2</v>
+        <v>2.4557506570787133E-2</v>
       </c>
       <c r="M6" s="273">
         <f>K6-L6</f>
-        <v>2.0331526978690832E-2</v>
+        <v>5.966293991793839E-3</v>
       </c>
       <c r="N6" s="272"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="275" t="str">
         <f>RateHelpersFRA!$F6</f>
-        <v>obj_003ff#0000</v>
+        <v>obj_003fa#0003</v>
       </c>
       <c r="B7" s="276">
         <f>_xll.qlRateHelperRate($A7,InterestRatesTrigger)</f>
-        <v>2.3027500000000034E-2</v>
+        <v>2.2717499999604839E-2</v>
       </c>
       <c r="C7" s="277">
         <f>_xll.qlRateHelperEarliestDate($A7)</f>
-        <v>41820</v>
+        <v>41858</v>
       </c>
       <c r="D7" s="271">
         <f>_xll.qlRateHelperLatestDate($A7)</f>
-        <v>43644</v>
+        <v>43684</v>
       </c>
       <c r="E7" s="272">
-        <v>0.89229559710555695</v>
+        <v>0.89300047459656173</v>
       </c>
       <c r="G7" s="274"/>
       <c r="I7" s="274"/>
@@ -8229,31 +8227,31 @@
       </c>
       <c r="G8" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I8)</f>
-        <v>41850</v>
+        <v>41890</v>
       </c>
       <c r="H8" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I8,J8,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0040d#0000</v>
+        <v>obj_00408#0003</v>
       </c>
       <c r="I8" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F8&amp;"M","mf")</f>
-        <v>41850</v>
+        <v>41890</v>
       </c>
       <c r="J8" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I8)</f>
-        <v>42215</v>
+        <v>42255</v>
       </c>
       <c r="L8" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H8,InterestRatesTrigger)</f>
-        <v>7.3014986338740652E-3</v>
+        <v>7.3521910643117106E-3</v>
       </c>
       <c r="M8" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I8)</f>
-        <v>3.9276675069942705E-3</v>
+        <v>4.0370777123691108E-3</v>
       </c>
       <c r="N8" s="272">
         <f t="shared" ref="N8:N51" si="0">L8+M8</f>
-        <v>1.1229166140868337E-2</v>
+        <v>1.1389268776680821E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -8269,31 +8267,31 @@
       </c>
       <c r="G9" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I9)</f>
-        <v>41880</v>
+        <v>41919</v>
       </c>
       <c r="H9" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I9,J9,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00417#0000</v>
+        <v>obj_00415#0003</v>
       </c>
       <c r="I9" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F9&amp;"M","mf")</f>
-        <v>41880</v>
+        <v>41919</v>
       </c>
       <c r="J9" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I9)</f>
-        <v>42244</v>
+        <v>42284</v>
       </c>
       <c r="L9" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H9,InterestRatesTrigger)</f>
-        <v>7.8888087187156068E-3</v>
+        <v>7.9229556532603128E-3</v>
       </c>
       <c r="M9" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I9)</f>
-        <v>4.1444441896204129E-3</v>
+        <v>4.165616964546869E-3</v>
       </c>
       <c r="N9" s="272">
         <f t="shared" si="0"/>
-        <v>1.2033252908336019E-2</v>
+        <v>1.2088572617807183E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -8309,31 +8307,31 @@
       </c>
       <c r="G10" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I10)</f>
-        <v>41912</v>
+        <v>41950</v>
       </c>
       <c r="H10" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I10,J10,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00408#0000</v>
+        <v>obj_00419#0003</v>
       </c>
       <c r="I10" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F10&amp;"M","mf")</f>
-        <v>41912</v>
+        <v>41950</v>
       </c>
       <c r="J10" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I10)</f>
-        <v>42277</v>
+        <v>42317</v>
       </c>
       <c r="L10" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H10,InterestRatesTrigger)</f>
-        <v>8.5887228820699518E-3</v>
+        <v>8.5965614810585237E-3</v>
       </c>
       <c r="M10" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I10)</f>
-        <v>4.3620457883251302E-3</v>
+        <v>4.3040724373586726E-3</v>
       </c>
       <c r="N10" s="272">
         <f t="shared" si="0"/>
-        <v>1.2950768670395081E-2</v>
+        <v>1.2900633918417196E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -8349,31 +8347,31 @@
       </c>
       <c r="G11" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I11)</f>
-        <v>41942</v>
+        <v>41981</v>
       </c>
       <c r="H11" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I11,J11,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0040a#0000</v>
+        <v>obj_00425#0003</v>
       </c>
       <c r="I11" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F11&amp;"M","mf")</f>
-        <v>41942</v>
+        <v>41981</v>
       </c>
       <c r="J11" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I11)</f>
-        <v>42307</v>
+        <v>42346</v>
       </c>
       <c r="L11" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H11,InterestRatesTrigger)</f>
-        <v>9.2912790539114772E-3</v>
+        <v>9.2020367266223597E-3</v>
       </c>
       <c r="M11" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I11)</f>
-        <v>4.5507058913805834E-3</v>
+        <v>4.4415961931395121E-3</v>
       </c>
       <c r="N11" s="272">
         <f t="shared" si="0"/>
-        <v>1.3841984945292062E-2</v>
+        <v>1.3643632919761872E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -8389,31 +8387,31 @@
       </c>
       <c r="G12" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I12)</f>
-        <v>41971</v>
+        <v>42011</v>
       </c>
       <c r="H12" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I12,J12,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0040c#0000</v>
+        <v>obj_00431#0003</v>
       </c>
       <c r="I12" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F12&amp;"M","mf")</f>
-        <v>41971</v>
+        <v>42011</v>
       </c>
       <c r="J12" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I12)</f>
-        <v>42338</v>
+        <v>42376</v>
       </c>
       <c r="L12" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H12,InterestRatesTrigger)</f>
-        <v>9.9569079759364593E-3</v>
+        <v>9.8471498071742245E-3</v>
       </c>
       <c r="M12" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I12)</f>
-        <v>4.7168242841852445E-3</v>
+        <v>4.5716341732852401E-3</v>
       </c>
       <c r="N12" s="272">
         <f t="shared" si="0"/>
-        <v>1.4673732260121704E-2</v>
+        <v>1.4418783980459465E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -8429,31 +8427,31 @@
       </c>
       <c r="G13" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I13)</f>
-        <v>42003</v>
+        <v>42044</v>
       </c>
       <c r="H13" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I13,J13,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00429#0000</v>
+        <v>obj_00423#0003</v>
       </c>
       <c r="I13" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F13&amp;"M","mf")</f>
-        <v>42003</v>
+        <v>42044</v>
       </c>
       <c r="J13" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I13)</f>
-        <v>42368</v>
+        <v>42409</v>
       </c>
       <c r="L13" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H13,InterestRatesTrigger)</f>
-        <v>1.0620186774430045E-2</v>
+        <v>1.0576537420772383E-2</v>
       </c>
       <c r="M13" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I13)</f>
-        <v>4.8794221587593369E-3</v>
+        <v>4.7084506406327858E-3</v>
       </c>
       <c r="N13" s="272">
         <f t="shared" si="0"/>
-        <v>1.5499608933189381E-2</v>
+        <v>1.5284988061405168E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -8469,31 +8467,31 @@
       </c>
       <c r="G14" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I14)</f>
-        <v>42034</v>
+        <v>42072</v>
       </c>
       <c r="H14" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I14,J14,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0042b#0000</v>
+        <v>obj_0042f#0003</v>
       </c>
       <c r="I14" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F14&amp;"M","mf")</f>
-        <v>42034</v>
+        <v>42072</v>
       </c>
       <c r="J14" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I14)</f>
-        <v>42398</v>
+        <v>42438</v>
       </c>
       <c r="L14" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H14,InterestRatesTrigger)</f>
-        <v>1.1244020674832173E-2</v>
+        <v>1.1167437203334791E-2</v>
       </c>
       <c r="M14" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I14)</f>
-        <v>5.0143614240457492E-3</v>
+        <v>4.8170525445830606E-3</v>
       </c>
       <c r="N14" s="272">
         <f t="shared" si="0"/>
-        <v>1.6258382098877922E-2</v>
+        <v>1.598448974791785E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -8509,31 +8507,31 @@
       </c>
       <c r="G15" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I15)</f>
-        <v>42062</v>
+        <v>42101</v>
       </c>
       <c r="H15" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I15,J15,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00432#0000</v>
+        <v>obj_0042a#0003</v>
       </c>
       <c r="I15" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F15&amp;"M","mf")</f>
-        <v>42062</v>
+        <v>42101</v>
       </c>
       <c r="J15" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I15)</f>
-        <v>42429</v>
+        <v>42467</v>
       </c>
       <c r="L15" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H15,InterestRatesTrigger)</f>
-        <v>1.1776402534445651E-2</v>
+        <v>1.1778770736744257E-2</v>
       </c>
       <c r="M15" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I15)</f>
-        <v>5.1158840913220682E-3</v>
+        <v>4.9198854128777465E-3</v>
       </c>
       <c r="N15" s="272">
         <f t="shared" si="0"/>
-        <v>1.6892286625767718E-2</v>
+        <v>1.6698656149622002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -8549,31 +8547,31 @@
       </c>
       <c r="G16" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I16)</f>
-        <v>42093</v>
+        <v>42131</v>
       </c>
       <c r="H16" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I16,J16,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00435#0000</v>
+        <v>obj_0040d#0003</v>
       </c>
       <c r="I16" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F16&amp;"M","mf")</f>
-        <v>42093</v>
+        <v>42131</v>
       </c>
       <c r="J16" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I16)</f>
-        <v>42459</v>
+        <v>42499</v>
       </c>
       <c r="L16" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H16,InterestRatesTrigger)</f>
-        <v>1.2353872096863899E-2</v>
+        <v>1.2446820739418352E-2</v>
       </c>
       <c r="M16" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I16)</f>
-        <v>5.2047192695160718E-3</v>
+        <v>5.0133475995298993E-3</v>
       </c>
       <c r="N16" s="272">
         <f t="shared" si="0"/>
-        <v>1.755859136637997E-2</v>
+        <v>1.746016833894825E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -8589,31 +8587,31 @@
       </c>
       <c r="G17" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I17)</f>
-        <v>42124</v>
+        <v>42163</v>
       </c>
       <c r="H17" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I17,J17,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0041c#0000</v>
+        <v>obj_00433#0003</v>
       </c>
       <c r="I17" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F17&amp;"M","mf")</f>
-        <v>42124</v>
+        <v>42163</v>
       </c>
       <c r="J17" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I17)</f>
-        <v>42489</v>
+        <v>42529</v>
       </c>
       <c r="L17" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H17,InterestRatesTrigger)</f>
-        <v>1.3000398128734558E-2</v>
+        <v>1.3072748884591154E-2</v>
       </c>
       <c r="M17" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I17)</f>
-        <v>5.2680964384278581E-3</v>
+        <v>5.0954801586289167E-3</v>
       </c>
       <c r="N17" s="272">
         <f t="shared" si="0"/>
-        <v>1.8268494567162417E-2</v>
+        <v>1.8168229043220071E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -8629,31 +8627,31 @@
       </c>
       <c r="G18" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I18)</f>
-        <v>42153</v>
+        <v>42192</v>
       </c>
       <c r="H18" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I18,J18,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0041a#0000</v>
+        <v>obj_00427#0003</v>
       </c>
       <c r="I18" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F18&amp;"M","mf")</f>
-        <v>42153</v>
+        <v>42192</v>
       </c>
       <c r="J18" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I18)</f>
-        <v>42521</v>
+        <v>42558</v>
       </c>
       <c r="L18" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H18,InterestRatesTrigger)</f>
-        <v>1.374596112759385E-2</v>
+        <v>1.3670477023214752E-2</v>
       </c>
       <c r="M18" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I18)</f>
-        <v>5.3040492459068824E-3</v>
+        <v>5.1515300790291171E-3</v>
       </c>
       <c r="N18" s="272">
         <f t="shared" si="0"/>
-        <v>1.9050010373500733E-2</v>
+        <v>1.8822007102243868E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -8669,31 +8667,31 @@
       </c>
       <c r="G19" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I19)</f>
-        <v>42215</v>
+        <v>42254</v>
       </c>
       <c r="H19" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I19,J19,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00421#0000</v>
+        <v>obj_00422#0003</v>
       </c>
       <c r="I19" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F19&amp;"M","mf")</f>
-        <v>42215</v>
+        <v>42254</v>
       </c>
       <c r="J19" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I19)</f>
-        <v>42580</v>
+        <v>42620</v>
       </c>
       <c r="L19" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H19,InterestRatesTrigger)</f>
-        <v>1.5646176624204946E-2</v>
+        <v>1.4909927357263439E-2</v>
       </c>
       <c r="M19" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I19)</f>
-        <v>5.2736539754232922E-3</v>
+        <v>5.2021025251924279E-3</v>
       </c>
       <c r="N19" s="272">
         <f t="shared" si="0"/>
-        <v>2.0919830599628236E-2</v>
+        <v>2.0112029882455869E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -8709,31 +8707,31 @@
       </c>
       <c r="G20" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I20)</f>
-        <v>42244</v>
+        <v>42284</v>
       </c>
       <c r="H20" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I20,J20,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00410#0000</v>
+        <v>obj_0041a#0003</v>
       </c>
       <c r="I20" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F20&amp;"M","mf")</f>
-        <v>42244</v>
+        <v>42284</v>
       </c>
       <c r="J20" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I20)</f>
-        <v>42613</v>
+        <v>42650</v>
       </c>
       <c r="L20" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H20,InterestRatesTrigger)</f>
-        <v>1.6875957179487863E-2</v>
+        <v>1.5478031298891229E-2</v>
       </c>
       <c r="M20" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I20)</f>
-        <v>5.1613157920706743E-3</v>
+        <v>5.1927942060013398E-3</v>
       </c>
       <c r="N20" s="272">
         <f t="shared" si="0"/>
-        <v>2.2037272971558539E-2</v>
+        <v>2.0670825504892569E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -8749,31 +8747,31 @@
       </c>
       <c r="G21" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I21)</f>
-        <v>42277</v>
+        <v>42317</v>
       </c>
       <c r="H21" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I21,J21,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00424#0000</v>
+        <v>obj_00434#0003</v>
       </c>
       <c r="I21" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F21&amp;"M","mf")</f>
-        <v>42277</v>
+        <v>42317</v>
       </c>
       <c r="J21" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I21)</f>
-        <v>42643</v>
+        <v>42683</v>
       </c>
       <c r="L21" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H21,InterestRatesTrigger)</f>
-        <v>1.8131220433811088E-2</v>
+        <v>1.60799874153893E-2</v>
       </c>
       <c r="M21" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I21)</f>
-        <v>4.976771187664656E-3</v>
+        <v>5.1626196924967182E-3</v>
       </c>
       <c r="N21" s="272">
         <f t="shared" si="0"/>
-        <v>2.3107991621475744E-2</v>
+        <v>2.1242607107886016E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -8789,31 +8787,31 @@
       </c>
       <c r="G22" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I22)</f>
-        <v>42307</v>
+        <v>42345</v>
       </c>
       <c r="H22" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I22,J22,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00426#0000</v>
+        <v>obj_00412#0003</v>
       </c>
       <c r="I22" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F22&amp;"M","mf")</f>
-        <v>42307</v>
+        <v>42345</v>
       </c>
       <c r="J22" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I22)</f>
-        <v>42674</v>
+        <v>42711</v>
       </c>
       <c r="L22" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H22,InterestRatesTrigger)</f>
-        <v>1.9352241027258861E-2</v>
+        <v>1.6572802570066887E-2</v>
       </c>
       <c r="M22" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I22)</f>
-        <v>4.7807637300880286E-3</v>
+        <v>5.1244808576863341E-3</v>
       </c>
       <c r="N22" s="272">
         <f t="shared" si="0"/>
-        <v>2.413300475734689E-2</v>
+        <v>2.1697283427753219E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -8829,31 +8827,31 @@
       </c>
       <c r="G23" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I23)</f>
-        <v>42338</v>
+        <v>42376</v>
       </c>
       <c r="H23" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I23,J23,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00418#0000</v>
+        <v>obj_0041b#0003</v>
       </c>
       <c r="I23" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F23&amp;"M","mf")</f>
-        <v>42338</v>
+        <v>42376</v>
       </c>
       <c r="J23" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I23)</f>
-        <v>42704</v>
+        <v>42744</v>
       </c>
       <c r="L23" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H23,InterestRatesTrigger)</f>
-        <v>2.0501230304720158E-2</v>
+        <v>1.7118186863639803E-2</v>
       </c>
       <c r="M23" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I23)</f>
-        <v>4.5722356133423249E-3</v>
+        <v>5.0729966778452328E-3</v>
       </c>
       <c r="N23" s="272">
         <f t="shared" si="0"/>
-        <v>2.5073465918062483E-2</v>
+        <v>2.2191183541485034E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -8869,31 +8867,31 @@
       </c>
       <c r="G24" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I24)</f>
-        <v>42368</v>
+        <v>42408</v>
       </c>
       <c r="H24" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I24,J24,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0040b#0000</v>
+        <v>obj_0042b#0003</v>
       </c>
       <c r="I24" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F24&amp;"M","mf")</f>
-        <v>42368</v>
+        <v>42408</v>
       </c>
       <c r="J24" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I24)</f>
-        <v>42734</v>
+        <v>42774</v>
       </c>
       <c r="L24" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H24,InterestRatesTrigger)</f>
-        <v>2.1538663041584662E-2</v>
+        <v>1.7630579921380233E-2</v>
       </c>
       <c r="M24" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I24)</f>
-        <v>4.3824959983812372E-3</v>
+        <v>5.0140930702018693E-3</v>
       </c>
       <c r="N24" s="272">
         <f t="shared" si="0"/>
-        <v>2.5921159039965898E-2</v>
+        <v>2.2644672991582102E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -8909,31 +8907,31 @@
       </c>
       <c r="G25" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I25)</f>
-        <v>42398</v>
+        <v>42436</v>
       </c>
       <c r="H25" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I25,J25,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00409#0000</v>
+        <v>obj_0041f#0003</v>
       </c>
       <c r="I25" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F25&amp;"M","mf")</f>
-        <v>42398</v>
+        <v>42436</v>
       </c>
       <c r="J25" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I25)</f>
-        <v>42766</v>
+        <v>42801</v>
       </c>
       <c r="L25" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H25,InterestRatesTrigger)</f>
-        <v>2.2439097055018883E-2</v>
+        <v>1.8073849639852219E-2</v>
       </c>
       <c r="M25" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I25)</f>
-        <v>4.2193865519881656E-3</v>
+        <v>4.9613331266204165E-3</v>
       </c>
       <c r="N25" s="272">
         <f t="shared" si="0"/>
-        <v>2.6658483607007049E-2</v>
+        <v>2.3035182766472637E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -8949,31 +8947,31 @@
       </c>
       <c r="G26" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I26)</f>
-        <v>42429</v>
+        <v>42467</v>
       </c>
       <c r="H26" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I26,J26,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0042a#0000</v>
+        <v>obj_00429#0003</v>
       </c>
       <c r="I26" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F26&amp;"M","mf")</f>
-        <v>42429</v>
+        <v>42467</v>
       </c>
       <c r="J26" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I26)</f>
-        <v>42794</v>
+        <v>42832</v>
       </c>
       <c r="L26" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H26,InterestRatesTrigger)</f>
-        <v>2.3111176280422013E-2</v>
+        <v>1.8559311260023217E-2</v>
       </c>
       <c r="M26" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I26)</f>
-        <v>4.0920915995435146E-3</v>
+        <v>4.9053238717381631E-3</v>
       </c>
       <c r="N26" s="272">
         <f t="shared" si="0"/>
-        <v>2.7203267879965527E-2</v>
+        <v>2.3464635131761381E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -8989,31 +8987,31 @@
       </c>
       <c r="G27" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I27)</f>
-        <v>42459</v>
+        <v>42499</v>
       </c>
       <c r="H27" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I27,J27,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00433#0000</v>
+        <v>obj_00430#0003</v>
       </c>
       <c r="I27" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F27&amp;"M","mf")</f>
-        <v>42459</v>
+        <v>42499</v>
       </c>
       <c r="J27" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I27)</f>
-        <v>42824</v>
+        <v>42864</v>
       </c>
       <c r="L27" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H27,InterestRatesTrigger)</f>
-        <v>2.3415422797295488E-2</v>
+        <v>1.9042171432702811E-2</v>
       </c>
       <c r="M27" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I27)</f>
-        <v>4.0206682849208506E-3</v>
+        <v>4.8540893621937913E-3</v>
       </c>
       <c r="N27" s="272">
         <f t="shared" si="0"/>
-        <v>2.7436091082216341E-2</v>
+        <v>2.3896260794896602E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9029,31 +9027,31 @@
       </c>
       <c r="G28" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I28)</f>
-        <v>42489</v>
+        <v>42528</v>
       </c>
       <c r="H28" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I28,J28,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00427#0000</v>
+        <v>obj_00417#0003</v>
       </c>
       <c r="I28" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F28&amp;"M","mf")</f>
-        <v>42489</v>
+        <v>42528</v>
       </c>
       <c r="J28" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I28)</f>
-        <v>42853</v>
+        <v>42893</v>
       </c>
       <c r="L28" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H28,InterestRatesTrigger)</f>
-        <v>2.328800696099197E-2</v>
+        <v>1.9461564517441323E-2</v>
       </c>
       <c r="M28" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I28)</f>
-        <v>4.0123306861795235E-3</v>
+        <v>4.8167956961186996E-3</v>
       </c>
       <c r="N28" s="272">
         <f t="shared" si="0"/>
-        <v>2.7300337647171494E-2</v>
+        <v>2.4278360213560023E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -9069,31 +9067,31 @@
       </c>
       <c r="G29" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I29)</f>
-        <v>42521</v>
+        <v>42558</v>
       </c>
       <c r="H29" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I29,J29,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0041d#0000</v>
+        <v>obj_0040a#0003</v>
       </c>
       <c r="I29" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F29&amp;"M","mf")</f>
-        <v>42521</v>
+        <v>42558</v>
       </c>
       <c r="J29" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I29)</f>
-        <v>42886</v>
+        <v>42923</v>
       </c>
       <c r="L29" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H29,InterestRatesTrigger)</f>
-        <v>2.245906120575095E-2</v>
+        <v>1.987505499307873E-2</v>
       </c>
       <c r="M29" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I29)</f>
-        <v>4.0893768520317538E-3</v>
+        <v>4.790614205143629E-3</v>
       </c>
       <c r="N29" s="272">
         <f t="shared" si="0"/>
-        <v>2.6548438057782703E-2</v>
+        <v>2.466566919822236E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -9109,31 +9107,31 @@
       </c>
       <c r="G30" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I30)</f>
-        <v>42580</v>
+        <v>42620</v>
       </c>
       <c r="H30" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I30,J30,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0041b#0000</v>
+        <v>obj_0042d#0003</v>
       </c>
       <c r="I30" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F30&amp;"M","mf")</f>
-        <v>42580</v>
+        <v>42620</v>
       </c>
       <c r="J30" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I30)</f>
-        <v>42947</v>
+        <v>42985</v>
       </c>
       <c r="L30" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H30,InterestRatesTrigger)</f>
-        <v>1.8746718808262005E-2</v>
+        <v>2.0655289105433402E-2</v>
       </c>
       <c r="M30" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I30)</f>
-        <v>4.6143396986700301E-3</v>
+        <v>4.7875818672916109E-3</v>
       </c>
       <c r="N30" s="272">
         <f t="shared" si="0"/>
-        <v>2.3361058506932035E-2</v>
+        <v>2.5442870972725011E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -9149,31 +9147,31 @@
       </c>
       <c r="G31" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I31)</f>
-        <v>42612</v>
+        <v>42650</v>
       </c>
       <c r="H31" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I31,J31,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00415#0000</v>
+        <v>obj_00409#0003</v>
       </c>
       <c r="I31" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F31&amp;"M","mf")</f>
-        <v>42612</v>
+        <v>42650</v>
       </c>
       <c r="J31" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I31)</f>
-        <v>42977</v>
+        <v>43017</v>
       </c>
       <c r="L31" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H31,InterestRatesTrigger)</f>
-        <v>1.5844674389043689E-2</v>
+        <v>2.1006169231911728E-2</v>
       </c>
       <c r="M31" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I31)</f>
-        <v>5.3208052226408602E-3</v>
+        <v>4.8085435711945181E-3</v>
       </c>
       <c r="N31" s="272">
         <f t="shared" si="0"/>
-        <v>2.1165479611684551E-2</v>
+        <v>2.5814712803106245E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -9189,31 +9187,31 @@
       </c>
       <c r="G32" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I32)</f>
-        <v>42643</v>
+        <v>42681</v>
       </c>
       <c r="H32" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I32,J32,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00425#0000</v>
+        <v>obj_0040b#0003</v>
       </c>
       <c r="I32" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F32&amp;"M","mf")</f>
-        <v>42643</v>
+        <v>42681</v>
       </c>
       <c r="J32" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I32)</f>
-        <v>43007</v>
+        <v>43046</v>
       </c>
       <c r="L32" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H32,InterestRatesTrigger)</f>
-        <v>1.2449440502000074E-2</v>
+        <v>2.1323240810515898E-2</v>
       </c>
       <c r="M32" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I32)</f>
-        <v>6.388919552244729E-3</v>
+        <v>4.8428982634391151E-3</v>
       </c>
       <c r="N32" s="272">
         <f t="shared" si="0"/>
-        <v>1.8838360054244802E-2</v>
+        <v>2.6166139073955014E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -9229,31 +9227,31 @@
       </c>
       <c r="G33" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I33)</f>
-        <v>42674</v>
+        <v>42711</v>
       </c>
       <c r="H33" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I33,J33,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00434#0000</v>
+        <v>obj_00436#0003</v>
       </c>
       <c r="I33" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F33&amp;"M","mf")</f>
-        <v>42674</v>
+        <v>42711</v>
       </c>
       <c r="J33" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I33)</f>
-        <v>43039</v>
+        <v>43076</v>
       </c>
       <c r="L33" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H33,InterestRatesTrigger)</f>
-        <v>8.5480782413860611E-3</v>
+        <v>2.1618027572757145E-2</v>
       </c>
       <c r="M33" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I33)</f>
-        <v>7.9366863587691291E-3</v>
+        <v>4.8869209251414135E-3</v>
       </c>
       <c r="N33" s="272">
         <f t="shared" si="0"/>
-        <v>1.6484764600155188E-2</v>
+        <v>2.650494849789856E-2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -9269,31 +9267,31 @@
       </c>
       <c r="G34" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I34)</f>
-        <v>42704</v>
+        <v>42744</v>
       </c>
       <c r="H34" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I34,J34,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00422#0000</v>
+        <v>obj_00428#0003</v>
       </c>
       <c r="I34" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F34&amp;"M","mf")</f>
-        <v>42704</v>
+        <v>42744</v>
       </c>
       <c r="J34" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I34)</f>
-        <v>43069</v>
+        <v>43109</v>
       </c>
       <c r="L34" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H34,InterestRatesTrigger)</f>
-        <v>4.6640148166645252E-3</v>
+        <v>2.1918347218538439E-2</v>
       </c>
       <c r="M34" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I34)</f>
-        <v>1.0016723995076162E-2</v>
+        <v>4.9458369326302685E-3</v>
       </c>
       <c r="N34" s="272">
         <f t="shared" si="0"/>
-        <v>1.4680738811740687E-2</v>
+        <v>2.6864184151168709E-2</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -9309,31 +9307,31 @@
       </c>
       <c r="G35" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I35)</f>
-        <v>42734</v>
+        <v>42773</v>
       </c>
       <c r="H35" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I35,J35,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00430#0000</v>
+        <v>obj_0041e#0003</v>
       </c>
       <c r="I35" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F35&amp;"M","mf")</f>
-        <v>42734</v>
+        <v>42773</v>
       </c>
       <c r="J35" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I35)</f>
-        <v>43098</v>
+        <v>43138</v>
       </c>
       <c r="L35" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H35,InterestRatesTrigger)</f>
-        <v>8.09872002661242E-4</v>
+        <v>2.2162667856783468E-2</v>
       </c>
       <c r="M35" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I35)</f>
-        <v>1.2809561460693158E-2</v>
+        <v>5.005183999425792E-3</v>
       </c>
       <c r="N35" s="272">
         <f t="shared" si="0"/>
-        <v>1.36194334633544E-2</v>
+        <v>2.716785185620926E-2</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -9349,31 +9347,31 @@
       </c>
       <c r="G36" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I36)</f>
-        <v>42765</v>
+        <v>42801</v>
       </c>
       <c r="H36" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I36,J36,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00416#0000</v>
+        <v>obj_00410#0003</v>
       </c>
       <c r="I36" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F36&amp;"M","mf")</f>
-        <v>42765</v>
+        <v>42801</v>
       </c>
       <c r="J36" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I36)</f>
-        <v>43130</v>
+        <v>43166</v>
       </c>
       <c r="L36" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H36,InterestRatesTrigger)</f>
-        <v>-3.1783152506539691E-3</v>
+        <v>2.2382136842524727E-2</v>
       </c>
       <c r="M36" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I36)</f>
-        <v>1.6583704750400885E-2</v>
+        <v>5.0678632864539983E-3</v>
       </c>
       <c r="N36" s="272">
         <f t="shared" si="0"/>
-        <v>1.3405389499746916E-2</v>
+        <v>2.7450000128978726E-2</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -9389,31 +9387,31 @@
       </c>
       <c r="G37" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I37)</f>
-        <v>42794</v>
+        <v>42832</v>
       </c>
       <c r="H37" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I37,J37,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00412#0000</v>
+        <v>obj_00426#0003</v>
       </c>
       <c r="I37" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F37&amp;"M","mf")</f>
-        <v>42794</v>
+        <v>42832</v>
       </c>
       <c r="J37" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I37)</f>
-        <v>43159</v>
+        <v>43199</v>
       </c>
       <c r="L37" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H37,InterestRatesTrigger)</f>
-        <v>-6.6045982703040159E-3</v>
+        <v>2.261471906493338E-2</v>
       </c>
       <c r="M37" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I37)</f>
-        <v>2.1007670597796544E-2</v>
+        <v>5.141849472354792E-3</v>
       </c>
       <c r="N37" s="272">
         <f t="shared" si="0"/>
-        <v>1.4403072327492529E-2</v>
+        <v>2.7756568537288171E-2</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -9429,31 +9427,31 @@
       </c>
       <c r="G38" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I38)</f>
-        <v>42824</v>
+        <v>42863</v>
       </c>
       <c r="H38" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I38,J38,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00428#0000</v>
+        <v>obj_0041d#0003</v>
       </c>
       <c r="I38" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F38&amp;"M","mf")</f>
-        <v>42824</v>
+        <v>42863</v>
       </c>
       <c r="J38" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I38)</f>
-        <v>43188</v>
+        <v>43228</v>
       </c>
       <c r="L38" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H38,InterestRatesTrigger)</f>
-        <v>-9.7348966756478084E-3</v>
+        <v>2.281515830291907E-2</v>
       </c>
       <c r="M38" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I38)</f>
-        <v>2.6451064059169204E-2</v>
+        <v>5.2188795787492482E-3</v>
       </c>
       <c r="N38" s="272">
         <f t="shared" si="0"/>
-        <v>1.6716167383521396E-2</v>
+        <v>2.8034037881668319E-2</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -9469,31 +9467,31 @@
       </c>
       <c r="G39" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I39)</f>
-        <v>42853</v>
+        <v>42893</v>
       </c>
       <c r="H39" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I39,J39,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00411#0000</v>
+        <v>obj_00420#0003</v>
       </c>
       <c r="I39" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F39&amp;"M","mf")</f>
-        <v>42853</v>
+        <v>42893</v>
       </c>
       <c r="J39" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I39)</f>
-        <v>43220</v>
+        <v>43258</v>
       </c>
       <c r="L39" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H39,InterestRatesTrigger)</f>
-        <v>-1.232771396894905E-2</v>
+        <v>2.3000739071456312E-2</v>
       </c>
       <c r="M39" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I39)</f>
-        <v>3.2322323710983925E-2</v>
+        <v>5.294488075403554E-3</v>
       </c>
       <c r="N39" s="272">
         <f t="shared" si="0"/>
-        <v>1.9994609742034875E-2</v>
+        <v>2.8295227146859867E-2</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -9509,31 +9507,31 @@
       </c>
       <c r="G40" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I40)</f>
-        <v>42885</v>
+        <v>42923</v>
       </c>
       <c r="H40" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I40,J40,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0041e#0000</v>
+        <v>obj_00411#0003</v>
       </c>
       <c r="I40" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F40&amp;"M","mf")</f>
-        <v>42885</v>
+        <v>42923</v>
       </c>
       <c r="J40" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I40)</f>
-        <v>43250</v>
+        <v>43290</v>
       </c>
       <c r="L40" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H40,InterestRatesTrigger)</f>
-        <v>-1.439005267971565E-2</v>
+        <v>2.3178332732233384E-2</v>
       </c>
       <c r="M40" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I40)</f>
-        <v>3.8919415298513844E-2</v>
+        <v>5.3692495610815705E-3</v>
       </c>
       <c r="N40" s="272">
         <f t="shared" si="0"/>
-        <v>2.4529362618798192E-2</v>
+        <v>2.8547582293314954E-2</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -9549,31 +9547,31 @@
       </c>
       <c r="G41" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I41)</f>
-        <v>42947</v>
+        <v>42985</v>
       </c>
       <c r="H41" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I41,J41,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00413#0000</v>
+        <v>obj_0042c#0003</v>
       </c>
       <c r="I41" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F41&amp;"M","mf")</f>
-        <v>42947</v>
+        <v>42985</v>
       </c>
       <c r="J41" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I41)</f>
-        <v>43312</v>
+        <v>43350</v>
       </c>
       <c r="L41" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H41,InterestRatesTrigger)</f>
-        <v>-1.5701387425139521E-2</v>
+        <v>2.3486443693142543E-2</v>
       </c>
       <c r="M41" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I41)</f>
-        <v>4.8540861736322501E-2</v>
+        <v>5.5122756977686394E-3</v>
       </c>
       <c r="N41" s="272">
         <f t="shared" si="0"/>
-        <v>3.2839474311182976E-2</v>
+        <v>2.8998719390911181E-2</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -9589,31 +9587,31 @@
       </c>
       <c r="G42" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I42)</f>
-        <v>42977</v>
+        <v>43017</v>
       </c>
       <c r="H42" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I42,J42,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0040e#0000</v>
+        <v>obj_0040f#0003</v>
       </c>
       <c r="I42" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F42&amp;"M","mf")</f>
-        <v>42977</v>
+        <v>43017</v>
       </c>
       <c r="J42" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I42)</f>
-        <v>43342</v>
+        <v>43382</v>
       </c>
       <c r="L42" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H42,InterestRatesTrigger)</f>
-        <v>-1.5031632616292647E-2</v>
+        <v>2.3629733961435043E-2</v>
       </c>
       <c r="M42" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I42)</f>
-        <v>5.0766802097244969E-2</v>
+        <v>5.576755297996977E-3</v>
       </c>
       <c r="N42" s="272">
         <f t="shared" si="0"/>
-        <v>3.5735169480952324E-2</v>
+        <v>2.920648925943202E-2</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -9629,31 +9627,31 @@
       </c>
       <c r="G43" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I43)</f>
-        <v>43007</v>
+        <v>43046</v>
       </c>
       <c r="H43" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I43,J43,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00431#0000</v>
+        <v>obj_00424#0003</v>
       </c>
       <c r="I43" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F43&amp;"M","mf")</f>
-        <v>43007</v>
+        <v>43046</v>
       </c>
       <c r="J43" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I43)</f>
-        <v>43371</v>
+        <v>43411</v>
       </c>
       <c r="L43" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H43,InterestRatesTrigger)</f>
-        <v>-1.3713504303376796E-2</v>
+        <v>2.3749622012054994E-2</v>
       </c>
       <c r="M43" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I43)</f>
-        <v>5.1274891619608721E-2</v>
+        <v>5.6298779196543667E-3</v>
       </c>
       <c r="N43" s="272">
         <f t="shared" si="0"/>
-        <v>3.7561387316231924E-2</v>
+        <v>2.9379499931709359E-2</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -9669,31 +9667,31 @@
       </c>
       <c r="G44" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I44)</f>
-        <v>43038</v>
+        <v>43076</v>
       </c>
       <c r="H44" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I44,J44,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00423#0000</v>
+        <v>obj_0042e#0003</v>
       </c>
       <c r="I44" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F44&amp;"M","mf")</f>
-        <v>43038</v>
+        <v>43076</v>
       </c>
       <c r="J44" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I44)</f>
-        <v>43403</v>
+        <v>43441</v>
       </c>
       <c r="L44" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H44,InterestRatesTrigger)</f>
-        <v>-1.1635146652406749E-2</v>
+        <v>2.3864510235584516E-2</v>
       </c>
       <c r="M44" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I44)</f>
-        <v>5.0124927948337693E-2</v>
+        <v>5.6799481284429895E-3</v>
       </c>
       <c r="N44" s="272">
         <f t="shared" si="0"/>
-        <v>3.8489781295930947E-2</v>
+        <v>2.9544458364027505E-2</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -9709,31 +9707,31 @@
       </c>
       <c r="G45" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I45)</f>
-        <v>43069</v>
+        <v>43108</v>
       </c>
       <c r="H45" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I45,J45,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00419#0000</v>
+        <v>obj_00421#0003</v>
       </c>
       <c r="I45" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F45&amp;"M","mf")</f>
-        <v>43069</v>
+        <v>43108</v>
       </c>
       <c r="J45" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I45)</f>
-        <v>43434</v>
+        <v>43473</v>
       </c>
       <c r="L45" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H45,InterestRatesTrigger)</f>
-        <v>-9.1197205289479596E-3</v>
+        <v>2.3977762315284742E-2</v>
       </c>
       <c r="M45" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I45)</f>
-        <v>4.7564714444609538E-2</v>
+        <v>5.7284050039600395E-3</v>
       </c>
       <c r="N45" s="272">
         <f t="shared" si="0"/>
-        <v>3.8444993915661578E-2</v>
+        <v>2.9706167319244782E-2</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -9749,31 +9747,31 @@
       </c>
       <c r="G46" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I46)</f>
-        <v>43098</v>
+        <v>43138</v>
       </c>
       <c r="H46" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I46,J46,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00420#0000</v>
+        <v>obj_0041c#0003</v>
       </c>
       <c r="I46" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F46&amp;"M","mf")</f>
-        <v>43098</v>
+        <v>43138</v>
       </c>
       <c r="J46" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I46)</f>
-        <v>43465</v>
+        <v>43503</v>
       </c>
       <c r="L46" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H46,InterestRatesTrigger)</f>
-        <v>-6.3298476792075613E-3</v>
+        <v>2.4076116009763573E-2</v>
       </c>
       <c r="M46" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I46)</f>
-        <v>4.4233998436429431E-2</v>
+        <v>5.7697204820578388E-3</v>
       </c>
       <c r="N46" s="272">
         <f t="shared" si="0"/>
-        <v>3.7904150757221866E-2</v>
+        <v>2.9845836491821411E-2</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -9789,31 +9787,31 @@
       </c>
       <c r="G47" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I47)</f>
-        <v>43130</v>
+        <v>43166</v>
       </c>
       <c r="H47" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I47,J47,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00405#0000</v>
+        <v>obj_00406#0003</v>
       </c>
       <c r="I47" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F47&amp;"M","mf")</f>
-        <v>43130</v>
+        <v>43166</v>
       </c>
       <c r="J47" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I47)</f>
-        <v>43495</v>
+        <v>43531</v>
       </c>
       <c r="L47" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H47,InterestRatesTrigger)</f>
-        <v>-3.2509749854240061E-3</v>
+        <v>2.4161849186313714E-2</v>
       </c>
       <c r="M47" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I47)</f>
-        <v>3.9916585814958327E-2</v>
+        <v>5.8051667293497599E-3</v>
       </c>
       <c r="N47" s="272">
         <f t="shared" si="0"/>
-        <v>3.6665610829534324E-2</v>
+        <v>2.9967015915663475E-2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -9829,31 +9827,31 @@
       </c>
       <c r="G48" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I48)</f>
-        <v>43159</v>
+        <v>43199</v>
       </c>
       <c r="H48" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I48,J48,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0041f#0000</v>
+        <v>obj_00416#0003</v>
       </c>
       <c r="I48" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F48&amp;"M","mf")</f>
-        <v>43159</v>
+        <v>43199</v>
       </c>
       <c r="J48" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I48)</f>
-        <v>43524</v>
+        <v>43564</v>
       </c>
       <c r="L48" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H48,InterestRatesTrigger)</f>
-        <v>-2.6968447949730548E-4</v>
+        <v>2.425633424592781E-2</v>
       </c>
       <c r="M48" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I48)</f>
-        <v>3.5753075085204034E-2</v>
+        <v>5.8437052468066682E-3</v>
       </c>
       <c r="N48" s="272">
         <f t="shared" si="0"/>
-        <v>3.5483390605706731E-2</v>
+        <v>3.010003949273448E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -9869,31 +9867,31 @@
       </c>
       <c r="G49" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I49)</f>
-        <v>43188</v>
+        <v>43228</v>
       </c>
       <c r="H49" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I49,J49,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0042e#0000</v>
+        <v>obj_00413#0003</v>
       </c>
       <c r="I49" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F49&amp;"M","mf")</f>
-        <v>43188</v>
+        <v>43228</v>
       </c>
       <c r="J49" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I49)</f>
-        <v>43553</v>
+        <v>43593</v>
       </c>
       <c r="L49" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H49,InterestRatesTrigger)</f>
-        <v>2.6829789952797539E-3</v>
+        <v>2.4334356397596318E-2</v>
       </c>
       <c r="M49" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I49)</f>
-        <v>3.160974574242887E-2</v>
+        <v>5.875251511063247E-3</v>
       </c>
       <c r="N49" s="272">
         <f t="shared" si="0"/>
-        <v>3.4292724737708627E-2</v>
+        <v>3.0209607908659564E-2</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -9909,31 +9907,31 @@
       </c>
       <c r="G50" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I50)</f>
-        <v>43220</v>
+        <v>43258</v>
       </c>
       <c r="H50" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I50,J50,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00414#0000</v>
+        <v>obj_00432#0003</v>
       </c>
       <c r="I50" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F50&amp;"M","mf")</f>
-        <v>43220</v>
+        <v>43258</v>
       </c>
       <c r="J50" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I50)</f>
-        <v>43585</v>
+        <v>43623</v>
       </c>
       <c r="L50" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H50,InterestRatesTrigger)</f>
-        <v>5.7725099388584731E-3</v>
+        <v>2.4410989562543457E-2</v>
       </c>
       <c r="M50" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I50)</f>
-        <v>2.7281078698372003E-2</v>
+        <v>5.9061924638739716E-3</v>
       </c>
       <c r="N50" s="272">
         <f t="shared" si="0"/>
-        <v>3.3053588637230479E-2</v>
+        <v>3.0317182026417429E-2</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -9949,31 +9947,31 @@
       </c>
       <c r="G51" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I51)</f>
-        <v>43250</v>
+        <v>43290</v>
       </c>
       <c r="H51" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I51,J51,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00406#0000</v>
+        <v>obj_00407#0003</v>
       </c>
       <c r="I51" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F51&amp;"M","mf")</f>
-        <v>43250</v>
+        <v>43290</v>
       </c>
       <c r="J51" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I51)</f>
-        <v>43615</v>
+        <v>43655</v>
       </c>
       <c r="L51" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H51,InterestRatesTrigger)</f>
-        <v>8.3764346397978973E-3</v>
+        <v>2.4489104803209077E-2</v>
       </c>
       <c r="M51" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I51)</f>
-        <v>2.3592047726338997E-2</v>
+        <v>5.9379717474252131E-3</v>
       </c>
       <c r="N51" s="272">
         <f t="shared" si="0"/>
-        <v>3.1968482366136891E-2</v>
+        <v>3.0427076550634289E-2</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -10712,7 +10710,7 @@
       <c r="N1" s="143"/>
       <c r="O1" s="139">
         <f>_xll.ohTrigger(O3:O84)</f>
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="P1" s="145"/>
     </row>
@@ -10761,7 +10759,7 @@
       </c>
       <c r="D3" s="161" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBPSND_SYNTH1M_Quote#0000</v>
+        <v>GBPSND_SYNTH1M_Quote#0003</v>
       </c>
       <c r="E3" s="172" t="str">
         <f>_xll.ohRangeRetrieveError($D3)</f>
@@ -10775,16 +10773,16 @@
       </c>
       <c r="J3" s="162">
         <f>SynthDepo!G34</f>
-        <v>5.0228554481597226E-3</v>
+        <v>5.3942858082957979E-3</v>
       </c>
       <c r="K3" s="163"/>
       <c r="L3" s="164">
-        <v>4.9130976385395788E-3</v>
+        <v>5.3942858082957979E-3</v>
       </c>
       <c r="M3" s="154"/>
       <c r="N3" s="221">
         <f t="array" ref="N3:N84">QuoteLive</f>
-        <v>5.0228554481597226E-3</v>
+        <v>5.3942858082957979E-3</v>
       </c>
       <c r="O3" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND(N3,6),EvaluationDate)</f>
@@ -10806,7 +10804,7 @@
       </c>
       <c r="D4" s="171" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBPSWD_SYNTH1M_Quote#0000</v>
+        <v>GBPSWD_SYNTH1M_Quote#0003</v>
       </c>
       <c r="E4" s="172" t="str">
         <f>_xll.ohRangeRetrieveError($D4)</f>
@@ -10820,15 +10818,15 @@
       </c>
       <c r="J4" s="162">
         <f>SynthDepo!G35</f>
-        <v>4.9956824978872145E-3</v>
+        <v>4.9875150559665479E-3</v>
       </c>
       <c r="K4" s="163"/>
       <c r="L4" s="164">
-        <v>4.9233981743148506E-3</v>
+        <v>4.9875150559665479E-3</v>
       </c>
       <c r="M4" s="154"/>
       <c r="N4" s="165">
-        <v>4.9956824978872145E-3</v>
+        <v>4.9875150559665479E-3</v>
       </c>
       <c r="O4" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND(N4,6),EvaluationDate)</f>
@@ -10847,7 +10845,7 @@
       </c>
       <c r="D5" s="171" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP2WD_SYNTH1M_Quote#0000</v>
+        <v>GBP2WD_SYNTH1M_Quote#0003</v>
       </c>
       <c r="E5" s="172" t="str">
         <f>_xll.ohRangeRetrieveError($D5)</f>
@@ -10861,15 +10859,15 @@
       </c>
       <c r="J5" s="162">
         <f>SynthDepo!G36</f>
-        <v>4.9770394140384137E-3</v>
+        <v>4.9876067378318949E-3</v>
       </c>
       <c r="K5" s="163"/>
       <c r="L5" s="164">
-        <v>4.9289783450644714E-3</v>
+        <v>4.9876067378318949E-3</v>
       </c>
       <c r="M5" s="154"/>
       <c r="N5" s="165">
-        <v>4.9770394140384137E-3</v>
+        <v>4.9876067378318949E-3</v>
       </c>
       <c r="O5" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND(N5,6),EvaluationDate)</f>
@@ -10888,7 +10886,7 @@
       </c>
       <c r="D6" s="171" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP3WD_SYNTH1M_Quote#0000</v>
+        <v>GBP3WD_SYNTH1M_Quote#0003</v>
       </c>
       <c r="E6" s="172" t="str">
         <f>_xll.ohRangeRetrieveError($D6)</f>
@@ -10902,15 +10900,15 @@
       </c>
       <c r="J6" s="162">
         <f>SynthDepo!G37</f>
-        <v>4.9278711232826865E-3</v>
+        <v>4.9962765980591682E-3</v>
       </c>
       <c r="K6" s="163"/>
       <c r="L6" s="174">
-        <v>4.9221427692346768E-3</v>
+        <v>4.9962765980591682E-3</v>
       </c>
       <c r="M6" s="154"/>
       <c r="N6" s="175">
-        <v>4.9278711232826865E-3</v>
+        <v>4.9962765980591682E-3</v>
       </c>
       <c r="O6" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND(N6,6),EvaluationDate)</f>
@@ -10929,7 +10927,7 @@
       </c>
       <c r="D7" s="178" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP1MD_SYNTH1M_Quote#0000</v>
+        <v>GBP1MD_SYNTH1M_Quote#0003</v>
       </c>
       <c r="E7" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D7)</f>
@@ -10943,15 +10941,15 @@
       </c>
       <c r="J7" s="209">
         <f>SynthDepo!G38</f>
-        <v>4.8542682456263709E-3</v>
+        <v>5.0125000000000005E-3</v>
       </c>
       <c r="K7" s="163"/>
       <c r="L7" s="164">
-        <v>4.931984807440502E-3</v>
+        <v>5.0125000000000005E-3</v>
       </c>
       <c r="M7" s="154"/>
       <c r="N7" s="165">
-        <v>4.8542682456263709E-3</v>
+        <v>5.0125000000000005E-3</v>
       </c>
       <c r="O7" s="215">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND(N7,6),EvaluationDate)</f>
@@ -10972,7 +10970,7 @@
       </c>
       <c r="D8" s="195" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBPSND_SYNTH3M_Quote#0000</v>
+        <v>GBPSND_SYNTH3M_Quote#0003</v>
       </c>
       <c r="E8" s="213" t="str">
         <f>_xll.ohRangeRetrieveError($D8)</f>
@@ -10986,15 +10984,15 @@
       </c>
       <c r="J8" s="162">
         <f>SynthDepo!H34</f>
-        <v>4.8053848053017378E-3</v>
+        <v>5.9569215421239148E-3</v>
       </c>
       <c r="K8" s="186"/>
       <c r="L8" s="187">
-        <v>4.4808281284740847E-3</v>
+        <v>5.9569215421239148E-3</v>
       </c>
       <c r="M8" s="188"/>
       <c r="N8" s="189">
-        <v>4.8053848053017378E-3</v>
+        <v>5.9569215421239148E-3</v>
       </c>
       <c r="O8" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND(N8,6),EvaluationDate)</f>
@@ -11015,7 +11013,7 @@
       </c>
       <c r="D9" s="195" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBPSWD_SYNTH3M_Quote#0000</v>
+        <v>GBPSWD_SYNTH3M_Quote#0003</v>
       </c>
       <c r="E9" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D9)</f>
@@ -11029,15 +11027,15 @@
       </c>
       <c r="J9" s="162">
         <f>SynthDepo!H35</f>
-        <v>4.8708363807518631E-3</v>
+        <v>5.5465634598507764E-3</v>
       </c>
       <c r="K9" s="186"/>
       <c r="L9" s="164">
-        <v>4.533023267438375E-3</v>
+        <v>5.5465634598507764E-3</v>
       </c>
       <c r="M9" s="188"/>
       <c r="N9" s="165">
-        <v>4.8708363807518631E-3</v>
+        <v>5.5465634598507764E-3</v>
       </c>
       <c r="O9" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND(N9,6),EvaluationDate)</f>
@@ -11056,7 +11054,7 @@
       </c>
       <c r="D10" s="195" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP2WD_SYNTH3M_Quote#0000</v>
+        <v>GBP2WD_SYNTH3M_Quote#0003</v>
       </c>
       <c r="E10" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D10)</f>
@@ -11070,15 +11068,15 @@
       </c>
       <c r="J10" s="162">
         <f>SynthDepo!H36</f>
-        <v>4.9573732930129726E-3</v>
+        <v>5.5418292310168262E-3</v>
       </c>
       <c r="K10" s="186"/>
       <c r="L10" s="164">
-        <v>4.608402431546723E-3</v>
+        <v>5.5418292310168262E-3</v>
       </c>
       <c r="M10" s="188"/>
       <c r="N10" s="165">
-        <v>4.9573732930129726E-3</v>
+        <v>5.5418292310168262E-3</v>
       </c>
       <c r="O10" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND(N10,6),EvaluationDate)</f>
@@ -11097,7 +11095,7 @@
       </c>
       <c r="D11" s="195" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP3WD_SYNTH3M_Quote#0000</v>
+        <v>GBP3WD_SYNTH3M_Quote#0003</v>
       </c>
       <c r="E11" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D11)</f>
@@ -11111,15 +11109,15 @@
       </c>
       <c r="J11" s="162">
         <f>SynthDepo!H37</f>
-        <v>5.0102813592955474E-3</v>
+        <v>5.5449832040801918E-3</v>
       </c>
       <c r="K11" s="186"/>
       <c r="L11" s="174">
-        <v>4.6668902244294029E-3</v>
+        <v>5.5449832040801918E-3</v>
       </c>
       <c r="M11" s="188"/>
       <c r="N11" s="175">
-        <v>5.0102813592955474E-3</v>
+        <v>5.5449832040801918E-3</v>
       </c>
       <c r="O11" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND(N11,6),EvaluationDate)</f>
@@ -11138,7 +11136,7 @@
       </c>
       <c r="D12" s="195" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP1MD_SYNTH3M_Quote#0000</v>
+        <v>GBP1MD_SYNTH3M_Quote#0003</v>
       </c>
       <c r="E12" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D12)</f>
@@ -11152,15 +11150,15 @@
       </c>
       <c r="J12" s="214">
         <f>SynthDepo!H38</f>
-        <v>5.0771179851411552E-3</v>
+        <v>5.5511447492533192E-3</v>
       </c>
       <c r="K12" s="186"/>
       <c r="L12" s="164">
-        <v>4.7622875221238342E-3</v>
+        <v>5.5511447492533192E-3</v>
       </c>
       <c r="M12" s="188"/>
       <c r="N12" s="165">
-        <v>5.0771179851411552E-3</v>
+        <v>5.5511447492533192E-3</v>
       </c>
       <c r="O12" s="216">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND(N12,6),EvaluationDate)</f>
@@ -11179,7 +11177,7 @@
       </c>
       <c r="D13" s="195" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP2MD_SYNTH3M_Quote#0000</v>
+        <v>GBP2MD_SYNTH3M_Quote#0003</v>
       </c>
       <c r="E13" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D13)</f>
@@ -11193,15 +11191,15 @@
       </c>
       <c r="J13" s="162">
         <f>SynthDepo!H39</f>
-        <v>5.3167395557534494E-3</v>
+        <v>5.5661458169347488E-3</v>
       </c>
       <c r="K13" s="186"/>
       <c r="L13" s="164">
-        <v>4.9685175284728917E-3</v>
+        <v>5.5661458169347488E-3</v>
       </c>
       <c r="M13" s="188"/>
       <c r="N13" s="165">
-        <v>5.3167395557534494E-3</v>
+        <v>5.5661458169347488E-3</v>
       </c>
       <c r="O13" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND(N13,6),EvaluationDate)</f>
@@ -11220,7 +11218,7 @@
       </c>
       <c r="D14" s="195" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP3MD_SYNTH3M_Quote#0000</v>
+        <v>GBP3MD_SYNTH3M_Quote#0003</v>
       </c>
       <c r="E14" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D14)</f>
@@ -11234,15 +11232,15 @@
       </c>
       <c r="J14" s="179">
         <f>SynthDepo!H40</f>
-        <v>5.5337845626452376E-3</v>
+        <v>5.6150000000000011E-3</v>
       </c>
       <c r="K14" s="186"/>
       <c r="L14" s="180">
-        <v>5.1176547868636265E-3</v>
+        <v>5.6150000000000011E-3</v>
       </c>
       <c r="M14" s="188"/>
       <c r="N14" s="181">
-        <v>5.5337845626452376E-3</v>
+        <v>5.6150000000000011E-3</v>
       </c>
       <c r="O14" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND(N14,6),EvaluationDate)</f>
@@ -11263,7 +11261,7 @@
       </c>
       <c r="D15" s="210" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBPSND_SYNTH6M_Quote#0000</v>
+        <v>GBPSND_SYNTH6M_Quote#0003</v>
       </c>
       <c r="E15" s="213" t="str">
         <f>_xll.ohRangeRetrieveError($D15)</f>
@@ -11277,15 +11275,15 @@
       </c>
       <c r="J15" s="185">
         <f>SynthDepo!I34</f>
-        <v>5.9699081863252004E-3</v>
+        <v>7.3502766638147855E-3</v>
       </c>
       <c r="K15" s="186"/>
       <c r="L15" s="187">
-        <v>5.7277972063652996E-3</v>
+        <v>7.3502766638147855E-3</v>
       </c>
       <c r="M15" s="188"/>
       <c r="N15" s="189">
-        <v>5.9699081863252004E-3</v>
+        <v>7.3502766638147855E-3</v>
       </c>
       <c r="O15" s="190">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND(N15,6),EvaluationDate)</f>
@@ -11306,7 +11304,7 @@
       </c>
       <c r="D16" s="195" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBPSWD_SYNTH6M_Quote#0000</v>
+        <v>GBPSWD_SYNTH6M_Quote#0003</v>
       </c>
       <c r="E16" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D16)</f>
@@ -11320,15 +11318,15 @@
       </c>
       <c r="J16" s="162">
         <f>SynthDepo!I35</f>
-        <v>5.9959254689422531E-3</v>
+        <v>6.8910033181453171E-3</v>
       </c>
       <c r="K16" s="186"/>
       <c r="L16" s="164">
-        <v>5.7402968787803599E-3</v>
+        <v>6.8910033181453171E-3</v>
       </c>
       <c r="M16" s="188"/>
       <c r="N16" s="165">
-        <v>5.9959254689422531E-3</v>
+        <v>6.8910033181453171E-3</v>
       </c>
       <c r="O16" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND(N16,6),EvaluationDate)</f>
@@ -11347,7 +11345,7 @@
       </c>
       <c r="D17" s="195" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP2WD_SYNTH6M_Quote#0000</v>
+        <v>GBP2WD_SYNTH6M_Quote#0003</v>
       </c>
       <c r="E17" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D17)</f>
@@ -11361,15 +11359,15 @@
       </c>
       <c r="J17" s="162">
         <f>SynthDepo!I36</f>
-        <v>6.0393403956194702E-3</v>
+        <v>6.8323524913735233E-3</v>
       </c>
       <c r="K17" s="186"/>
       <c r="L17" s="164">
-        <v>5.7496117586981355E-3</v>
+        <v>6.8323524913735233E-3</v>
       </c>
       <c r="M17" s="188"/>
       <c r="N17" s="165">
-        <v>6.0393403956194702E-3</v>
+        <v>6.8323524913735233E-3</v>
       </c>
       <c r="O17" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND(N17,6),EvaluationDate)</f>
@@ -11388,7 +11386,7 @@
       </c>
       <c r="D18" s="195" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP3WD_SYNTH6M_Quote#0000</v>
+        <v>GBP3WD_SYNTH6M_Quote#0003</v>
       </c>
       <c r="E18" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D18)</f>
@@ -11402,15 +11400,15 @@
       </c>
       <c r="J18" s="162">
         <f>SynthDepo!I37</f>
-        <v>6.0522330648898719E-3</v>
+        <v>6.7849834765767569E-3</v>
       </c>
       <c r="K18" s="186"/>
       <c r="L18" s="164">
-        <v>5.746366081189164E-3</v>
+        <v>6.7849834765767569E-3</v>
       </c>
       <c r="M18" s="188"/>
       <c r="N18" s="165">
-        <v>6.0522330648898719E-3</v>
+        <v>6.7849834765767569E-3</v>
       </c>
       <c r="O18" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND(N18,6),EvaluationDate)</f>
@@ -11429,7 +11427,7 @@
       </c>
       <c r="D19" s="195" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP1MD_SYNTH6M_Quote#0000</v>
+        <v>GBP1MD_SYNTH6M_Quote#0003</v>
       </c>
       <c r="E19" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D19)</f>
@@ -11443,15 +11441,15 @@
       </c>
       <c r="J19" s="162">
         <f>SynthDepo!I38</f>
-        <v>6.0672938180363796E-3</v>
+        <v>6.7186082326164773E-3</v>
       </c>
       <c r="K19" s="186"/>
       <c r="L19" s="164">
-        <v>5.7610853430773209E-3</v>
+        <v>6.7186082326164773E-3</v>
       </c>
       <c r="M19" s="188"/>
       <c r="N19" s="165">
-        <v>6.0672938180363796E-3</v>
+        <v>6.7186082326164773E-3</v>
       </c>
       <c r="O19" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND(N19,6),EvaluationDate)</f>
@@ -11470,7 +11468,7 @@
       </c>
       <c r="D20" s="195" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP2MD_SYNTH6M_Quote#0000</v>
+        <v>GBP2MD_SYNTH6M_Quote#0003</v>
       </c>
       <c r="E20" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D20)</f>
@@ -11484,15 +11482,15 @@
       </c>
       <c r="J20" s="162">
         <f>SynthDepo!I39</f>
-        <v>6.1926179259295944E-3</v>
+        <v>6.582545209272349E-3</v>
       </c>
       <c r="K20" s="186"/>
       <c r="L20" s="164">
-        <v>5.7733814418802756E-3</v>
+        <v>6.582545209272349E-3</v>
       </c>
       <c r="M20" s="188"/>
       <c r="N20" s="165">
-        <v>6.1926179259295944E-3</v>
+        <v>6.582545209272349E-3</v>
       </c>
       <c r="O20" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND(N20,6),EvaluationDate)</f>
@@ -11511,7 +11509,7 @@
       </c>
       <c r="D21" s="195" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP3MD_SYNTH6M_Quote#0000</v>
+        <v>GBP3MD_SYNTH6M_Quote#0003</v>
       </c>
       <c r="E21" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D21)</f>
@@ -11525,15 +11523,15 @@
       </c>
       <c r="J21" s="162">
         <f>SynthDepo!I40</f>
-        <v>6.3454197670159184E-3</v>
+        <v>6.5343264222658438E-3</v>
       </c>
       <c r="K21" s="186"/>
       <c r="L21" s="164">
-        <v>5.8114198869440668E-3</v>
+        <v>6.5343264222658438E-3</v>
       </c>
       <c r="M21" s="188"/>
       <c r="N21" s="165">
-        <v>6.3454197670159184E-3</v>
+        <v>6.5343264222658438E-3</v>
       </c>
       <c r="O21" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND(N21,6),EvaluationDate)</f>
@@ -11552,7 +11550,7 @@
       </c>
       <c r="D22" s="195" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP4MD_SYNTH6M_Quote#0000</v>
+        <v>GBP4MD_SYNTH6M_Quote#0003</v>
       </c>
       <c r="E22" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D22)</f>
@@ -11566,15 +11564,15 @@
       </c>
       <c r="J22" s="162">
         <f>SynthDepo!I41</f>
-        <v>6.4727005333327994E-3</v>
+        <v>6.7363922335185681E-3</v>
       </c>
       <c r="K22" s="186"/>
       <c r="L22" s="164">
-        <v>5.8387151355629857E-3</v>
+        <v>6.7363922335185681E-3</v>
       </c>
       <c r="M22" s="188"/>
       <c r="N22" s="165">
-        <v>6.4727005333327994E-3</v>
+        <v>6.7363922335185681E-3</v>
       </c>
       <c r="O22" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND(N22,6),EvaluationDate)</f>
@@ -11593,7 +11591,7 @@
       </c>
       <c r="D23" s="195" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP5MD_SYNTH6M_Quote#0000</v>
+        <v>GBP5MD_SYNTH6M_Quote#0003</v>
       </c>
       <c r="E23" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D23)</f>
@@ -11607,15 +11605,15 @@
       </c>
       <c r="J23" s="162">
         <f>SynthDepo!I42</f>
-        <v>6.7328748166027522E-3</v>
+        <v>6.9056694943264102E-3</v>
       </c>
       <c r="K23" s="186"/>
       <c r="L23" s="164">
-        <v>5.8709770939639879E-3</v>
+        <v>6.9056694943264102E-3</v>
       </c>
       <c r="M23" s="188"/>
       <c r="N23" s="165">
-        <v>6.7328748166027522E-3</v>
+        <v>6.9056694943264102E-3</v>
       </c>
       <c r="O23" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND(N23,6),EvaluationDate)</f>
@@ -11634,7 +11632,7 @@
       </c>
       <c r="D24" s="178" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP6MD_SYNTH6M_Quote#0000</v>
+        <v>GBP6MD_SYNTH6M_Quote#0003</v>
       </c>
       <c r="E24" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D24)</f>
@@ -11648,15 +11646,15 @@
       </c>
       <c r="J24" s="179">
         <f>SynthDepo!I43</f>
-        <v>7.0223971671037307E-3</v>
+        <v>7.1405999999999883E-3</v>
       </c>
       <c r="K24" s="186"/>
       <c r="L24" s="180">
-        <v>5.9285663793761569E-3</v>
+        <v>7.1405999999999883E-3</v>
       </c>
       <c r="M24" s="188"/>
       <c r="N24" s="181">
-        <v>7.0223971671037307E-3</v>
+        <v>7.1405999999999883E-3</v>
       </c>
       <c r="O24" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND(N24,6),EvaluationDate)</f>
@@ -11677,7 +11675,7 @@
       </c>
       <c r="D25" s="210" t="str">
         <f>_xll.qlSimpleQuote(C25,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBPSND_SYNTH1Y_Quote#0000</v>
+        <v>GBPSND_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E25" s="213" t="str">
         <f>_xll.ohRangeRetrieveError($D25)</f>
@@ -11691,19 +11689,19 @@
       </c>
       <c r="J25" s="185">
         <f>SynthDepo!J34</f>
-        <v>7.0402195287919776E-3</v>
+        <v>7.8791171332990018E-3</v>
       </c>
       <c r="K25" s="186"/>
       <c r="L25" s="187">
-        <v>7.9104124366847495E-3</v>
+        <v>7.8791171332990018E-3</v>
       </c>
       <c r="M25" s="188"/>
       <c r="N25" s="189">
-        <v>7.0402195287919776E-3</v>
+        <v>7.8791171332990018E-3</v>
       </c>
       <c r="O25" s="190">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND(N25,6),EvaluationDate)</f>
-        <v>-1.1999999999999858E-5</v>
+        <v>0</v>
       </c>
       <c r="P25" s="199"/>
     </row>
@@ -11720,7 +11718,7 @@
       </c>
       <c r="D26" s="195" t="str">
         <f>_xll.qlSimpleQuote(C26,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBPSWD_SYNTH1Y_Quote#0000</v>
+        <v>GBPSWD_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E26" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D26)</f>
@@ -11734,19 +11732,19 @@
       </c>
       <c r="J26" s="162">
         <f>SynthDepo!J35</f>
-        <v>7.0740476506237701E-3</v>
+        <v>7.4828526728301301E-3</v>
       </c>
       <c r="K26" s="186"/>
       <c r="L26" s="164">
-        <v>7.5096375571243219E-3</v>
+        <v>7.4828526728301301E-3</v>
       </c>
       <c r="M26" s="188"/>
       <c r="N26" s="165">
-        <v>7.0740476506237701E-3</v>
+        <v>7.4828526728301301E-3</v>
       </c>
       <c r="O26" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND(N26,6),EvaluationDate)</f>
-        <v>-1.1999999999999858E-5</v>
+        <v>0</v>
       </c>
       <c r="P26" s="201"/>
     </row>
@@ -11761,7 +11759,7 @@
       </c>
       <c r="D27" s="195" t="str">
         <f>_xll.qlSimpleQuote(C27,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP2WD_SYNTH1Y_Quote#0000</v>
+        <v>GBP2WD_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E27" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D27)</f>
@@ -11775,19 +11773,19 @@
       </c>
       <c r="J27" s="162">
         <f>SynthDepo!J36</f>
-        <v>7.1265724842299889E-3</v>
+        <v>7.4952016951992505E-3</v>
       </c>
       <c r="K27" s="186"/>
       <c r="L27" s="164">
-        <v>7.5202677925424134E-3</v>
+        <v>7.4952016951992505E-3</v>
       </c>
       <c r="M27" s="188"/>
       <c r="N27" s="165">
-        <v>7.1265724842299889E-3</v>
+        <v>7.4952016951992505E-3</v>
       </c>
       <c r="O27" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND(N27,6),EvaluationDate)</f>
-        <v>-1.1000000000000593E-5</v>
+        <v>0</v>
       </c>
       <c r="P27" s="201"/>
     </row>
@@ -11802,7 +11800,7 @@
       </c>
       <c r="D28" s="195" t="str">
         <f>_xll.qlSimpleQuote(C28,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP3WD_SYNTH1Y_Quote#0000</v>
+        <v>GBP3WD_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E28" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D28)</f>
@@ -11816,19 +11814,19 @@
       </c>
       <c r="J28" s="162">
         <f>SynthDepo!J37</f>
-        <v>7.1485721109292803E-3</v>
+        <v>7.5161288959302974E-3</v>
       </c>
       <c r="K28" s="186"/>
       <c r="L28" s="164">
-        <v>7.5402287300115091E-3</v>
+        <v>7.5161288959302974E-3</v>
       </c>
       <c r="M28" s="188"/>
       <c r="N28" s="165">
-        <v>7.1485721109292803E-3</v>
+        <v>7.5161288959302974E-3</v>
       </c>
       <c r="O28" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND(N28,6),EvaluationDate)</f>
-        <v>-1.0999999999999725E-5</v>
+        <v>0</v>
       </c>
       <c r="P28" s="201"/>
     </row>
@@ -11843,7 +11841,7 @@
       </c>
       <c r="D29" s="195" t="str">
         <f>_xll.qlSimpleQuote(C29,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP1MD_SYNTH1Y_Quote#0000</v>
+        <v>GBP1MD_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E29" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D29)</f>
@@ -11857,19 +11855,19 @@
       </c>
       <c r="J29" s="162">
         <f>SynthDepo!J38</f>
-        <v>7.1766376867801332E-3</v>
+        <v>7.5516138329484893E-3</v>
       </c>
       <c r="K29" s="186"/>
       <c r="L29" s="174">
-        <v>7.546084083391782E-3</v>
+        <v>7.5516138329484893E-3</v>
       </c>
       <c r="M29" s="188"/>
       <c r="N29" s="175">
-        <v>7.1766376867801332E-3</v>
+        <v>7.5516138329484893E-3</v>
       </c>
       <c r="O29" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND(N29,6),EvaluationDate)</f>
-        <v>-1.0999999999999725E-5</v>
+        <v>0</v>
       </c>
       <c r="P29" s="201"/>
     </row>
@@ -11884,7 +11882,7 @@
       </c>
       <c r="D30" s="195" t="str">
         <f>_xll.qlSimpleQuote(C30,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP2MD_SYNTH1Y_Quote#0000</v>
+        <v>GBP2MD_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E30" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D30)</f>
@@ -11898,19 +11896,19 @@
       </c>
       <c r="J30" s="214">
         <f>SynthDepo!J39</f>
-        <v>7.339641740876925E-3</v>
+        <v>7.652089092941722E-3</v>
       </c>
       <c r="K30" s="186"/>
       <c r="L30" s="164">
-        <v>7.5916422562532747E-3</v>
+        <v>7.652089092941722E-3</v>
       </c>
       <c r="M30" s="188"/>
       <c r="N30" s="165">
-        <v>7.339641740876925E-3</v>
+        <v>7.652089092941722E-3</v>
       </c>
       <c r="O30" s="216">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND(N30,6),EvaluationDate)</f>
-        <v>-9.9999999999995925E-6</v>
+        <v>0</v>
       </c>
       <c r="P30" s="199"/>
     </row>
@@ -11925,7 +11923,7 @@
       </c>
       <c r="D31" s="195" t="str">
         <f>_xll.qlSimpleQuote(C31,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP3MD_SYNTH1Y_Quote#0000</v>
+        <v>GBP3MD_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E31" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D31)</f>
@@ -11939,19 +11937,19 @@
       </c>
       <c r="J31" s="162">
         <f>SynthDepo!J40</f>
-        <v>7.5339627044094786E-3</v>
+        <v>7.805407711877644E-3</v>
       </c>
       <c r="K31" s="186"/>
       <c r="L31" s="164">
-        <v>7.6664137801752529E-3</v>
+        <v>7.805407711877644E-3</v>
       </c>
       <c r="M31" s="188"/>
       <c r="N31" s="165">
-        <v>7.5339627044094786E-3</v>
+        <v>7.805407711877644E-3</v>
       </c>
       <c r="O31" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND(N31,6),EvaluationDate)</f>
-        <v>-9.0000000000003272E-6</v>
+        <v>0</v>
       </c>
       <c r="P31" s="201"/>
     </row>
@@ -11966,7 +11964,7 @@
       </c>
       <c r="D32" s="195" t="str">
         <f>_xll.qlSimpleQuote(C32,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP4MD_SYNTH1Y_Quote#0000</v>
+        <v>GBP4MD_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E32" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D32)</f>
@@ -11980,19 +11978,19 @@
       </c>
       <c r="J32" s="162">
         <f>SynthDepo!J41</f>
-        <v>7.7014063412725198E-3</v>
+        <v>8.1559866045383556E-3</v>
       </c>
       <c r="K32" s="186"/>
       <c r="L32" s="164">
-        <v>7.7720971824397512E-3</v>
+        <v>8.1559866045383556E-3</v>
       </c>
       <c r="M32" s="188"/>
       <c r="N32" s="165">
-        <v>7.7014063412725198E-3</v>
+        <v>8.1559866045383556E-3</v>
       </c>
       <c r="O32" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND(N32,6),EvaluationDate)</f>
-        <v>-7.9999999999993271E-6</v>
+        <v>0</v>
       </c>
       <c r="P32" s="201"/>
     </row>
@@ -12007,7 +12005,7 @@
       </c>
       <c r="D33" s="195" t="str">
         <f>_xll.qlSimpleQuote(C33,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP5MD_SYNTH1Y_Quote#0000</v>
+        <v>GBP5MD_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E33" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D33)</f>
@@ -12021,19 +12019,19 @@
       </c>
       <c r="J33" s="162">
         <f>SynthDepo!J42</f>
-        <v>7.9978070455362284E-3</v>
+        <v>8.4184999826827402E-3</v>
       </c>
       <c r="K33" s="186"/>
       <c r="L33" s="164">
-        <v>7.8669704235091731E-3</v>
+        <v>8.4184999826827402E-3</v>
       </c>
       <c r="M33" s="188"/>
       <c r="N33" s="165">
-        <v>7.9978070455362284E-3</v>
+        <v>8.4184999826827402E-3</v>
       </c>
       <c r="O33" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND(N33,6),EvaluationDate)</f>
-        <v>-7.0000000000000617E-6</v>
+        <v>0</v>
       </c>
       <c r="P33" s="201"/>
     </row>
@@ -12048,7 +12046,7 @@
       </c>
       <c r="D34" s="195" t="str">
         <f>_xll.qlSimpleQuote(C34,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP6MD_SYNTH1Y_Quote#0000</v>
+        <v>GBP6MD_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E34" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D34)</f>
@@ -12062,19 +12060,19 @@
       </c>
       <c r="J34" s="162">
         <f>SynthDepo!J43</f>
-        <v>8.3299642356398293E-3</v>
+        <v>8.6986345614914959E-3</v>
       </c>
       <c r="K34" s="186"/>
       <c r="L34" s="164">
-        <v>8.0018671774900463E-3</v>
+        <v>8.6986345614914959E-3</v>
       </c>
       <c r="M34" s="188"/>
       <c r="N34" s="165">
-        <v>8.3299642356398293E-3</v>
+        <v>8.6986345614914959E-3</v>
       </c>
       <c r="O34" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND(N34,6),EvaluationDate)</f>
-        <v>-5.9999999999990616E-6</v>
+        <v>0</v>
       </c>
       <c r="P34" s="201"/>
     </row>
@@ -12089,7 +12087,7 @@
       </c>
       <c r="D35" s="195" t="str">
         <f>_xll.qlSimpleQuote(C35,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP7MD_SYNTH1Y_Quote#0000</v>
+        <v>GBP7MD_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E35" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D35)</f>
@@ -12103,19 +12101,19 @@
       </c>
       <c r="J35" s="162">
         <f>SynthDepo!J44</f>
-        <v>8.6061469862943503E-3</v>
+        <v>9.0192634861052494E-3</v>
       </c>
       <c r="K35" s="186"/>
       <c r="L35" s="164">
-        <v>8.1938519497774497E-3</v>
+        <v>9.0192634861052494E-3</v>
       </c>
       <c r="M35" s="188"/>
       <c r="N35" s="165">
-        <v>8.6061469862943503E-3</v>
+        <v>9.0192634861052494E-3</v>
       </c>
       <c r="O35" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND(N35,6),EvaluationDate)</f>
-        <v>-4.9999999999997963E-6</v>
+        <v>0</v>
       </c>
       <c r="P35" s="201"/>
     </row>
@@ -12130,7 +12128,7 @@
       </c>
       <c r="D36" s="195" t="str">
         <f>_xll.qlSimpleQuote(C36,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP8MD_SYNTH1Y_Quote#0000</v>
+        <v>GBP8MD_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E36" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D36)</f>
@@ -12144,19 +12142,19 @@
       </c>
       <c r="J36" s="162">
         <f>SynthDepo!J45</f>
-        <v>8.9395339919276871E-3</v>
+        <v>9.3293277880189401E-3</v>
       </c>
       <c r="K36" s="186"/>
       <c r="L36" s="164">
-        <v>8.3888739336080674E-3</v>
+        <v>9.3293277880189401E-3</v>
       </c>
       <c r="M36" s="188"/>
       <c r="N36" s="165">
-        <v>8.9395339919276871E-3</v>
+        <v>9.3293277880189401E-3</v>
       </c>
       <c r="O36" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND(N36,6),EvaluationDate)</f>
-        <v>-4.0000000000005309E-6</v>
+        <v>0</v>
       </c>
       <c r="P36" s="201"/>
     </row>
@@ -12171,7 +12169,7 @@
       </c>
       <c r="D37" s="195" t="str">
         <f>_xll.qlSimpleQuote(C37,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP9MD_SYNTH1Y_Quote#0000</v>
+        <v>GBP9MD_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E37" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D37)</f>
@@ -12185,19 +12183,19 @@
       </c>
       <c r="J37" s="162">
         <f>SynthDepo!J46</f>
-        <v>9.3187864602055359E-3</v>
+        <v>9.6288274673649674E-3</v>
       </c>
       <c r="K37" s="186"/>
       <c r="L37" s="164">
-        <v>8.5962246845813876E-3</v>
+        <v>9.6288274673649674E-3</v>
       </c>
       <c r="M37" s="188"/>
       <c r="N37" s="165">
-        <v>9.3187864602055359E-3</v>
+        <v>9.6288274673649674E-3</v>
       </c>
       <c r="O37" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND(N37,6),EvaluationDate)</f>
-        <v>-3.0000000000012655E-6</v>
+        <v>0</v>
       </c>
       <c r="P37" s="201"/>
     </row>
@@ -12212,7 +12210,7 @@
       </c>
       <c r="D38" s="195" t="str">
         <f>_xll.qlSimpleQuote(C38,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP10MD_SYNTH1Y_Quote#0000</v>
+        <v>GBP10MD_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E38" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D38)</f>
@@ -12226,19 +12224,19 @@
       </c>
       <c r="J38" s="162">
         <f>SynthDepo!J47</f>
-        <v>9.6689418135998302E-3</v>
+        <v>1.0005828038557159E-2</v>
       </c>
       <c r="K38" s="186"/>
       <c r="L38" s="164">
-        <v>8.872992221020292E-3</v>
+        <v>1.0005828038557159E-2</v>
       </c>
       <c r="M38" s="188"/>
       <c r="N38" s="165">
-        <v>9.6689418135998302E-3</v>
+        <v>1.0005828038557159E-2</v>
       </c>
       <c r="O38" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND(N38,6),EvaluationDate)</f>
-        <v>-2.0000000000002655E-6</v>
+        <v>0</v>
       </c>
       <c r="P38" s="201"/>
     </row>
@@ -12253,7 +12251,7 @@
       </c>
       <c r="D39" s="195" t="str">
         <f>_xll.qlSimpleQuote(C39,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP11MD_SYNTH1Y_Quote#0000</v>
+        <v>GBP11MD_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E39" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D39)</f>
@@ -12267,19 +12265,19 @@
       </c>
       <c r="J39" s="162">
         <f>SynthDepo!J48</f>
-        <v>1.0029206143798649E-2</v>
+        <v>1.0328221107925971E-2</v>
       </c>
       <c r="K39" s="186"/>
       <c r="L39" s="164">
-        <v>9.1296580405170191E-3</v>
+        <v>1.0328221107925971E-2</v>
       </c>
       <c r="M39" s="188"/>
       <c r="N39" s="165">
-        <v>1.0029206143798649E-2</v>
+        <v>1.0328221107925971E-2</v>
       </c>
       <c r="O39" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND(N39,6),EvaluationDate)</f>
-        <v>-1.0000000000010001E-6</v>
+        <v>-1.2999999999999123E-5</v>
       </c>
       <c r="P39" s="201"/>
     </row>
@@ -12294,7 +12292,7 @@
       </c>
       <c r="D40" s="195" t="str">
         <f>_xll.qlSimpleQuote(C40,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP1YD_SYNTH1Y_Quote#0000</v>
+        <v>GBP1YD_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E40" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D40)</f>
@@ -12308,15 +12306,15 @@
       </c>
       <c r="J40" s="293">
         <f>SynthDepo!J49</f>
-        <v>1.0445444913446551E-2</v>
+        <v>1.0678800000000002E-2</v>
       </c>
       <c r="K40" s="186"/>
       <c r="L40" s="164">
-        <v>9.4125000000000007E-3</v>
+        <v>1.0678800000000002E-2</v>
       </c>
       <c r="M40" s="188"/>
       <c r="N40" s="165">
-        <v>1.0445444913446551E-2</v>
+        <v>1.0678800000000002E-2</v>
       </c>
       <c r="O40" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND(N40,6),EvaluationDate)</f>
@@ -12338,7 +12336,7 @@
       </c>
       <c r="D41" s="210" t="str">
         <f>_xll.qlSimpleQuote(C41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1x13F_SYNTH1Y_Quote#0000</v>
+        <v>GBP1x13F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E41" s="213" t="str">
         <f>_xll.ohRangeRetrieveError($D41)</f>
@@ -12353,21 +12351,21 @@
       </c>
       <c r="J41" s="297">
         <f>SynthFRA!N8</f>
-        <v>1.1229166140868337E-2</v>
+        <v>1.1389268776680821E-2</v>
       </c>
       <c r="K41" s="286"/>
       <c r="L41" s="298">
-        <v>1.0027165978769863E-2</v>
+        <v>1.1389268776680821E-2</v>
       </c>
       <c r="M41" s="287"/>
       <c r="N41" s="299">
-        <v>1.1229166140868337E-2</v>
+        <v>1.1389268776680821E-2</v>
       </c>
       <c r="O41" s="190">
         <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(N41,6),EvaluationDate)</f>
-        <v>2.9999999999995308E-6</v>
-      </c>
-      <c r="P41" s="358"/>
+        <v>4.9999999999997963E-6</v>
+      </c>
+      <c r="P41" s="356"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="173">
@@ -12383,7 +12381,7 @@
       </c>
       <c r="D42" s="195" t="str">
         <f>_xll.qlSimpleQuote(C42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP2x14F_SYNTH1Y_Quote#0000</v>
+        <v>GBP2x14F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E42" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D42)</f>
@@ -12398,19 +12396,19 @@
       </c>
       <c r="J42" s="293">
         <f>SynthFRA!N9</f>
-        <v>1.2033252908336019E-2</v>
+        <v>1.2088572617807183E-2</v>
       </c>
       <c r="K42" s="292"/>
       <c r="L42" s="294">
-        <v>1.0658584586671321E-2</v>
+        <v>1.2088572617807183E-2</v>
       </c>
       <c r="M42" s="290"/>
       <c r="N42" s="295">
-        <v>1.2033252908336019E-2</v>
+        <v>1.2088572617807183E-2</v>
       </c>
       <c r="O42" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D42,ROUND(N42,6),EvaluationDate)</f>
-        <v>6.0000000000007964E-6</v>
+        <v>2.0000000000002655E-6</v>
       </c>
       <c r="P42" s="302"/>
     </row>
@@ -12428,7 +12426,7 @@
       </c>
       <c r="D43" s="195" t="str">
         <f>_xll.qlSimpleQuote(C43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3x15F_SYNTH1Y_Quote#0000</v>
+        <v>GBP3x15F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E43" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D43)</f>
@@ -12443,19 +12441,19 @@
       </c>
       <c r="J43" s="293">
         <f>SynthFRA!N10</f>
-        <v>1.2950768670395081E-2</v>
+        <v>1.2900633918417196E-2</v>
       </c>
       <c r="K43" s="292"/>
       <c r="L43" s="294">
-        <v>1.1290075949225549E-2</v>
+        <v>1.2900633918417196E-2</v>
       </c>
       <c r="M43" s="290"/>
       <c r="N43" s="295">
-        <v>1.2950768670395081E-2</v>
+        <v>1.2900633918417196E-2</v>
       </c>
       <c r="O43" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D43,ROUND(N43,6),EvaluationDate)</f>
-        <v>1.0000000000001327E-5</v>
+        <v>-5.000000000001531E-6</v>
       </c>
       <c r="P43" s="302"/>
     </row>
@@ -12473,7 +12471,7 @@
       </c>
       <c r="D44" s="195" t="str">
         <f>_xll.qlSimpleQuote(C44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP4x16F_SYNTH1Y_Quote#0000</v>
+        <v>GBP4x16F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E44" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D44)</f>
@@ -12488,19 +12486,19 @@
       </c>
       <c r="J44" s="293">
         <f>SynthFRA!N11</f>
-        <v>1.3841984945292062E-2</v>
+        <v>1.3643632919761872E-2</v>
       </c>
       <c r="K44" s="292"/>
       <c r="L44" s="294">
-        <v>1.2023257103589997E-2</v>
+        <v>1.3643632919761872E-2</v>
       </c>
       <c r="M44" s="290"/>
       <c r="N44" s="295">
-        <v>1.3841984945292062E-2</v>
+        <v>1.3643632919761872E-2</v>
       </c>
       <c r="O44" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(N44,6),EvaluationDate)</f>
-        <v>1.3000000000000858E-5</v>
+        <v>-7.9999999999993271E-6</v>
       </c>
       <c r="P44" s="302"/>
     </row>
@@ -12518,7 +12516,7 @@
       </c>
       <c r="D45" s="195" t="str">
         <f>_xll.qlSimpleQuote(C45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP5x17F_SYNTH1Y_Quote#0000</v>
+        <v>GBP5x17F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E45" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D45)</f>
@@ -12533,19 +12531,19 @@
       </c>
       <c r="J45" s="293">
         <f>SynthFRA!N12</f>
-        <v>1.4673732260121704E-2</v>
+        <v>1.4418783980459465E-2</v>
       </c>
       <c r="K45" s="292"/>
       <c r="L45" s="294">
-        <v>1.2763263534362902E-2</v>
+        <v>1.4418783980459465E-2</v>
       </c>
       <c r="M45" s="290"/>
       <c r="N45" s="295">
-        <v>1.4673732260121704E-2</v>
+        <v>1.4418783980459465E-2</v>
       </c>
       <c r="O45" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D45,ROUND(N45,6),EvaluationDate)</f>
-        <v>1.6000000000000389E-5</v>
+        <v>-9.0000000000003272E-6</v>
       </c>
       <c r="P45" s="302"/>
     </row>
@@ -12563,7 +12561,7 @@
       </c>
       <c r="D46" s="195" t="str">
         <f>_xll.qlSimpleQuote(C46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6x18F_SYNTH1Y_Quote#0000</v>
+        <v>GBP6x18F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E46" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D46)</f>
@@ -12578,19 +12576,19 @@
       </c>
       <c r="J46" s="293">
         <f>SynthFRA!N13</f>
-        <v>1.5499608933189381E-2</v>
+        <v>1.5284988061405168E-2</v>
       </c>
       <c r="K46" s="292"/>
       <c r="L46" s="294">
-        <v>1.3537123314403075E-2</v>
+        <v>1.5284988061405168E-2</v>
       </c>
       <c r="M46" s="290"/>
       <c r="N46" s="295">
-        <v>1.5499608933189381E-2</v>
+        <v>1.5284988061405168E-2</v>
       </c>
       <c r="O46" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(N46,6),EvaluationDate)</f>
-        <v>1.8000000000000654E-5</v>
+        <v>-9.0000000000003272E-6</v>
       </c>
       <c r="P46" s="302"/>
     </row>
@@ -12608,7 +12606,7 @@
       </c>
       <c r="D47" s="195" t="str">
         <f>_xll.qlSimpleQuote(C47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP7x19F_SYNTH1Y_Quote#0000</v>
+        <v>GBP7x19F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E47" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D47)</f>
@@ -12623,19 +12621,19 @@
       </c>
       <c r="J47" s="293">
         <f>SynthFRA!N14</f>
-        <v>1.6258382098877922E-2</v>
+        <v>1.598448974791785E-2</v>
       </c>
       <c r="K47" s="292"/>
       <c r="L47" s="294">
-        <v>1.4336270575799526E-2</v>
+        <v>1.598448974791785E-2</v>
       </c>
       <c r="M47" s="290"/>
       <c r="N47" s="295">
-        <v>1.6258382098877922E-2</v>
+        <v>1.598448974791785E-2</v>
       </c>
       <c r="O47" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D47,ROUND(N47,6),EvaluationDate)</f>
-        <v>1.7000000000003124E-5</v>
+        <v>-7.9999999999975924E-6</v>
       </c>
       <c r="P47" s="302"/>
     </row>
@@ -12653,7 +12651,7 @@
       </c>
       <c r="D48" s="195" t="str">
         <f>_xll.qlSimpleQuote(C48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP8x20F_SYNTH1Y_Quote#0000</v>
+        <v>GBP8x20F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E48" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D48)</f>
@@ -12668,19 +12666,19 @@
       </c>
       <c r="J48" s="293">
         <f>SynthFRA!N15</f>
-        <v>1.6892286625767718E-2</v>
+        <v>1.6698656149622002E-2</v>
       </c>
       <c r="K48" s="292"/>
       <c r="L48" s="294">
-        <v>1.5147467518117944E-2</v>
+        <v>1.6698656149622002E-2</v>
       </c>
       <c r="M48" s="290"/>
       <c r="N48" s="295">
-        <v>1.6892286625767718E-2</v>
+        <v>1.6698656149622002E-2</v>
       </c>
       <c r="O48" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D48,ROUND(N48,6),EvaluationDate)</f>
-        <v>1.5000000000001124E-5</v>
+        <v>-7.0000000000000617E-6</v>
       </c>
       <c r="P48" s="302"/>
     </row>
@@ -12698,7 +12696,7 @@
       </c>
       <c r="D49" s="195" t="str">
         <f>_xll.qlSimpleQuote(C49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP9x21F_SYNTH1Y_Quote#0000</v>
+        <v>GBP9x21F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E49" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D49)</f>
@@ -12713,19 +12711,19 @@
       </c>
       <c r="J49" s="293">
         <f>SynthFRA!N16</f>
-        <v>1.755859136637997E-2</v>
+        <v>1.746016833894825E-2</v>
       </c>
       <c r="K49" s="292"/>
       <c r="L49" s="294">
-        <v>1.5993204539688308E-2</v>
+        <v>1.746016833894825E-2</v>
       </c>
       <c r="M49" s="290"/>
       <c r="N49" s="295">
-        <v>1.755859136637997E-2</v>
+        <v>1.746016833894825E-2</v>
       </c>
       <c r="O49" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(N49,6),EvaluationDate)</f>
-        <v>1.2000000000001593E-5</v>
+        <v>-5.9999999999990616E-6</v>
       </c>
       <c r="P49" s="302"/>
     </row>
@@ -12743,7 +12741,7 @@
       </c>
       <c r="D50" s="195" t="str">
         <f>_xll.qlSimpleQuote(C50,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP10x22F_SYNTH1Y_Quote#0000</v>
+        <v>GBP10x22F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E50" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D50)</f>
@@ -12758,19 +12756,19 @@
       </c>
       <c r="J50" s="293">
         <f>SynthFRA!N17</f>
-        <v>1.8268494567162417E-2</v>
+        <v>1.8168229043220071E-2</v>
       </c>
       <c r="K50" s="292"/>
       <c r="L50" s="294">
-        <v>1.6755091049150583E-2</v>
+        <v>1.8168229043220071E-2</v>
       </c>
       <c r="M50" s="290"/>
       <c r="N50" s="295">
-        <v>1.8268494567162417E-2</v>
+        <v>1.8168229043220071E-2</v>
       </c>
       <c r="O50" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D50,ROUND(N50,6),EvaluationDate)</f>
-        <v>7.0000000000000617E-6</v>
+        <v>-4.0000000000005309E-6</v>
       </c>
       <c r="P50" s="302"/>
     </row>
@@ -12788,7 +12786,7 @@
       </c>
       <c r="D51" s="195" t="str">
         <f>_xll.qlSimpleQuote(C51,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP11x23F_SYNTH1Y_Quote#0000</v>
+        <v>GBP11x23F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E51" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D51)</f>
@@ -12803,19 +12801,19 @@
       </c>
       <c r="J51" s="293">
         <f>SynthFRA!N18</f>
-        <v>1.9050010373500733E-2</v>
+        <v>1.8822007102243868E-2</v>
       </c>
       <c r="K51" s="292"/>
       <c r="L51" s="294">
-        <v>1.7583958481628865E-2</v>
+        <v>1.8822007102243868E-2</v>
       </c>
       <c r="M51" s="290"/>
       <c r="N51" s="295">
-        <v>1.9050010373500733E-2</v>
+        <v>1.8822007102243868E-2</v>
       </c>
       <c r="O51" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(N51,6),EvaluationDate)</f>
-        <v>2.9999999999995308E-6</v>
+        <v>8.9999999999985925E-6</v>
       </c>
       <c r="P51" s="302"/>
     </row>
@@ -12833,7 +12831,7 @@
       </c>
       <c r="D52" s="195" t="str">
         <f>_xll.qlSimpleQuote(C52,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP13x25F_SYNTH1Y_Quote#0000</v>
+        <v>GBP13x25F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E52" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D52)</f>
@@ -12848,19 +12846,19 @@
       </c>
       <c r="J52" s="293">
         <f>SynthFRA!N19</f>
-        <v>2.0919830599628236E-2</v>
+        <v>2.0112029882455869E-2</v>
       </c>
       <c r="K52" s="292"/>
       <c r="L52" s="294">
-        <v>1.9145580306639643E-2</v>
+        <v>2.0112029882455869E-2</v>
       </c>
       <c r="M52" s="290"/>
       <c r="N52" s="295">
-        <v>2.0919830599628236E-2</v>
+        <v>2.0112029882455869E-2</v>
       </c>
       <c r="O52" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(N52,6),EvaluationDate)</f>
-        <v>-4.0000000000005309E-6</v>
+        <v>-4.9999999999980616E-6</v>
       </c>
       <c r="P52" s="302"/>
     </row>
@@ -12878,7 +12876,7 @@
       </c>
       <c r="D53" s="195" t="str">
         <f>_xll.qlSimpleQuote(C53,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP14x26F_SYNTH1Y_Quote#0000</v>
+        <v>GBP14x26F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E53" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D53)</f>
@@ -12893,19 +12891,19 @@
       </c>
       <c r="J53" s="293">
         <f>SynthFRA!N20</f>
-        <v>2.2037272971558539E-2</v>
+        <v>2.0670825504892569E-2</v>
       </c>
       <c r="K53" s="292"/>
       <c r="L53" s="294">
-        <v>1.988481432975292E-2</v>
+        <v>2.0670825504892569E-2</v>
       </c>
       <c r="M53" s="290"/>
       <c r="N53" s="295">
-        <v>2.2037272971558539E-2</v>
+        <v>2.0670825504892569E-2</v>
       </c>
       <c r="O53" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(N53,6),EvaluationDate)</f>
-        <v>-1.1000000000000593E-5</v>
+        <v>-1.0000000000010001E-6</v>
       </c>
       <c r="P53" s="302"/>
     </row>
@@ -12923,7 +12921,7 @@
       </c>
       <c r="D54" s="195" t="str">
         <f>_xll.qlSimpleQuote(C54,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP15x27F_SYNTH1Y_Quote#0000</v>
+        <v>GBP15x27F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E54" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D54)</f>
@@ -12938,19 +12936,19 @@
       </c>
       <c r="J54" s="293">
         <f>SynthFRA!N21</f>
-        <v>2.3107991621475744E-2</v>
+        <v>2.1242607107886016E-2</v>
       </c>
       <c r="K54" s="292"/>
       <c r="L54" s="294">
-        <v>2.0585790483696506E-2</v>
+        <v>2.1242607107886016E-2</v>
       </c>
       <c r="M54" s="290"/>
       <c r="N54" s="295">
-        <v>2.3107991621475744E-2</v>
+        <v>2.1242607107886016E-2</v>
       </c>
       <c r="O54" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(N54,6),EvaluationDate)</f>
-        <v>-1.9999999999999185E-5</v>
+        <v>5.000000000001531E-6</v>
       </c>
       <c r="P54" s="302"/>
     </row>
@@ -12968,7 +12966,7 @@
       </c>
       <c r="D55" s="195" t="str">
         <f>_xll.qlSimpleQuote(C55,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP16x28F_SYNTH1Y_Quote#0000</v>
+        <v>GBP16x28F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E55" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D55)</f>
@@ -12983,19 +12981,19 @@
       </c>
       <c r="J55" s="293">
         <f>SynthFRA!N22</f>
-        <v>2.413300475734689E-2</v>
+        <v>2.1697283427753219E-2</v>
       </c>
       <c r="K55" s="292"/>
       <c r="L55" s="294">
-        <v>2.1333728383795179E-2</v>
+        <v>2.1697283427753219E-2</v>
       </c>
       <c r="M55" s="290"/>
       <c r="N55" s="295">
-        <v>2.413300475734689E-2</v>
+        <v>2.1697283427753219E-2</v>
       </c>
       <c r="O55" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(N55,6),EvaluationDate)</f>
-        <v>-2.7999999999996777E-5</v>
+        <v>7.0000000000000617E-6</v>
       </c>
       <c r="P55" s="302"/>
     </row>
@@ -13013,7 +13011,7 @@
       </c>
       <c r="D56" s="195" t="str">
         <f>_xll.qlSimpleQuote(C56,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP17x29F_SYNTH1Y_Quote#0000</v>
+        <v>GBP17x29F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E56" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D56)</f>
@@ -13028,19 +13026,19 @@
       </c>
       <c r="J56" s="293">
         <f>SynthFRA!N23</f>
-        <v>2.5073465918062483E-2</v>
+        <v>2.2191183541485034E-2</v>
       </c>
       <c r="K56" s="292"/>
       <c r="L56" s="294">
-        <v>2.1947661787971386E-2</v>
+        <v>2.2191183541485034E-2</v>
       </c>
       <c r="M56" s="290"/>
       <c r="N56" s="295">
-        <v>2.5073465918062483E-2</v>
+        <v>2.2191183541485034E-2</v>
       </c>
       <c r="O56" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D56,ROUND(N56,6),EvaluationDate)</f>
-        <v>-3.6999999999998839E-5</v>
+        <v>5.9999999999990616E-6</v>
       </c>
       <c r="P56" s="302"/>
     </row>
@@ -13058,7 +13056,7 @@
       </c>
       <c r="D57" s="195" t="str">
         <f>_xll.qlSimpleQuote(C57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP18x30F_SYNTH1Y_Quote#0000</v>
+        <v>GBP18x30F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E57" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D57)</f>
@@ -13073,19 +13071,19 @@
       </c>
       <c r="J57" s="293">
         <f>SynthFRA!N24</f>
-        <v>2.5921159039965898E-2</v>
+        <v>2.2644672991582102E-2</v>
       </c>
       <c r="K57" s="292"/>
       <c r="L57" s="294">
-        <v>2.2621040886569837E-2</v>
+        <v>2.2644672991582102E-2</v>
       </c>
       <c r="M57" s="290"/>
       <c r="N57" s="295">
-        <v>2.5921159039965898E-2</v>
+        <v>2.2644672991582102E-2</v>
       </c>
       <c r="O57" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D57,ROUND(N57,6),EvaluationDate)</f>
-        <v>-4.099999999999937E-5</v>
+        <v>4.9999999999980616E-6</v>
       </c>
       <c r="P57" s="302"/>
     </row>
@@ -13103,7 +13101,7 @@
       </c>
       <c r="D58" s="195" t="str">
         <f>_xll.qlSimpleQuote(C58,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP19x31F_SYNTH1Y_Quote#0000</v>
+        <v>GBP19x31F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E58" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D58)</f>
@@ -13118,19 +13116,19 @@
       </c>
       <c r="J58" s="293">
         <f>SynthFRA!N25</f>
-        <v>2.6658483607007049E-2</v>
+        <v>2.3035182766472637E-2</v>
       </c>
       <c r="K58" s="292"/>
       <c r="L58" s="294">
-        <v>2.3246321725232204E-2</v>
+        <v>2.3035182766472637E-2</v>
       </c>
       <c r="M58" s="290"/>
       <c r="N58" s="295">
-        <v>2.6658483607007049E-2</v>
+        <v>2.3035182766472637E-2</v>
       </c>
       <c r="O58" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D58,ROUND(N58,6),EvaluationDate)</f>
-        <v>-4.200000000000037E-5</v>
+        <v>1.9999999999985307E-6</v>
       </c>
       <c r="P58" s="302"/>
     </row>
@@ -13148,7 +13146,7 @@
       </c>
       <c r="D59" s="195" t="str">
         <f>_xll.qlSimpleQuote(C59,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP20x32F_SYNTH1Y_Quote#0000</v>
+        <v>GBP20x32F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E59" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D59)</f>
@@ -13163,19 +13161,19 @@
       </c>
       <c r="J59" s="293">
         <f>SynthFRA!N26</f>
-        <v>2.7203267879965527E-2</v>
+        <v>2.3464635131761381E-2</v>
       </c>
       <c r="K59" s="292"/>
       <c r="L59" s="294">
-        <v>2.3804240585317667E-2</v>
+        <v>2.3464635131761381E-2</v>
       </c>
       <c r="M59" s="290"/>
       <c r="N59" s="295">
-        <v>2.7203267879965527E-2</v>
+        <v>2.3464635131761381E-2</v>
       </c>
       <c r="O59" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D59,ROUND(N59,6),EvaluationDate)</f>
-        <v>-3.999999999999837E-5</v>
+        <v>1.0000000000010001E-6</v>
       </c>
       <c r="P59" s="302"/>
     </row>
@@ -13193,7 +13191,7 @@
       </c>
       <c r="D60" s="195" t="str">
         <f>_xll.qlSimpleQuote(C60,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP21x33F_SYNTH1Y_Quote#0000</v>
+        <v>GBP21x33F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E60" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D60)</f>
@@ -13208,19 +13206,19 @@
       </c>
       <c r="J60" s="293">
         <f>SynthFRA!N27</f>
-        <v>2.7436091082216341E-2</v>
+        <v>2.3896260794896602E-2</v>
       </c>
       <c r="K60" s="292"/>
       <c r="L60" s="294">
-        <v>2.4383417320421739E-2</v>
+        <v>2.3896260794896602E-2</v>
       </c>
       <c r="M60" s="290"/>
       <c r="N60" s="295">
-        <v>2.7436091082216341E-2</v>
+        <v>2.3896260794896602E-2</v>
       </c>
       <c r="O60" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D60,ROUND(N60,6),EvaluationDate)</f>
-        <v>-3.4000000000002778E-5</v>
+        <v>-1.0000000000010001E-6</v>
       </c>
       <c r="P60" s="302"/>
     </row>
@@ -13238,7 +13236,7 @@
       </c>
       <c r="D61" s="195" t="str">
         <f>_xll.qlSimpleQuote(C61,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP22x34F_SYNTH1Y_Quote#0000</v>
+        <v>GBP22x34F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E61" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D61)</f>
@@ -13253,19 +13251,19 @@
       </c>
       <c r="J61" s="293">
         <f>SynthFRA!N28</f>
-        <v>2.7300337647171494E-2</v>
+        <v>2.4278360213560023E-2</v>
       </c>
       <c r="K61" s="292"/>
       <c r="L61" s="294">
-        <v>2.4912995482502233E-2</v>
+        <v>2.4278360213560023E-2</v>
       </c>
       <c r="M61" s="290"/>
       <c r="N61" s="295">
-        <v>2.7300337647171494E-2</v>
+        <v>2.4278360213560023E-2</v>
       </c>
       <c r="O61" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D61,ROUND(N61,6),EvaluationDate)</f>
-        <v>-2.5999999999998247E-5</v>
+        <v>-1.9999999999985307E-6</v>
       </c>
       <c r="P61" s="302"/>
     </row>
@@ -13283,7 +13281,7 @@
       </c>
       <c r="D62" s="195" t="str">
         <f>_xll.qlSimpleQuote(C62,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP23x35F_SYNTH1Y_Quote#0000</v>
+        <v>GBP23x35F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E62" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D62)</f>
@@ -13298,19 +13296,19 @@
       </c>
       <c r="J62" s="293">
         <f>SynthFRA!N29</f>
-        <v>2.6548438057782703E-2</v>
+        <v>2.466566919822236E-2</v>
       </c>
       <c r="K62" s="292"/>
       <c r="L62" s="294">
-        <v>2.5403629384658524E-2</v>
+        <v>2.466566919822236E-2</v>
       </c>
       <c r="M62" s="290"/>
       <c r="N62" s="295">
-        <v>2.6548438057782703E-2</v>
+        <v>2.466566919822236E-2</v>
       </c>
       <c r="O62" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D62,ROUND(N62,6),EvaluationDate)</f>
-        <v>-1.4000000000000123E-5</v>
+        <v>-1.0000000000010001E-6</v>
       </c>
       <c r="P62" s="302"/>
     </row>
@@ -13328,7 +13326,7 @@
       </c>
       <c r="D63" s="195" t="str">
         <f>_xll.qlSimpleQuote(C63,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP25x37F_SYNTH1Y_Quote#0000</v>
+        <v>GBP25x37F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E63" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D63)</f>
@@ -13343,19 +13341,19 @@
       </c>
       <c r="J63" s="293">
         <f>SynthFRA!N30</f>
-        <v>2.3361058506932035E-2</v>
+        <v>2.5442870972725011E-2</v>
       </c>
       <c r="K63" s="292"/>
       <c r="L63" s="294">
-        <v>2.6393168334664444E-2</v>
+        <v>2.5442870972725011E-2</v>
       </c>
       <c r="M63" s="290"/>
       <c r="N63" s="295">
-        <v>2.3361058506932035E-2</v>
+        <v>2.5442870972725011E-2</v>
       </c>
       <c r="O63" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D63,ROUND(N63,6),EvaluationDate)</f>
-        <v>1.1999999999998123E-5</v>
+        <v>1.0000000000010001E-6</v>
       </c>
       <c r="P63" s="302"/>
     </row>
@@ -13373,7 +13371,7 @@
       </c>
       <c r="D64" s="195" t="str">
         <f>_xll.qlSimpleQuote(C64,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP26x38F_SYNTH1Y_Quote#0000</v>
+        <v>GBP26x38F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E64" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D64)</f>
@@ -13388,19 +13386,19 @@
       </c>
       <c r="J64" s="293">
         <f>SynthFRA!N31</f>
-        <v>2.1165479611684551E-2</v>
+        <v>2.5814712803106245E-2</v>
       </c>
       <c r="K64" s="292"/>
       <c r="L64" s="294">
-        <v>2.6830389754535288E-2</v>
+        <v>2.5814712803106245E-2</v>
       </c>
       <c r="M64" s="290"/>
       <c r="N64" s="295">
-        <v>2.1165479611684551E-2</v>
+        <v>2.5814712803106245E-2</v>
       </c>
       <c r="O64" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D64,ROUND(N64,6),EvaluationDate)</f>
-        <v>2.1000000000000185E-5</v>
+        <v>1.0000000000010001E-6</v>
       </c>
       <c r="P64" s="302"/>
     </row>
@@ -13418,7 +13416,7 @@
       </c>
       <c r="D65" s="195" t="str">
         <f>_xll.qlSimpleQuote(C65,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP27x39F_SYNTH1Y_Quote#0000</v>
+        <v>GBP27x39F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E65" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D65)</f>
@@ -13433,19 +13431,19 @@
       </c>
       <c r="J65" s="293">
         <f>SynthFRA!N32</f>
-        <v>1.8838360054244802E-2</v>
+        <v>2.6166139073955014E-2</v>
       </c>
       <c r="K65" s="292"/>
       <c r="L65" s="294">
-        <v>2.729306691075957E-2</v>
+        <v>2.6166139073955014E-2</v>
       </c>
       <c r="M65" s="290"/>
       <c r="N65" s="295">
-        <v>1.8838360054244802E-2</v>
+        <v>2.6166139073955014E-2</v>
       </c>
       <c r="O65" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D65,ROUND(N65,6),EvaluationDate)</f>
-        <v>2.6000000000001716E-5</v>
+        <v>-2.0000000000020002E-6</v>
       </c>
       <c r="P65" s="302"/>
     </row>
@@ -13463,7 +13461,7 @@
       </c>
       <c r="D66" s="195" t="str">
         <f>_xll.qlSimpleQuote(C66,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP28x40F_SYNTH1Y_Quote#0000</v>
+        <v>GBP28x40F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E66" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D66)</f>
@@ -13478,19 +13476,19 @@
       </c>
       <c r="J66" s="293">
         <f>SynthFRA!N33</f>
-        <v>1.6484764600155188E-2</v>
+        <v>2.650494849789856E-2</v>
       </c>
       <c r="K66" s="292"/>
       <c r="L66" s="294">
-        <v>2.7712873330427559E-2</v>
+        <v>2.650494849789856E-2</v>
       </c>
       <c r="M66" s="290"/>
       <c r="N66" s="295">
-        <v>1.6484764600155188E-2</v>
+        <v>2.650494849789856E-2</v>
       </c>
       <c r="O66" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D66,ROUND(N66,6),EvaluationDate)</f>
-        <v>2.9999999999998778E-5</v>
+        <v>-4.9999999999980616E-6</v>
       </c>
       <c r="P66" s="302"/>
     </row>
@@ -13508,7 +13506,7 @@
       </c>
       <c r="D67" s="195" t="str">
         <f>_xll.qlSimpleQuote(C67,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP29x41F_SYNTH1Y_Quote#0000</v>
+        <v>GBP29x41F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E67" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D67)</f>
@@ -13523,19 +13521,19 @@
       </c>
       <c r="J67" s="293">
         <f>SynthFRA!N34</f>
-        <v>1.4680738811740687E-2</v>
+        <v>2.6864184151168709E-2</v>
       </c>
       <c r="K67" s="292"/>
       <c r="L67" s="294">
-        <v>2.8115172517052377E-2</v>
+        <v>2.6864184151168709E-2</v>
       </c>
       <c r="M67" s="290"/>
       <c r="N67" s="295">
-        <v>1.4680738811740687E-2</v>
+        <v>2.6864184151168709E-2</v>
       </c>
       <c r="O67" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D67,ROUND(N67,6),EvaluationDate)</f>
-        <v>2.9999999999998778E-5</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="P67" s="302"/>
     </row>
@@ -13553,7 +13551,7 @@
       </c>
       <c r="D68" s="195" t="str">
         <f>_xll.qlSimpleQuote(C68,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP30x42F_SYNTH1Y_Quote#0000</v>
+        <v>GBP30x42F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E68" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D68)</f>
@@ -13568,19 +13566,19 @@
       </c>
       <c r="J68" s="293">
         <f>SynthFRA!N35</f>
-        <v>1.36194334633544E-2</v>
+        <v>2.716785185620926E-2</v>
       </c>
       <c r="K68" s="292"/>
       <c r="L68" s="294">
-        <v>2.8539720482242979E-2</v>
+        <v>2.716785185620926E-2</v>
       </c>
       <c r="M68" s="290"/>
       <c r="N68" s="295">
-        <v>1.36194334633544E-2</v>
+        <v>2.716785185620926E-2</v>
       </c>
       <c r="O68" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D68,ROUND(N68,6),EvaluationDate)</f>
-        <v>2.6999999999999247E-5</v>
+        <v>-1.4000000000000123E-5</v>
       </c>
       <c r="P68" s="302"/>
     </row>
@@ -13598,7 +13596,7 @@
       </c>
       <c r="D69" s="195" t="str">
         <f>_xll.qlSimpleQuote(C69,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP31x43F_SYNTH1Y_Quote#0000</v>
+        <v>GBP31x43F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E69" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D69)</f>
@@ -13613,19 +13611,19 @@
       </c>
       <c r="J69" s="293">
         <f>SynthFRA!N36</f>
-        <v>1.3405389499746916E-2</v>
+        <v>2.7450000128978726E-2</v>
       </c>
       <c r="K69" s="292"/>
       <c r="L69" s="294">
-        <v>2.8885518708416585E-2</v>
+        <v>2.7450000128978726E-2</v>
       </c>
       <c r="M69" s="290"/>
       <c r="N69" s="295">
-        <v>1.3405389499746916E-2</v>
+        <v>2.7450000128978726E-2</v>
       </c>
       <c r="O69" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D69,ROUND(N69,6),EvaluationDate)</f>
-        <v>2.1000000000000185E-5</v>
+        <v>-1.9000000000001654E-5</v>
       </c>
       <c r="P69" s="302"/>
     </row>
@@ -13643,7 +13641,7 @@
       </c>
       <c r="D70" s="195" t="str">
         <f>_xll.qlSimpleQuote(C70,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP32x44F_SYNTH1Y_Quote#0000</v>
+        <v>GBP32x44F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E70" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D70)</f>
@@ -13658,19 +13656,19 @@
       </c>
       <c r="J70" s="293">
         <f>SynthFRA!N37</f>
-        <v>1.4403072327492529E-2</v>
+        <v>2.7756568537288171E-2</v>
       </c>
       <c r="K70" s="292"/>
       <c r="L70" s="294">
-        <v>2.9253267594249097E-2</v>
+        <v>2.7756568537288171E-2</v>
       </c>
       <c r="M70" s="290"/>
       <c r="N70" s="295">
-        <v>1.4403072327492529E-2</v>
+        <v>2.7756568537288171E-2</v>
       </c>
       <c r="O70" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D70,ROUND(N70,6),EvaluationDate)</f>
-        <v>1.3999999999998389E-5</v>
+        <v>-2.5000000000000716E-5</v>
       </c>
       <c r="P70" s="302"/>
     </row>
@@ -13688,7 +13686,7 @@
       </c>
       <c r="D71" s="195" t="str">
         <f>_xll.qlSimpleQuote(C71,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP33x45F_SYNTH1Y_Quote#0000</v>
+        <v>GBP33x45F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E71" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D71)</f>
@@ -13703,19 +13701,19 @@
       </c>
       <c r="J71" s="293">
         <f>SynthFRA!N38</f>
-        <v>1.6716167383521396E-2</v>
+        <v>2.8034037881668319E-2</v>
       </c>
       <c r="K71" s="292"/>
       <c r="L71" s="294">
-        <v>2.9616579515204335E-2</v>
+        <v>2.8034037881668319E-2</v>
       </c>
       <c r="M71" s="290"/>
       <c r="N71" s="295">
-        <v>1.6716167383521396E-2</v>
+        <v>2.8034037881668319E-2</v>
       </c>
       <c r="O71" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D71,ROUND(N71,6),EvaluationDate)</f>
-        <v>3.0000000000030003E-6</v>
+        <v>-3.0999999999999778E-5</v>
       </c>
       <c r="P71" s="302"/>
     </row>
@@ -13733,7 +13731,7 @@
       </c>
       <c r="D72" s="195" t="str">
         <f>_xll.qlSimpleQuote(C72,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP34x46F_SYNTH1Y_Quote#0000</v>
+        <v>GBP34x46F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E72" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D72)</f>
@@ -13748,19 +13746,19 @@
       </c>
       <c r="J72" s="293">
         <f>SynthFRA!N39</f>
-        <v>1.9994609742034875E-2</v>
+        <v>2.8295227146859867E-2</v>
       </c>
       <c r="K72" s="292"/>
       <c r="L72" s="294">
-        <v>2.9921151674305278E-2</v>
+        <v>2.8295227146859867E-2</v>
       </c>
       <c r="M72" s="290"/>
       <c r="N72" s="295">
-        <v>1.9994609742034875E-2</v>
+        <v>2.8295227146859867E-2</v>
       </c>
       <c r="O72" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D72,ROUND(N72,6),EvaluationDate)</f>
-        <v>-6.0000000000025311E-6</v>
+        <v>-3.5999999999997839E-5</v>
       </c>
       <c r="P72" s="302"/>
     </row>
@@ -13778,7 +13776,7 @@
       </c>
       <c r="D73" s="195" t="str">
         <f>_xll.qlSimpleQuote(C73,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP35x47F_SYNTH1Y_Quote#0000</v>
+        <v>GBP35x47F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E73" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D73)</f>
@@ -13793,19 +13791,19 @@
       </c>
       <c r="J73" s="293">
         <f>SynthFRA!N40</f>
-        <v>2.4529362618798192E-2</v>
+        <v>2.8547582293314954E-2</v>
       </c>
       <c r="K73" s="292"/>
       <c r="L73" s="294">
-        <v>3.0233912549550355E-2</v>
+        <v>2.8547582293314954E-2</v>
       </c>
       <c r="M73" s="290"/>
       <c r="N73" s="295">
-        <v>2.4529362618798192E-2</v>
+        <v>2.8547582293314954E-2</v>
       </c>
       <c r="O73" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D73,ROUND(N73,6),EvaluationDate)</f>
-        <v>-1.1000000000000593E-5</v>
+        <v>-3.900000000000084E-5</v>
       </c>
       <c r="P73" s="302"/>
     </row>
@@ -13823,7 +13821,7 @@
       </c>
       <c r="D74" s="195" t="str">
         <f>_xll.qlSimpleQuote(C74,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP37x49F_SYNTH1Y_Quote#0000</v>
+        <v>GBP37x49F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E74" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D74)</f>
@@ -13838,19 +13836,19 @@
       </c>
       <c r="J74" s="293">
         <f>SynthFRA!N41</f>
-        <v>3.2839474311182976E-2</v>
+        <v>2.8998719390911181E-2</v>
       </c>
       <c r="K74" s="292"/>
       <c r="L74" s="294">
-        <v>3.0827447626500123E-2</v>
+        <v>2.8998719390911181E-2</v>
       </c>
       <c r="M74" s="290"/>
       <c r="N74" s="295">
-        <v>3.2839474311182976E-2</v>
+        <v>2.8998719390911181E-2</v>
       </c>
       <c r="O74" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D74,ROUND(N74,6),EvaluationDate)</f>
-        <v>1.9999999999999185E-5</v>
+        <v>-4.099999999999937E-5</v>
       </c>
       <c r="P74" s="302"/>
     </row>
@@ -13868,7 +13866,7 @@
       </c>
       <c r="D75" s="195" t="str">
         <f>_xll.qlSimpleQuote(C75,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP38x50F_SYNTH1Y_Quote#0000</v>
+        <v>GBP38x50F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E75" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D75)</f>
@@ -13883,19 +13881,19 @@
       </c>
       <c r="J75" s="293">
         <f>SynthFRA!N42</f>
-        <v>3.5735169480952324E-2</v>
+        <v>2.920648925943202E-2</v>
       </c>
       <c r="K75" s="292"/>
       <c r="L75" s="294">
-        <v>3.1098905187365501E-2</v>
+        <v>2.920648925943202E-2</v>
       </c>
       <c r="M75" s="290"/>
       <c r="N75" s="295">
-        <v>3.5735169480952324E-2</v>
+        <v>2.920648925943202E-2</v>
       </c>
       <c r="O75" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D75,ROUND(N75,6),EvaluationDate)</f>
-        <v>3.6000000000001309E-5</v>
+        <v>-4.000000000000184E-5</v>
       </c>
       <c r="P75" s="302"/>
     </row>
@@ -13913,7 +13911,7 @@
       </c>
       <c r="D76" s="195" t="str">
         <f>_xll.qlSimpleQuote(C76,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP39x51F_SYNTH1Y_Quote#0000</v>
+        <v>GBP39x51F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E76" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D76)</f>
@@ -13928,19 +13926,19 @@
       </c>
       <c r="J76" s="293">
         <f>SynthFRA!N43</f>
-        <v>3.7561387316231924E-2</v>
+        <v>2.9379499931709359E-2</v>
       </c>
       <c r="K76" s="292"/>
       <c r="L76" s="294">
-        <v>3.1382282561604712E-2</v>
+        <v>2.9379499931709359E-2</v>
       </c>
       <c r="M76" s="290"/>
       <c r="N76" s="295">
-        <v>3.7561387316231924E-2</v>
+        <v>2.9379499931709359E-2</v>
       </c>
       <c r="O76" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D76,ROUND(N76,6),EvaluationDate)</f>
-        <v>4.6999999999998432E-5</v>
+        <v>-3.7000000000002309E-5</v>
       </c>
       <c r="P76" s="302"/>
     </row>
@@ -13958,7 +13956,7 @@
       </c>
       <c r="D77" s="195" t="str">
         <f>_xll.qlSimpleQuote(C77,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP40x52F_SYNTH1Y_Quote#0000</v>
+        <v>GBP40x52F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E77" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D77)</f>
@@ -13973,19 +13971,19 @@
       </c>
       <c r="J77" s="293">
         <f>SynthFRA!N44</f>
-        <v>3.8489781295930947E-2</v>
+        <v>2.9544458364027505E-2</v>
       </c>
       <c r="K77" s="292"/>
       <c r="L77" s="294">
-        <v>3.1618383858126695E-2</v>
+        <v>2.9544458364027505E-2</v>
       </c>
       <c r="M77" s="290"/>
       <c r="N77" s="295">
-        <v>3.8489781295930947E-2</v>
+        <v>2.9544458364027505E-2</v>
       </c>
       <c r="O77" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D77,ROUND(N77,6),EvaluationDate)</f>
-        <v>5.2000000000003432E-5</v>
+        <v>-3.2999999999998308E-5</v>
       </c>
       <c r="P77" s="302"/>
     </row>
@@ -14003,7 +14001,7 @@
       </c>
       <c r="D78" s="195" t="str">
         <f>_xll.qlSimpleQuote(C78,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP41x53F_SYNTH1Y_Quote#0000</v>
+        <v>GBP41x53F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E78" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D78)</f>
@@ -14018,19 +14016,19 @@
       </c>
       <c r="J78" s="293">
         <f>SynthFRA!N45</f>
-        <v>3.8444993915661578E-2</v>
+        <v>2.9706167319244782E-2</v>
       </c>
       <c r="K78" s="292"/>
       <c r="L78" s="294">
-        <v>3.1850151420107581E-2</v>
+        <v>2.9706167319244782E-2</v>
       </c>
       <c r="M78" s="290"/>
       <c r="N78" s="295">
-        <v>3.8444993915661578E-2</v>
+        <v>2.9706167319244782E-2</v>
       </c>
       <c r="O78" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D78,ROUND(N78,6),EvaluationDate)</f>
-        <v>5.1000000000002432E-5</v>
+        <v>-2.6999999999999247E-5</v>
       </c>
       <c r="P78" s="302"/>
     </row>
@@ -14048,7 +14046,7 @@
       </c>
       <c r="D79" s="195" t="str">
         <f>_xll.qlSimpleQuote(C79,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP42x54F_SYNTH1Y_Quote#0000</v>
+        <v>GBP42x54F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E79" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D79)</f>
@@ -14063,19 +14061,19 @@
       </c>
       <c r="J79" s="293">
         <f>SynthFRA!N46</f>
-        <v>3.7904150757221866E-2</v>
+        <v>2.9845836491821411E-2</v>
       </c>
       <c r="K79" s="292"/>
       <c r="L79" s="294">
-        <v>3.2083678151476384E-2</v>
+        <v>2.9845836491821411E-2</v>
       </c>
       <c r="M79" s="290"/>
       <c r="N79" s="295">
-        <v>3.7904150757221866E-2</v>
+        <v>2.9845836491821411E-2</v>
       </c>
       <c r="O79" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D79,ROUND(N79,6),EvaluationDate)</f>
-        <v>4.6999999999998432E-5</v>
+        <v>-1.8999999999998185E-5</v>
       </c>
       <c r="P79" s="302"/>
     </row>
@@ -14093,7 +14091,7 @@
       </c>
       <c r="D80" s="195" t="str">
         <f>_xll.qlSimpleQuote(C80,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP43x55F_SYNTH1Y_Quote#0000</v>
+        <v>GBP43x55F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E80" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D80)</f>
@@ -14108,19 +14106,19 @@
       </c>
       <c r="J80" s="293">
         <f>SynthFRA!N47</f>
-        <v>3.6665610829534324E-2</v>
+        <v>2.9967015915663475E-2</v>
       </c>
       <c r="K80" s="292"/>
       <c r="L80" s="294">
-        <v>3.2283373113093344E-2</v>
+        <v>2.9967015915663475E-2</v>
       </c>
       <c r="M80" s="290"/>
       <c r="N80" s="295">
-        <v>3.6665610829534324E-2</v>
+        <v>2.9967015915663475E-2</v>
       </c>
       <c r="O80" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D80,ROUND(N80,6),EvaluationDate)</f>
-        <v>3.899999999999737E-5</v>
+        <v>-1.1999999999998123E-5</v>
       </c>
       <c r="P80" s="302"/>
     </row>
@@ -14138,7 +14136,7 @@
       </c>
       <c r="D81" s="195" t="str">
         <f>_xll.qlSimpleQuote(C81,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP44x56F_SYNTH1Y_Quote#0000</v>
+        <v>GBP44x56F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E81" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D81)</f>
@@ -14153,19 +14151,19 @@
       </c>
       <c r="J81" s="293">
         <f>SynthFRA!N48</f>
-        <v>3.5483390605706731E-2</v>
+        <v>3.010003949273448E-2</v>
       </c>
       <c r="K81" s="292"/>
       <c r="L81" s="294">
-        <v>3.2491547348544002E-2</v>
+        <v>3.010003949273448E-2</v>
       </c>
       <c r="M81" s="290"/>
       <c r="N81" s="295">
-        <v>3.5483390605706731E-2</v>
+        <v>3.010003949273448E-2</v>
       </c>
       <c r="O81" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D81,ROUND(N81,6),EvaluationDate)</f>
-        <v>2.9000000000001247E-5</v>
+        <v>-2.0000000000020002E-6</v>
       </c>
       <c r="P81" s="302"/>
     </row>
@@ -14183,7 +14181,7 @@
       </c>
       <c r="D82" s="195" t="str">
         <f>_xll.qlSimpleQuote(C82,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP45x57F_SYNTH1Y_Quote#0000</v>
+        <v>GBP45x57F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E82" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D82)</f>
@@ -14198,19 +14196,19 @@
       </c>
       <c r="J82" s="293">
         <f>SynthFRA!N49</f>
-        <v>3.4292724737708627E-2</v>
+        <v>3.0209607908659564E-2</v>
       </c>
       <c r="K82" s="292"/>
       <c r="L82" s="294">
-        <v>3.2673436076713747E-2</v>
+        <v>3.0209607908659564E-2</v>
       </c>
       <c r="M82" s="290"/>
       <c r="N82" s="295">
-        <v>3.4292724737708627E-2</v>
+        <v>3.0209607908659564E-2</v>
       </c>
       <c r="O82" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D82,ROUND(N82,6),EvaluationDate)</f>
-        <v>2.1000000000000185E-5</v>
+        <v>8.0000000000010618E-6</v>
       </c>
       <c r="P82" s="302"/>
     </row>
@@ -14228,7 +14226,7 @@
       </c>
       <c r="D83" s="195" t="str">
         <f>_xll.qlSimpleQuote(C83,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP46x58F_SYNTH1Y_Quote#0000</v>
+        <v>GBP46x58F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E83" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D83)</f>
@@ -14243,19 +14241,19 @@
       </c>
       <c r="J83" s="293">
         <f>SynthFRA!N50</f>
-        <v>3.3053588637230479E-2</v>
+        <v>3.0317182026417429E-2</v>
       </c>
       <c r="K83" s="292"/>
       <c r="L83" s="294">
-        <v>3.2833661053136065E-2</v>
+        <v>3.0317182026417429E-2</v>
       </c>
       <c r="M83" s="290"/>
       <c r="N83" s="295">
-        <v>3.3053588637230479E-2</v>
+        <v>3.0317182026417429E-2</v>
       </c>
       <c r="O83" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D83,ROUND(N83,6),EvaluationDate)</f>
-        <v>1.2999999999999123E-5</v>
+        <v>1.8000000000000654E-5</v>
       </c>
       <c r="P83" s="302"/>
     </row>
@@ -14273,7 +14271,7 @@
       </c>
       <c r="D84" s="178" t="str">
         <f>_xll.qlSimpleQuote(C84,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP47x59F_SYNTH1Y_Quote#0000</v>
+        <v>GBP47x59F_SYNTH1Y_Quote#0003</v>
       </c>
       <c r="E84" s="212" t="str">
         <f>_xll.ohRangeRetrieveError($D84)</f>
@@ -14288,19 +14286,19 @@
       </c>
       <c r="J84" s="293">
         <f>SynthFRA!N51</f>
-        <v>3.1968482366136891E-2</v>
+        <v>3.0427076550634289E-2</v>
       </c>
       <c r="K84" s="292"/>
       <c r="L84" s="294">
-        <v>3.2999893785474688E-2</v>
+        <v>3.0427076550634289E-2</v>
       </c>
       <c r="M84" s="290"/>
       <c r="N84" s="295">
-        <v>3.1968482366136891E-2</v>
+        <v>3.0427076550634289E-2</v>
       </c>
       <c r="O84" s="296">
         <f>_xll.qlSimpleQuoteSetValue(D84,ROUND(N84,6),EvaluationDate)</f>
-        <v>5.0000000000050004E-6</v>
+        <v>3.0999999999999778E-5</v>
       </c>
       <c r="P84" s="302"/>
     </row>
@@ -14357,7 +14355,7 @@
     <row r="1" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="303" t="str">
         <f>K7</f>
-        <v>GBPSB6L5Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L5Y_S6L12L_Quote#0003</v>
       </c>
       <c r="B1" s="304"/>
       <c r="C1" s="304"/>
@@ -14509,7 +14507,7 @@
       </c>
       <c r="K4" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J4,I4,H4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L2Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L2Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L4" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -14574,7 +14572,7 @@
       </c>
       <c r="K5" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J5,I5,H5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L3Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L3Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L5" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -14639,7 +14637,7 @@
       </c>
       <c r="K6" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J6,I6,H6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L4Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L4Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L6" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -14704,7 +14702,7 @@
       </c>
       <c r="K7" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J7,I7,H7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L5Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L5Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L7" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -14769,7 +14767,7 @@
       </c>
       <c r="K8" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J8,I8,H8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L6Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L6Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L8" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -14816,7 +14814,7 @@
       </c>
       <c r="K9" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J9,I9,H9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L7Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L7Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L9" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -14863,7 +14861,7 @@
       </c>
       <c r="K10" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J10,I10,H10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L8Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L8Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L10" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -14910,7 +14908,7 @@
       </c>
       <c r="K11" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J11,I11,H11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L9Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L9Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L11" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -14957,7 +14955,7 @@
       </c>
       <c r="K12" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J12,I12,H12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L10Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L10Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L12" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -15004,7 +15002,7 @@
       </c>
       <c r="K13" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J13,I13,H13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L11Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L11Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L13" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -15051,7 +15049,7 @@
       </c>
       <c r="K14" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J14,I14,H14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L12Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L12Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L14" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -15098,7 +15096,7 @@
       </c>
       <c r="K15" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J15,I15,H15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L13Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L13Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L15" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -15145,7 +15143,7 @@
       </c>
       <c r="K16" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J16,I16,H16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L14Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L14Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L16" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -15192,7 +15190,7 @@
       </c>
       <c r="K17" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J17,I17,H17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L15Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L15Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L17" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -15239,7 +15237,7 @@
       </c>
       <c r="K18" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J18,I18,H18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L16Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L16Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L18" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -15286,7 +15284,7 @@
       </c>
       <c r="K19" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J19,I19,H19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L17Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L17Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L19" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -15333,7 +15331,7 @@
       </c>
       <c r="K20" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J20,I20,H20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L18Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L18Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L20" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -15380,7 +15378,7 @@
       </c>
       <c r="K21" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J21,I21,H21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L19Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L19Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L21" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -15427,7 +15425,7 @@
       </c>
       <c r="K22" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J22,I22,H22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L20Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L20Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L22" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -15474,7 +15472,7 @@
       </c>
       <c r="K23" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J23,I23,H23,E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L21Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L21Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L23" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -15521,7 +15519,7 @@
       </c>
       <c r="K24" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J24,I24,H24,E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L22Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L22Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L24" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -15568,7 +15566,7 @@
       </c>
       <c r="K25" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J25,I25,H25,E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L23Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L23Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L25" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -15615,7 +15613,7 @@
       </c>
       <c r="K26" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J26,I26,H26,E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L24Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L24Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L26" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -15662,7 +15660,7 @@
       </c>
       <c r="K27" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J27,I27,H27,E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L25Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L25Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L27" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -15709,7 +15707,7 @@
       </c>
       <c r="K28" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J28,I28,H28,E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L26Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L26Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L28" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -15756,7 +15754,7 @@
       </c>
       <c r="K29" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J29,I29,H29,E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L27Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L27Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L29" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -15803,7 +15801,7 @@
       </c>
       <c r="K30" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J30,I30,H30,E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L28Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L28Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L30" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -15850,7 +15848,7 @@
       </c>
       <c r="K31" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J31,I31,H31,E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L29Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L29Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L31" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -15897,7 +15895,7 @@
       </c>
       <c r="K32" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J32,I32,H32,E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L30Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L30Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L32" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -15944,7 +15942,7 @@
       </c>
       <c r="K33" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J33,I33,H33,E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L35Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L35Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L33" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -15991,7 +15989,7 @@
       </c>
       <c r="K34" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J34,I34,H34,E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L40Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L40Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L34" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -16038,7 +16036,7 @@
       </c>
       <c r="K35" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J35,I35,H35,E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L50Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L50Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L35" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -16085,7 +16083,7 @@
       </c>
       <c r="K36" s="321" t="str">
         <f>_xll.qlForwardSwapQuote(J36,I36,H36,E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L60Y_S6L12L_Quote#0000</v>
+        <v>GBPSB6L60Y_S6L12L_Quote#0003</v>
       </c>
       <c r="L36" s="322" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
